--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E930F7FA-04E9-443A-9DC4-1F565FEAE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49225B82-830E-4358-96A3-D92A541091E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{33EF4B86-C412-47CB-A1DD-7320583C0C64}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20A2E4B5-D2BC-4AC8-8F87-7BDF5A79C886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -798,6 +798,11 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="1">
+          <cell r="H1" t="str">
+            <v>Director Assessment</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="G2">
             <v>0</v>
@@ -810,24 +815,39 @@
           <cell r="G3">
             <v>1</v>
           </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="G4">
             <v>0</v>
           </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="G5">
             <v>0</v>
           </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="G6">
             <v>0</v>
           </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
             <v>0</v>
           </cell>
         </row>
@@ -843,34 +863,55 @@
           <cell r="G9">
             <v>1</v>
           </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="G10">
             <v>0</v>
           </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="G11">
             <v>0</v>
           </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="G12">
             <v>0</v>
           </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="G13">
             <v>0</v>
           </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="G14">
             <v>0</v>
           </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="G15">
+            <v>0</v>
+          </cell>
+          <cell r="H15">
             <v>0</v>
           </cell>
         </row>
@@ -886,9 +927,15 @@
           <cell r="G17">
             <v>1</v>
           </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="G18">
+            <v>0</v>
+          </cell>
+          <cell r="H18">
             <v>0</v>
           </cell>
         </row>
@@ -904,6 +951,9 @@
           <cell r="G20">
             <v>1</v>
           </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="G21">
@@ -917,9 +967,15 @@
           <cell r="G22">
             <v>1</v>
           </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="G23">
+            <v>0</v>
+          </cell>
+          <cell r="H23">
             <v>0</v>
           </cell>
         </row>
@@ -935,30 +991,48 @@
           <cell r="G25">
             <v>1</v>
           </cell>
+          <cell r="H25">
+            <v>0</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="G26">
             <v>0</v>
           </cell>
+          <cell r="H26">
+            <v>0</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="G27">
             <v>0</v>
           </cell>
+          <cell r="H27">
+            <v>0</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="G28">
             <v>0</v>
           </cell>
+          <cell r="H28">
+            <v>0</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="G29">
             <v>0</v>
           </cell>
+          <cell r="H29">
+            <v>0</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="G30">
             <v>0</v>
+          </cell>
+          <cell r="H30">
+            <v>1</v>
           </cell>
         </row>
         <row r="31">
@@ -973,9 +1047,15 @@
           <cell r="G32">
             <v>1</v>
           </cell>
+          <cell r="H32">
+            <v>0</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="G33">
+            <v>0</v>
+          </cell>
+          <cell r="H33">
             <v>0</v>
           </cell>
         </row>
@@ -991,74 +1071,119 @@
           <cell r="G35">
             <v>1</v>
           </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="G36">
             <v>0</v>
           </cell>
+          <cell r="H36">
+            <v>0</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="G37">
             <v>0</v>
           </cell>
+          <cell r="H37">
+            <v>0</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="G38">
             <v>0</v>
           </cell>
+          <cell r="H38">
+            <v>0</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="G39">
             <v>0</v>
           </cell>
+          <cell r="H39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="G40">
             <v>0</v>
           </cell>
+          <cell r="H40">
+            <v>0</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="G41">
             <v>0</v>
           </cell>
+          <cell r="H41">
+            <v>0</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="G42">
             <v>0</v>
           </cell>
+          <cell r="H42">
+            <v>0</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="G43">
             <v>0</v>
           </cell>
+          <cell r="H43">
+            <v>0</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="G44">
             <v>0</v>
           </cell>
+          <cell r="H44">
+            <v>0</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="G45">
             <v>0</v>
           </cell>
+          <cell r="H45">
+            <v>0</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="G46">
             <v>0</v>
           </cell>
+          <cell r="H46">
+            <v>0</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="G47">
             <v>0</v>
           </cell>
+          <cell r="H47">
+            <v>0</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="G48">
             <v>0</v>
           </cell>
+          <cell r="H48">
+            <v>0</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
             <v>0</v>
           </cell>
         </row>
@@ -1082,9 +1207,15 @@
           <cell r="G52">
             <v>1</v>
           </cell>
+          <cell r="H52">
+            <v>1</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="G53">
+            <v>0</v>
+          </cell>
+          <cell r="H53">
             <v>0</v>
           </cell>
         </row>
@@ -1100,9 +1231,15 @@
           <cell r="G55">
             <v>1</v>
           </cell>
+          <cell r="H55">
+            <v>0</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="G56">
+            <v>0</v>
+          </cell>
+          <cell r="H56">
             <v>0</v>
           </cell>
         </row>
@@ -1118,14 +1255,23 @@
           <cell r="G58">
             <v>1</v>
           </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="G59">
             <v>0</v>
           </cell>
+          <cell r="H59">
+            <v>0</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="G60">
+            <v>0</v>
+          </cell>
+          <cell r="H60">
             <v>0</v>
           </cell>
         </row>
@@ -1141,34 +1287,55 @@
           <cell r="G62">
             <v>1</v>
           </cell>
+          <cell r="H62">
+            <v>0</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="G63">
             <v>0</v>
           </cell>
+          <cell r="H63">
+            <v>0</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="G64">
             <v>0</v>
           </cell>
+          <cell r="H64">
+            <v>0</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="G65">
             <v>0</v>
           </cell>
+          <cell r="H65">
+            <v>0</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="G66">
             <v>0</v>
           </cell>
+          <cell r="H66">
+            <v>0</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="G67">
             <v>0</v>
           </cell>
+          <cell r="H67">
+            <v>0</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="G68">
+            <v>0</v>
+          </cell>
+          <cell r="H68">
             <v>0</v>
           </cell>
         </row>
@@ -1184,74 +1351,119 @@
           <cell r="G70">
             <v>1</v>
           </cell>
+          <cell r="H70">
+            <v>0</v>
+          </cell>
         </row>
         <row r="71">
           <cell r="G71">
             <v>0</v>
           </cell>
+          <cell r="H71">
+            <v>0</v>
+          </cell>
         </row>
         <row r="72">
           <cell r="G72">
             <v>0</v>
           </cell>
+          <cell r="H72">
+            <v>0</v>
+          </cell>
         </row>
         <row r="73">
           <cell r="G73">
             <v>0</v>
           </cell>
+          <cell r="H73">
+            <v>0</v>
+          </cell>
         </row>
         <row r="74">
           <cell r="G74">
             <v>0</v>
           </cell>
+          <cell r="H74">
+            <v>0</v>
+          </cell>
         </row>
         <row r="75">
           <cell r="G75">
             <v>0</v>
           </cell>
+          <cell r="H75">
+            <v>0</v>
+          </cell>
         </row>
         <row r="76">
           <cell r="G76">
             <v>0</v>
           </cell>
+          <cell r="H76">
+            <v>0</v>
+          </cell>
         </row>
         <row r="77">
           <cell r="G77">
             <v>0</v>
           </cell>
+          <cell r="H77">
+            <v>0</v>
+          </cell>
         </row>
         <row r="78">
           <cell r="G78">
             <v>0</v>
           </cell>
+          <cell r="H78">
+            <v>0</v>
+          </cell>
         </row>
         <row r="79">
           <cell r="G79">
             <v>0</v>
           </cell>
+          <cell r="H79">
+            <v>0</v>
+          </cell>
         </row>
         <row r="80">
           <cell r="G80">
             <v>0</v>
           </cell>
+          <cell r="H80">
+            <v>0</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="G81">
             <v>0</v>
           </cell>
+          <cell r="H81">
+            <v>0</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="G82">
             <v>0</v>
           </cell>
+          <cell r="H82">
+            <v>0</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="G83">
             <v>0</v>
           </cell>
+          <cell r="H83">
+            <v>0</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="G84">
+            <v>0</v>
+          </cell>
+          <cell r="H84">
             <v>0</v>
           </cell>
         </row>
@@ -1267,79 +1479,127 @@
           <cell r="G86">
             <v>1</v>
           </cell>
+          <cell r="H86">
+            <v>0</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="G87">
             <v>0</v>
           </cell>
+          <cell r="H87">
+            <v>0</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="G88">
             <v>0</v>
           </cell>
+          <cell r="H88">
+            <v>0</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="G89">
             <v>0</v>
           </cell>
+          <cell r="H89">
+            <v>0</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="G90">
             <v>0</v>
           </cell>
+          <cell r="H90">
+            <v>0</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="G91">
             <v>0</v>
           </cell>
+          <cell r="H91">
+            <v>1</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="G92">
             <v>0</v>
           </cell>
+          <cell r="H92">
+            <v>1</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="G93">
             <v>0</v>
           </cell>
+          <cell r="H93">
+            <v>1</v>
+          </cell>
         </row>
         <row r="94">
           <cell r="G94">
             <v>0</v>
           </cell>
+          <cell r="H94">
+            <v>1</v>
+          </cell>
         </row>
         <row r="95">
           <cell r="G95">
             <v>0</v>
           </cell>
+          <cell r="H95">
+            <v>1</v>
+          </cell>
         </row>
         <row r="96">
           <cell r="G96">
             <v>0</v>
           </cell>
+          <cell r="H96">
+            <v>1</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="G97">
             <v>0</v>
           </cell>
+          <cell r="H97">
+            <v>1</v>
+          </cell>
         </row>
         <row r="98">
           <cell r="G98">
             <v>0</v>
           </cell>
+          <cell r="H98">
+            <v>1</v>
+          </cell>
         </row>
         <row r="99">
           <cell r="G99">
             <v>0</v>
           </cell>
+          <cell r="H99">
+            <v>1</v>
+          </cell>
         </row>
         <row r="100">
           <cell r="G100">
             <v>0</v>
           </cell>
+          <cell r="H100">
+            <v>1</v>
+          </cell>
         </row>
         <row r="101">
           <cell r="G101">
+            <v>0</v>
+          </cell>
+          <cell r="H101">
             <v>0</v>
           </cell>
         </row>
@@ -1355,9 +1615,15 @@
           <cell r="G103">
             <v>1</v>
           </cell>
+          <cell r="H103">
+            <v>0</v>
+          </cell>
         </row>
         <row r="104">
           <cell r="G104">
+            <v>0</v>
+          </cell>
+          <cell r="H104">
             <v>0</v>
           </cell>
         </row>
@@ -1373,24 +1639,39 @@
           <cell r="G106">
             <v>1</v>
           </cell>
+          <cell r="H106">
+            <v>0</v>
+          </cell>
         </row>
         <row r="107">
           <cell r="G107">
             <v>0</v>
           </cell>
+          <cell r="H107">
+            <v>0</v>
+          </cell>
         </row>
         <row r="108">
           <cell r="G108">
             <v>0</v>
           </cell>
+          <cell r="H108">
+            <v>0</v>
+          </cell>
         </row>
         <row r="109">
           <cell r="G109">
             <v>0</v>
           </cell>
+          <cell r="H109">
+            <v>0</v>
+          </cell>
         </row>
         <row r="110">
           <cell r="G110">
+            <v>0</v>
+          </cell>
+          <cell r="H110">
             <v>0</v>
           </cell>
         </row>
@@ -1406,15 +1687,24 @@
           <cell r="G112">
             <v>1</v>
           </cell>
+          <cell r="H112">
+            <v>0</v>
+          </cell>
         </row>
         <row r="113">
           <cell r="G113">
             <v>0</v>
           </cell>
+          <cell r="H113">
+            <v>0</v>
+          </cell>
         </row>
         <row r="114">
           <cell r="G114">
             <v>0</v>
+          </cell>
+          <cell r="H114">
+            <v>1</v>
           </cell>
         </row>
         <row r="115">
@@ -1437,14 +1727,23 @@
           <cell r="G117">
             <v>1</v>
           </cell>
+          <cell r="H117">
+            <v>1</v>
+          </cell>
         </row>
         <row r="118">
           <cell r="G118">
             <v>0</v>
           </cell>
+          <cell r="H118">
+            <v>1</v>
+          </cell>
         </row>
         <row r="119">
           <cell r="G119">
+            <v>0</v>
+          </cell>
+          <cell r="H119">
             <v>0</v>
           </cell>
         </row>
@@ -1460,14 +1759,23 @@
           <cell r="G121">
             <v>1</v>
           </cell>
+          <cell r="H121">
+            <v>0</v>
+          </cell>
         </row>
         <row r="122">
           <cell r="G122">
             <v>0</v>
           </cell>
+          <cell r="H122">
+            <v>0</v>
+          </cell>
         </row>
         <row r="123">
           <cell r="G123">
+            <v>0</v>
+          </cell>
+          <cell r="H123">
             <v>0</v>
           </cell>
         </row>
@@ -1483,9 +1791,15 @@
           <cell r="G125">
             <v>1</v>
           </cell>
+          <cell r="H125">
+            <v>0</v>
+          </cell>
         </row>
         <row r="126">
           <cell r="G126">
+            <v>0</v>
+          </cell>
+          <cell r="H126">
             <v>0</v>
           </cell>
         </row>
@@ -1509,34 +1823,55 @@
           <cell r="G129">
             <v>1</v>
           </cell>
+          <cell r="H129">
+            <v>0</v>
+          </cell>
         </row>
         <row r="130">
           <cell r="G130">
             <v>0</v>
           </cell>
+          <cell r="H130">
+            <v>0</v>
+          </cell>
         </row>
         <row r="131">
           <cell r="G131">
             <v>0</v>
           </cell>
+          <cell r="H131">
+            <v>0</v>
+          </cell>
         </row>
         <row r="132">
           <cell r="G132">
             <v>0</v>
           </cell>
+          <cell r="H132">
+            <v>0</v>
+          </cell>
         </row>
         <row r="133">
           <cell r="G133">
             <v>0</v>
           </cell>
+          <cell r="H133">
+            <v>0</v>
+          </cell>
         </row>
         <row r="134">
           <cell r="G134">
             <v>0</v>
           </cell>
+          <cell r="H134">
+            <v>0</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="G135">
+            <v>0</v>
+          </cell>
+          <cell r="H135">
             <v>0</v>
           </cell>
         </row>
@@ -1552,44 +1887,71 @@
           <cell r="G137">
             <v>1</v>
           </cell>
+          <cell r="H137">
+            <v>0</v>
+          </cell>
         </row>
         <row r="138">
           <cell r="G138">
             <v>0</v>
           </cell>
+          <cell r="H138">
+            <v>0</v>
+          </cell>
         </row>
         <row r="139">
           <cell r="G139">
             <v>0</v>
           </cell>
+          <cell r="H139">
+            <v>0</v>
+          </cell>
         </row>
         <row r="140">
           <cell r="G140">
             <v>0</v>
           </cell>
+          <cell r="H140">
+            <v>0</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="G141">
             <v>0</v>
           </cell>
+          <cell r="H141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="G142">
             <v>0</v>
           </cell>
+          <cell r="H142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="G143">
             <v>0</v>
           </cell>
+          <cell r="H143">
+            <v>0</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="G144">
             <v>0</v>
           </cell>
+          <cell r="H144">
+            <v>0</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="G145">
+            <v>0</v>
+          </cell>
+          <cell r="H145">
             <v>0</v>
           </cell>
         </row>
@@ -1605,14 +1967,23 @@
           <cell r="G147">
             <v>1</v>
           </cell>
+          <cell r="H147">
+            <v>0</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="G148">
             <v>0</v>
           </cell>
+          <cell r="H148">
+            <v>0</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="G149">
+            <v>0</v>
+          </cell>
+          <cell r="H149">
             <v>0</v>
           </cell>
         </row>
@@ -1628,159 +1999,255 @@
           <cell r="G151">
             <v>1</v>
           </cell>
+          <cell r="H151">
+            <v>0</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="G152">
             <v>0</v>
           </cell>
+          <cell r="H152">
+            <v>0</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="G153">
             <v>0</v>
           </cell>
+          <cell r="H153">
+            <v>0</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="G154">
             <v>0</v>
           </cell>
+          <cell r="H154">
+            <v>0</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="G155">
             <v>0</v>
           </cell>
+          <cell r="H155">
+            <v>0</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="G156">
             <v>0</v>
           </cell>
+          <cell r="H156">
+            <v>0</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="G157">
             <v>0</v>
           </cell>
+          <cell r="H157">
+            <v>0</v>
+          </cell>
         </row>
         <row r="158">
           <cell r="G158">
             <v>0</v>
           </cell>
+          <cell r="H158">
+            <v>0</v>
+          </cell>
         </row>
         <row r="159">
           <cell r="G159">
             <v>0</v>
           </cell>
+          <cell r="H159">
+            <v>0</v>
+          </cell>
         </row>
         <row r="160">
           <cell r="G160">
             <v>0</v>
           </cell>
+          <cell r="H160">
+            <v>0</v>
+          </cell>
         </row>
         <row r="161">
           <cell r="G161">
             <v>0</v>
           </cell>
+          <cell r="H161">
+            <v>0</v>
+          </cell>
         </row>
         <row r="162">
           <cell r="G162">
             <v>0</v>
           </cell>
+          <cell r="H162">
+            <v>0</v>
+          </cell>
         </row>
         <row r="163">
           <cell r="G163">
             <v>0</v>
           </cell>
+          <cell r="H163">
+            <v>0</v>
+          </cell>
         </row>
         <row r="164">
           <cell r="G164">
             <v>0</v>
           </cell>
+          <cell r="H164">
+            <v>0</v>
+          </cell>
         </row>
         <row r="165">
           <cell r="G165">
             <v>0</v>
           </cell>
+          <cell r="H165">
+            <v>0</v>
+          </cell>
         </row>
         <row r="166">
           <cell r="G166">
             <v>0</v>
           </cell>
+          <cell r="H166">
+            <v>0</v>
+          </cell>
         </row>
         <row r="167">
           <cell r="G167">
             <v>0</v>
           </cell>
+          <cell r="H167">
+            <v>0</v>
+          </cell>
         </row>
         <row r="168">
           <cell r="G168">
             <v>0</v>
           </cell>
+          <cell r="H168">
+            <v>0</v>
+          </cell>
         </row>
         <row r="169">
           <cell r="G169">
             <v>0</v>
           </cell>
+          <cell r="H169">
+            <v>0</v>
+          </cell>
         </row>
         <row r="170">
           <cell r="G170">
             <v>0</v>
           </cell>
+          <cell r="H170">
+            <v>0</v>
+          </cell>
         </row>
         <row r="171">
           <cell r="G171">
             <v>0</v>
           </cell>
+          <cell r="H171">
+            <v>0</v>
+          </cell>
         </row>
         <row r="172">
           <cell r="G172">
             <v>0</v>
           </cell>
+          <cell r="H172">
+            <v>0</v>
+          </cell>
         </row>
         <row r="173">
           <cell r="G173">
             <v>0</v>
           </cell>
+          <cell r="H173">
+            <v>0</v>
+          </cell>
         </row>
         <row r="174">
           <cell r="G174">
             <v>0</v>
           </cell>
+          <cell r="H174">
+            <v>0</v>
+          </cell>
         </row>
         <row r="175">
           <cell r="G175">
             <v>0</v>
           </cell>
+          <cell r="H175">
+            <v>0</v>
+          </cell>
         </row>
         <row r="176">
           <cell r="G176">
             <v>0</v>
           </cell>
+          <cell r="H176">
+            <v>0</v>
+          </cell>
         </row>
         <row r="177">
           <cell r="G177">
             <v>0</v>
           </cell>
+          <cell r="H177">
+            <v>0</v>
+          </cell>
         </row>
         <row r="178">
           <cell r="G178">
             <v>0</v>
           </cell>
+          <cell r="H178">
+            <v>0</v>
+          </cell>
         </row>
         <row r="179">
           <cell r="G179">
             <v>0</v>
           </cell>
+          <cell r="H179">
+            <v>0</v>
+          </cell>
         </row>
         <row r="180">
           <cell r="G180">
             <v>0</v>
           </cell>
+          <cell r="H180">
+            <v>0</v>
+          </cell>
         </row>
         <row r="181">
           <cell r="G181">
             <v>0</v>
           </cell>
+          <cell r="H181">
+            <v>0</v>
+          </cell>
         </row>
         <row r="182">
           <cell r="G182">
+            <v>0</v>
+          </cell>
+          <cell r="H182">
             <v>0</v>
           </cell>
         </row>
@@ -1795,6 +2262,9 @@
         <row r="184">
           <cell r="G184">
             <v>1</v>
+          </cell>
+          <cell r="H184">
+            <v>0</v>
           </cell>
         </row>
         <row r="185">
@@ -2129,12 +2599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D70A468-D178-4EBF-AD17-CA1FDA6DC32B}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C2E425-7EC7-4CF6-AE84-A56095D7A501}">
   <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2163,7 +2632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2175,6 +2644,10 @@
       </c>
       <c r="D2" t="str">
         <f>IF([1]Roster!G2=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF([1]Roster!H1=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -2197,7 +2670,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2211,8 +2684,12 @@
         <f>IF([1]Roster!G4=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E4" t="str">
+        <f>IF([1]Roster!H3=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2226,8 +2703,12 @@
         <f>IF([1]Roster!G5=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E5" t="str">
+        <f>IF([1]Roster!H4=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2241,8 +2722,12 @@
         <f>IF([1]Roster!G6=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E6" t="str">
+        <f>IF([1]Roster!H5=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2256,8 +2741,12 @@
         <f>IF([1]Roster!G7=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E7" t="str">
+        <f>IF([1]Roster!H6=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2269,6 +2758,10 @@
       </c>
       <c r="D8" t="str">
         <f>IF([1]Roster!G8=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF([1]Roster!H7=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -2291,7 +2784,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2305,8 +2798,12 @@
         <f>IF([1]Roster!G10=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E10" t="str">
+        <f>IF([1]Roster!H9=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -2320,8 +2817,12 @@
         <f>IF([1]Roster!G11=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E11" t="str">
+        <f>IF([1]Roster!H10=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2335,8 +2836,12 @@
         <f>IF([1]Roster!G12=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E12" t="str">
+        <f>IF([1]Roster!H11=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -2350,8 +2855,12 @@
         <f>IF([1]Roster!G13=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E13" t="str">
+        <f>IF([1]Roster!H12=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -2365,8 +2874,12 @@
         <f>IF([1]Roster!G14=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E14" t="str">
+        <f>IF([1]Roster!H13=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2380,8 +2893,12 @@
         <f>IF([1]Roster!G15=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E15" t="str">
+        <f>IF([1]Roster!H14=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -2393,6 +2910,10 @@
       </c>
       <c r="D16" t="str">
         <f>IF([1]Roster!G16=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF([1]Roster!H15=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -2415,7 +2936,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2429,8 +2950,12 @@
         <f>IF([1]Roster!G18=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E18" t="str">
+        <f>IF([1]Roster!H17=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -2442,6 +2967,10 @@
       </c>
       <c r="D19" t="str">
         <f>IF([1]Roster!G19=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF([1]Roster!H18=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -2464,7 +2993,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2476,6 +3005,10 @@
       </c>
       <c r="D21" t="str">
         <f>IF([1]Roster!G21=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF([1]Roster!H20=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -2498,7 +3031,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -2512,8 +3045,12 @@
         <f>IF([1]Roster!G23=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E23" t="str">
+        <f>IF([1]Roster!H22=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -2525,6 +3062,10 @@
       </c>
       <c r="D24" t="str">
         <f>IF([1]Roster!G24=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF([1]Roster!H23=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -2547,7 +3088,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -2561,8 +3102,12 @@
         <f>IF([1]Roster!G26=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E26" t="str">
+        <f>IF([1]Roster!H25=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -2576,8 +3121,12 @@
         <f>IF([1]Roster!G27=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E27" t="str">
+        <f>IF([1]Roster!H26=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -2591,8 +3140,12 @@
         <f>IF([1]Roster!G28=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E28" t="str">
+        <f>IF([1]Roster!H27=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -2606,8 +3159,12 @@
         <f>IF([1]Roster!G29=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E29" t="str">
+        <f>IF([1]Roster!H28=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2621,8 +3178,12 @@
         <f>IF([1]Roster!G30=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E30" t="str">
+        <f>IF([1]Roster!H29=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2635,6 +3196,10 @@
       <c r="D31" t="str">
         <f>IF([1]Roster!G31=1,"complete","not-started")</f>
         <v>not-started</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF([1]Roster!H30=1,"completed","not-started")</f>
+        <v>completed</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -2656,7 +3221,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -2670,8 +3235,12 @@
         <f>IF([1]Roster!G33=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E33" t="str">
+        <f>IF([1]Roster!H32=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -2683,6 +3252,10 @@
       </c>
       <c r="D34" t="str">
         <f>IF([1]Roster!G34=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF([1]Roster!H33=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -2705,7 +3278,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -2719,8 +3292,12 @@
         <f>IF([1]Roster!G36=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E36" t="str">
+        <f>IF([1]Roster!H35=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -2734,8 +3311,12 @@
         <f>IF([1]Roster!G37=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E37" t="str">
+        <f>IF([1]Roster!H36=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2749,8 +3330,12 @@
         <f>IF([1]Roster!G38=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E38" t="str">
+        <f>IF([1]Roster!H37=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
@@ -2764,8 +3349,12 @@
         <f>IF([1]Roster!G39=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E39" t="str">
+        <f>IF([1]Roster!H38=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
@@ -2779,8 +3368,12 @@
         <f>IF([1]Roster!G40=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E40" t="str">
+        <f>IF([1]Roster!H39=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
@@ -2794,8 +3387,12 @@
         <f>IF([1]Roster!G41=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E41" t="str">
+        <f>IF([1]Roster!H40=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -2809,8 +3406,12 @@
         <f>IF([1]Roster!G42=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E42" t="str">
+        <f>IF([1]Roster!H41=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -2824,8 +3425,12 @@
         <f>IF([1]Roster!G43=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E43" t="str">
+        <f>IF([1]Roster!H42=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3444,12 @@
         <f>IF([1]Roster!G44=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E44" t="str">
+        <f>IF([1]Roster!H43=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
@@ -2854,8 +3463,12 @@
         <f>IF([1]Roster!G45=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E45" t="str">
+        <f>IF([1]Roster!H44=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -2869,8 +3482,12 @@
         <f>IF([1]Roster!G46=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E46" t="str">
+        <f>IF([1]Roster!H45=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -2884,8 +3501,12 @@
         <f>IF([1]Roster!G47=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E47" t="str">
+        <f>IF([1]Roster!H46=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>59</v>
       </c>
@@ -2899,8 +3520,12 @@
         <f>IF([1]Roster!G48=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E48" t="str">
+        <f>IF([1]Roster!H47=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>60</v>
       </c>
@@ -2914,8 +3539,12 @@
         <f>IF([1]Roster!G49=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E49" t="str">
+        <f>IF([1]Roster!H48=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
@@ -2927,6 +3556,10 @@
       </c>
       <c r="D50" t="str">
         <f>IF([1]Roster!G50=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IF([1]Roster!H49=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -2968,7 +3601,7 @@
         <v>completed</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>64</v>
       </c>
@@ -2982,8 +3615,12 @@
         <f>IF([1]Roster!G53=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E53" t="str">
+        <f>IF([1]Roster!H52=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>66</v>
       </c>
@@ -2995,6 +3632,10 @@
       </c>
       <c r="D54" t="str">
         <f>IF([1]Roster!G54=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E54" t="str">
+        <f>IF([1]Roster!H53=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -3017,7 +3658,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
@@ -3031,8 +3672,12 @@
         <f>IF([1]Roster!G56=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E56" t="str">
+        <f>IF([1]Roster!H55=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>69</v>
       </c>
@@ -3044,6 +3689,10 @@
       </c>
       <c r="D57" t="str">
         <f>IF([1]Roster!G57=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E57" t="str">
+        <f>IF([1]Roster!H56=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -3066,7 +3715,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>71</v>
       </c>
@@ -3080,8 +3729,12 @@
         <f>IF([1]Roster!G59=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E59" t="str">
+        <f>IF([1]Roster!H58=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>72</v>
       </c>
@@ -3095,8 +3748,12 @@
         <f>IF([1]Roster!G60=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E60" t="str">
+        <f>IF([1]Roster!H59=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>73</v>
       </c>
@@ -3108,6 +3765,10 @@
       </c>
       <c r="D61" t="str">
         <f>IF([1]Roster!G61=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E61" t="str">
+        <f>IF([1]Roster!H60=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -3130,7 +3791,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>75</v>
       </c>
@@ -3144,8 +3805,12 @@
         <f>IF([1]Roster!G63=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E63" t="str">
+        <f>IF([1]Roster!H62=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>77</v>
       </c>
@@ -3159,8 +3824,12 @@
         <f>IF([1]Roster!G64=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E64" t="str">
+        <f>IF([1]Roster!H63=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>78</v>
       </c>
@@ -3174,8 +3843,12 @@
         <f>IF([1]Roster!G65=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E65" t="str">
+        <f>IF([1]Roster!H64=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
@@ -3189,8 +3862,12 @@
         <f>IF([1]Roster!G66=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E66" t="str">
+        <f>IF([1]Roster!H65=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>80</v>
       </c>
@@ -3204,8 +3881,12 @@
         <f>IF([1]Roster!G67=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E67" t="str">
+        <f>IF([1]Roster!H66=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>81</v>
       </c>
@@ -3219,8 +3900,12 @@
         <f>IF([1]Roster!G68=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E68" t="str">
+        <f>IF([1]Roster!H67=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>82</v>
       </c>
@@ -3232,6 +3917,10 @@
       </c>
       <c r="D69" t="str">
         <f>IF([1]Roster!G69=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E69" t="str">
+        <f>IF([1]Roster!H68=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -3254,7 +3943,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>85</v>
       </c>
@@ -3268,8 +3957,12 @@
         <f>IF([1]Roster!G71=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E71" t="str">
+        <f>IF([1]Roster!H70=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>86</v>
       </c>
@@ -3283,8 +3976,12 @@
         <f>IF([1]Roster!G72=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E72" t="str">
+        <f>IF([1]Roster!H71=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>87</v>
       </c>
@@ -3298,8 +3995,12 @@
         <f>IF([1]Roster!G73=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E73" t="str">
+        <f>IF([1]Roster!H72=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>88</v>
       </c>
@@ -3313,8 +4014,12 @@
         <f>IF([1]Roster!G74=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E74" t="str">
+        <f>IF([1]Roster!H73=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>89</v>
       </c>
@@ -3328,8 +4033,12 @@
         <f>IF([1]Roster!G75=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E75" t="str">
+        <f>IF([1]Roster!H74=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>90</v>
       </c>
@@ -3343,8 +4052,12 @@
         <f>IF([1]Roster!G76=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E76" t="str">
+        <f>IF([1]Roster!H75=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>91</v>
       </c>
@@ -3358,8 +4071,12 @@
         <f>IF([1]Roster!G77=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E77" t="str">
+        <f>IF([1]Roster!H76=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>92</v>
       </c>
@@ -3373,8 +4090,12 @@
         <f>IF([1]Roster!G78=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E78" t="str">
+        <f>IF([1]Roster!H77=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>94</v>
       </c>
@@ -3388,8 +4109,12 @@
         <f>IF([1]Roster!G79=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E79" t="str">
+        <f>IF([1]Roster!H78=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>95</v>
       </c>
@@ -3403,8 +4128,12 @@
         <f>IF([1]Roster!G80=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E80" t="str">
+        <f>IF([1]Roster!H79=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
@@ -3418,8 +4147,12 @@
         <f>IF([1]Roster!G81=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E81" t="str">
+        <f>IF([1]Roster!H80=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>97</v>
       </c>
@@ -3433,8 +4166,12 @@
         <f>IF([1]Roster!G82=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E82" t="str">
+        <f>IF([1]Roster!H81=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>98</v>
       </c>
@@ -3448,8 +4185,12 @@
         <f>IF([1]Roster!G83=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E83" t="str">
+        <f>IF([1]Roster!H82=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>99</v>
       </c>
@@ -3463,8 +4204,12 @@
         <f>IF([1]Roster!G84=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E84" t="str">
+        <f>IF([1]Roster!H83=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>102</v>
       </c>
@@ -3476,6 +4221,10 @@
       </c>
       <c r="D85" t="str">
         <f>IF([1]Roster!G85=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E85" t="str">
+        <f>IF([1]Roster!H84=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -3498,7 +4247,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>104</v>
       </c>
@@ -3512,8 +4261,12 @@
         <f>IF([1]Roster!G87=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E87" t="str">
+        <f>IF([1]Roster!H86=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>105</v>
       </c>
@@ -3527,8 +4280,12 @@
         <f>IF([1]Roster!G88=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E88" t="str">
+        <f>IF([1]Roster!H87=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>106</v>
       </c>
@@ -3542,8 +4299,12 @@
         <f>IF([1]Roster!G89=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E89" t="str">
+        <f>IF([1]Roster!H88=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>107</v>
       </c>
@@ -3557,8 +4318,12 @@
         <f>IF([1]Roster!G90=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E90" t="str">
+        <f>IF([1]Roster!H89=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>108</v>
       </c>
@@ -3572,8 +4337,12 @@
         <f>IF([1]Roster!G91=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E91" t="str">
+        <f>IF([1]Roster!H90=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>110</v>
       </c>
@@ -3587,8 +4356,12 @@
         <f>IF([1]Roster!G92=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E92" t="str">
+        <f>IF([1]Roster!H91=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>111</v>
       </c>
@@ -3602,8 +4375,12 @@
         <f>IF([1]Roster!G93=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E93" t="str">
+        <f>IF([1]Roster!H92=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>112</v>
       </c>
@@ -3617,8 +4394,12 @@
         <f>IF([1]Roster!G94=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E94" t="str">
+        <f>IF([1]Roster!H93=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>113</v>
       </c>
@@ -3632,8 +4413,12 @@
         <f>IF([1]Roster!G95=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E95" t="str">
+        <f>IF([1]Roster!H94=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>114</v>
       </c>
@@ -3647,8 +4432,12 @@
         <f>IF([1]Roster!G96=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E96" t="str">
+        <f>IF([1]Roster!H95=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>115</v>
       </c>
@@ -3662,8 +4451,12 @@
         <f>IF([1]Roster!G97=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E97" t="str">
+        <f>IF([1]Roster!H96=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>116</v>
       </c>
@@ -3677,8 +4470,12 @@
         <f>IF([1]Roster!G98=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E98" t="str">
+        <f>IF([1]Roster!H97=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>117</v>
       </c>
@@ -3692,8 +4489,12 @@
         <f>IF([1]Roster!G99=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E99" t="str">
+        <f>IF([1]Roster!H98=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>118</v>
       </c>
@@ -3707,8 +4508,12 @@
         <f>IF([1]Roster!G100=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E100" t="str">
+        <f>IF([1]Roster!H99=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>119</v>
       </c>
@@ -3722,8 +4527,12 @@
         <f>IF([1]Roster!G101=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E101" t="str">
+        <f>IF([1]Roster!H100=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>121</v>
       </c>
@@ -3735,6 +4544,10 @@
       </c>
       <c r="D102" t="str">
         <f>IF([1]Roster!G102=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E102" t="str">
+        <f>IF([1]Roster!H101=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -3757,7 +4570,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>123</v>
       </c>
@@ -3771,8 +4584,12 @@
         <f>IF([1]Roster!G104=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E104" t="str">
+        <f>IF([1]Roster!H103=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>124</v>
       </c>
@@ -3784,6 +4601,10 @@
       </c>
       <c r="D105" t="str">
         <f>IF([1]Roster!G105=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E105" t="str">
+        <f>IF([1]Roster!H104=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -3806,7 +4627,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>126</v>
       </c>
@@ -3820,8 +4641,12 @@
         <f>IF([1]Roster!G107=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E107" t="str">
+        <f>IF([1]Roster!H106=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>127</v>
       </c>
@@ -3835,8 +4660,12 @@
         <f>IF([1]Roster!G108=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E108" t="str">
+        <f>IF([1]Roster!H107=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>129</v>
       </c>
@@ -3850,8 +4679,12 @@
         <f>IF([1]Roster!G109=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E109" t="str">
+        <f>IF([1]Roster!H108=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>130</v>
       </c>
@@ -3865,8 +4698,12 @@
         <f>IF([1]Roster!G110=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E110" t="str">
+        <f>IF([1]Roster!H109=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>131</v>
       </c>
@@ -3878,6 +4715,10 @@
       </c>
       <c r="D111" t="str">
         <f>IF([1]Roster!G111=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E111" t="str">
+        <f>IF([1]Roster!H110=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -3900,7 +4741,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>133</v>
       </c>
@@ -3914,8 +4755,12 @@
         <f>IF([1]Roster!G113=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E113" t="str">
+        <f>IF([1]Roster!H112=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>134</v>
       </c>
@@ -3929,8 +4774,12 @@
         <f>IF([1]Roster!G114=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E114" t="str">
+        <f>IF([1]Roster!H113=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>136</v>
       </c>
@@ -3943,6 +4792,10 @@
       <c r="D115" t="str">
         <f>IF([1]Roster!G115=1,"complete","not-started")</f>
         <v>not-started</v>
+      </c>
+      <c r="E115" t="str">
+        <f>IF([1]Roster!H114=1,"completed","not-started")</f>
+        <v>completed</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -3983,7 +4836,7 @@
         <v>completed</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>139</v>
       </c>
@@ -3997,8 +4850,12 @@
         <f>IF([1]Roster!G118=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E118" t="str">
+        <f>IF([1]Roster!H117=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>140</v>
       </c>
@@ -4012,8 +4869,12 @@
         <f>IF([1]Roster!G119=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E119" t="str">
+        <f>IF([1]Roster!H118=1,"completed","not-started")</f>
+        <v>completed</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>142</v>
       </c>
@@ -4025,6 +4886,10 @@
       </c>
       <c r="D120" t="str">
         <f>IF([1]Roster!G120=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E120" t="str">
+        <f>IF([1]Roster!H119=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -4047,7 +4912,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>144</v>
       </c>
@@ -4061,8 +4926,12 @@
         <f>IF([1]Roster!G122=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E122" t="str">
+        <f>IF([1]Roster!H121=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>145</v>
       </c>
@@ -4076,8 +4945,12 @@
         <f>IF([1]Roster!G123=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E123" t="str">
+        <f>IF([1]Roster!H122=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>146</v>
       </c>
@@ -4089,6 +4962,10 @@
       </c>
       <c r="D124" t="str">
         <f>IF([1]Roster!G124=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E124" t="str">
+        <f>IF([1]Roster!H123=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -4111,7 +4988,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>148</v>
       </c>
@@ -4125,8 +5002,12 @@
         <f>IF([1]Roster!G126=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E126" t="str">
+        <f>IF([1]Roster!H125=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>149</v>
       </c>
@@ -4138,6 +5019,10 @@
       </c>
       <c r="D127" t="str">
         <f>IF([1]Roster!G127=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E127" t="str">
+        <f>IF([1]Roster!H126=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -4179,7 +5064,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>152</v>
       </c>
@@ -4193,8 +5078,12 @@
         <f>IF([1]Roster!G130=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E130" t="str">
+        <f>IF([1]Roster!H129=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>154</v>
       </c>
@@ -4208,8 +5097,12 @@
         <f>IF([1]Roster!G131=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E131" t="str">
+        <f>IF([1]Roster!H130=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>155</v>
       </c>
@@ -4223,8 +5116,12 @@
         <f>IF([1]Roster!G132=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E132" t="str">
+        <f>IF([1]Roster!H131=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>156</v>
       </c>
@@ -4238,8 +5135,12 @@
         <f>IF([1]Roster!G133=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E133" t="str">
+        <f>IF([1]Roster!H132=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>157</v>
       </c>
@@ -4253,8 +5154,12 @@
         <f>IF([1]Roster!G134=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E134" t="str">
+        <f>IF([1]Roster!H133=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>158</v>
       </c>
@@ -4268,8 +5173,12 @@
         <f>IF([1]Roster!G135=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E135" t="str">
+        <f>IF([1]Roster!H134=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>159</v>
       </c>
@@ -4281,6 +5190,10 @@
       </c>
       <c r="D136" t="str">
         <f>IF([1]Roster!G136=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E136" t="str">
+        <f>IF([1]Roster!H135=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -4303,7 +5216,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>163</v>
       </c>
@@ -4317,8 +5230,12 @@
         <f>IF([1]Roster!G138=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E138" t="str">
+        <f>IF([1]Roster!H137=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>164</v>
       </c>
@@ -4332,8 +5249,12 @@
         <f>IF([1]Roster!G139=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E139" t="str">
+        <f>IF([1]Roster!H138=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>165</v>
       </c>
@@ -4347,8 +5268,12 @@
         <f>IF([1]Roster!G140=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E140" t="str">
+        <f>IF([1]Roster!H139=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>166</v>
       </c>
@@ -4362,8 +5287,12 @@
         <f>IF([1]Roster!G141=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E141" t="str">
+        <f>IF([1]Roster!H140=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>167</v>
       </c>
@@ -4377,8 +5306,12 @@
         <f>IF([1]Roster!G142=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E142" t="str">
+        <f>IF([1]Roster!H141=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>168</v>
       </c>
@@ -4392,8 +5325,12 @@
         <f>IF([1]Roster!G143=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E143" t="str">
+        <f>IF([1]Roster!H142=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>169</v>
       </c>
@@ -4407,8 +5344,12 @@
         <f>IF([1]Roster!G144=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E144" t="str">
+        <f>IF([1]Roster!H143=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>170</v>
       </c>
@@ -4422,8 +5363,12 @@
         <f>IF([1]Roster!G145=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E145" t="str">
+        <f>IF([1]Roster!H144=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>171</v>
       </c>
@@ -4435,6 +5380,10 @@
       </c>
       <c r="D146" t="str">
         <f>IF([1]Roster!G146=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E146" t="str">
+        <f>IF([1]Roster!H145=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -4457,7 +5406,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>174</v>
       </c>
@@ -4471,8 +5420,12 @@
         <f>IF([1]Roster!G148=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E148" t="str">
+        <f>IF([1]Roster!H147=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>175</v>
       </c>
@@ -4486,8 +5439,12 @@
         <f>IF([1]Roster!G149=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E149" t="str">
+        <f>IF([1]Roster!H148=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>176</v>
       </c>
@@ -4499,6 +5456,10 @@
       </c>
       <c r="D150" t="str">
         <f>IF([1]Roster!G150=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E150" t="str">
+        <f>IF([1]Roster!H149=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -4521,7 +5482,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>178</v>
       </c>
@@ -4535,8 +5496,12 @@
         <f>IF([1]Roster!G152=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E152" t="str">
+        <f>IF([1]Roster!H151=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>179</v>
       </c>
@@ -4550,8 +5515,12 @@
         <f>IF([1]Roster!G153=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E153" t="str">
+        <f>IF([1]Roster!H152=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>180</v>
       </c>
@@ -4565,8 +5534,12 @@
         <f>IF([1]Roster!G154=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E154" t="str">
+        <f>IF([1]Roster!H153=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>181</v>
       </c>
@@ -4580,8 +5553,12 @@
         <f>IF([1]Roster!G155=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E155" t="str">
+        <f>IF([1]Roster!H154=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>183</v>
       </c>
@@ -4595,8 +5572,12 @@
         <f>IF([1]Roster!G156=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E156" t="str">
+        <f>IF([1]Roster!H155=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>184</v>
       </c>
@@ -4610,8 +5591,12 @@
         <f>IF([1]Roster!G157=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E157" t="str">
+        <f>IF([1]Roster!H156=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>185</v>
       </c>
@@ -4625,8 +5610,12 @@
         <f>IF([1]Roster!G158=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E158" t="str">
+        <f>IF([1]Roster!H157=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>186</v>
       </c>
@@ -4640,8 +5629,12 @@
         <f>IF([1]Roster!G159=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E159" t="str">
+        <f>IF([1]Roster!H158=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>187</v>
       </c>
@@ -4655,8 +5648,12 @@
         <f>IF([1]Roster!G160=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E160" t="str">
+        <f>IF([1]Roster!H159=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>188</v>
       </c>
@@ -4670,8 +5667,12 @@
         <f>IF([1]Roster!G161=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E161" t="str">
+        <f>IF([1]Roster!H160=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>189</v>
       </c>
@@ -4685,8 +5686,12 @@
         <f>IF([1]Roster!G162=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E162" t="str">
+        <f>IF([1]Roster!H161=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>190</v>
       </c>
@@ -4700,8 +5705,12 @@
         <f>IF([1]Roster!G163=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E163" t="str">
+        <f>IF([1]Roster!H162=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>191</v>
       </c>
@@ -4715,8 +5724,12 @@
         <f>IF([1]Roster!G164=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E164" t="str">
+        <f>IF([1]Roster!H163=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>192</v>
       </c>
@@ -4730,8 +5743,12 @@
         <f>IF([1]Roster!G165=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E165" t="str">
+        <f>IF([1]Roster!H164=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>193</v>
       </c>
@@ -4745,8 +5762,12 @@
         <f>IF([1]Roster!G166=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E166" t="str">
+        <f>IF([1]Roster!H165=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>195</v>
       </c>
@@ -4760,8 +5781,12 @@
         <f>IF([1]Roster!G167=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E167" t="str">
+        <f>IF([1]Roster!H166=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>196</v>
       </c>
@@ -4775,8 +5800,12 @@
         <f>IF([1]Roster!G168=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E168" t="str">
+        <f>IF([1]Roster!H167=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>197</v>
       </c>
@@ -4790,8 +5819,12 @@
         <f>IF([1]Roster!G169=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E169" t="str">
+        <f>IF([1]Roster!H168=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>198</v>
       </c>
@@ -4805,8 +5838,12 @@
         <f>IF([1]Roster!G170=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E170" t="str">
+        <f>IF([1]Roster!H169=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>199</v>
       </c>
@@ -4820,8 +5857,12 @@
         <f>IF([1]Roster!G171=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E171" t="str">
+        <f>IF([1]Roster!H170=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>200</v>
       </c>
@@ -4835,8 +5876,12 @@
         <f>IF([1]Roster!G172=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E172" t="str">
+        <f>IF([1]Roster!H171=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>201</v>
       </c>
@@ -4850,8 +5895,12 @@
         <f>IF([1]Roster!G173=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E173" t="str">
+        <f>IF([1]Roster!H172=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>202</v>
       </c>
@@ -4865,8 +5914,12 @@
         <f>IF([1]Roster!G174=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E174" t="str">
+        <f>IF([1]Roster!H173=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>203</v>
       </c>
@@ -4880,8 +5933,12 @@
         <f>IF([1]Roster!G175=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E175" t="str">
+        <f>IF([1]Roster!H174=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>204</v>
       </c>
@@ -4895,8 +5952,12 @@
         <f>IF([1]Roster!G176=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E176" t="str">
+        <f>IF([1]Roster!H175=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>205</v>
       </c>
@@ -4910,8 +5971,12 @@
         <f>IF([1]Roster!G177=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E177" t="str">
+        <f>IF([1]Roster!H176=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>207</v>
       </c>
@@ -4925,8 +5990,12 @@
         <f>IF([1]Roster!G178=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E178" t="str">
+        <f>IF([1]Roster!H177=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>208</v>
       </c>
@@ -4940,8 +6009,12 @@
         <f>IF([1]Roster!G179=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E179" t="str">
+        <f>IF([1]Roster!H178=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>209</v>
       </c>
@@ -4955,8 +6028,12 @@
         <f>IF([1]Roster!G180=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E180" t="str">
+        <f>IF([1]Roster!H179=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>210</v>
       </c>
@@ -4970,8 +6047,12 @@
         <f>IF([1]Roster!G181=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E181" t="str">
+        <f>IF([1]Roster!H180=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>211</v>
       </c>
@@ -4985,8 +6066,12 @@
         <f>IF([1]Roster!G182=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E182" t="str">
+        <f>IF([1]Roster!H181=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>212</v>
       </c>
@@ -4998,6 +6083,10 @@
       </c>
       <c r="D183" t="str">
         <f>IF([1]Roster!G183=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E183" t="str">
+        <f>IF([1]Roster!H182=1,"completed","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
@@ -5020,7 +6109,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>214</v>
       </c>
@@ -5034,15 +6123,13 @@
         <f>IF([1]Roster!G185=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
+      <c r="E185" t="str">
+        <f>IF([1]Roster!H184=1,"completed","not-started")</f>
+        <v>not-started</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D185" xr:uid="{EE1592C1-D93F-4B1C-A104-28CB57E115FF}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="complete"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D185" xr:uid="{EE1592C1-D93F-4B1C-A104-28CB57E115FF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D87BA8-057A-432E-AB83-177FA753353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A59F301-9BEA-4C2F-BC74-68E485191AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50C1895D-00AE-40B6-8E58-55CE97B5FCD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09040FFF-DEA5-439E-B83F-DFC31F1C4CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$E$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$D$1:$D$245</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -422,7 +422,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G16">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H16">
             <v>0</v>
@@ -646,7 +646,7 @@
             <v>0</v>
           </cell>
           <cell r="H29">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="30">
@@ -1408,7 +1408,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G74">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H74">
             <v>0</v>
@@ -1561,7 +1561,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G83">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H83">
             <v>0</v>
@@ -3625,12 +3625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524BFBF7-2B8C-4520-8B44-BACBB117A70A}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2261F818-8511-43B8-B03B-615FCFA46318}">
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3659,7 +3658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="str">
         <f>[1]Roster!A2</f>
         <v>Bryan Martinez</v>
@@ -3681,7 +3680,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
         <f>[1]Roster!A3</f>
         <v>Ryan Attleson</v>
@@ -3703,7 +3702,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f>[1]Roster!A4</f>
         <v>James G Kelly</v>
@@ -3725,7 +3724,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f>[1]Roster!A5</f>
         <v>Donna Daniel</v>
@@ -3747,7 +3746,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f>[1]Roster!A6</f>
         <v>Jillian Sorrentino</v>
@@ -3769,7 +3768,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
         <f>[1]Roster!A7</f>
         <v>Tamara Ciner</v>
@@ -3791,7 +3790,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
         <f>[1]Roster!A8</f>
         <v>Andrea Schmoel</v>
@@ -3813,7 +3812,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
         <f>[1]Roster!A9</f>
         <v>Laura Chisman</v>
@@ -3835,7 +3834,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
         <f>[1]Roster!A10</f>
         <v>John Stone</v>
@@ -3857,7 +3856,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
         <f>[1]Roster!A11</f>
         <v>Marcus Crawford</v>
@@ -3879,7 +3878,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
         <f>[1]Roster!A12</f>
         <v>Jerry Lubben</v>
@@ -3901,7 +3900,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
         <f>[1]Roster!A13</f>
         <v>Karen Kodanko</v>
@@ -3923,7 +3922,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
         <f>[1]Roster!A14</f>
         <v>Randall Roth</v>
@@ -3945,7 +3944,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
         <f>[1]Roster!A15</f>
         <v>Ann Marie Mcauliffe</v>
@@ -3967,7 +3966,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
         <f>[1]Roster!A16</f>
         <v>Callie Zampetis</v>
@@ -3982,14 +3981,14 @@
       </c>
       <c r="D16" t="str">
         <f>IF([1]Roster!G16=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E16" t="str">
         <f>IF([1]Roster!H15=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
         <f>[1]Roster!A17</f>
         <v>Darlene Halverson</v>
@@ -4011,7 +4010,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
         <f>[1]Roster!A18</f>
         <v>Annemarie Pedersen</v>
@@ -4033,7 +4032,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
         <f>[1]Roster!A19</f>
         <v>Harry Herar</v>
@@ -4055,7 +4054,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="str">
         <f>[1]Roster!A20</f>
         <v>Kristin Smith</v>
@@ -4077,7 +4076,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="str">
         <f>[1]Roster!A21</f>
         <v>Melanie Lamarche</v>
@@ -4099,7 +4098,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="str">
         <f>[1]Roster!A22</f>
         <v>Mysti Horwath</v>
@@ -4121,7 +4120,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="str">
         <f>[1]Roster!A23</f>
         <v>Bridget Sullivan</v>
@@ -4143,7 +4142,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="str">
         <f>[1]Roster!A24</f>
         <v>Grace Pelkowski</v>
@@ -4165,7 +4164,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
         <f>[1]Roster!A25</f>
         <v>John Dover</v>
@@ -4187,7 +4186,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="str">
         <f>[1]Roster!A26</f>
         <v>Cathy Prine</v>
@@ -4209,7 +4208,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="str">
         <f>[1]Roster!A27</f>
         <v>Chris Ross</v>
@@ -4231,7 +4230,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="str">
         <f>[1]Roster!A28</f>
         <v>Daniel Duke</v>
@@ -4253,7 +4252,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="str">
         <f>[1]Roster!A29</f>
         <v>Ricki Roberson</v>
@@ -4275,7 +4274,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="str">
         <f>[1]Roster!A30</f>
         <v>Brent Parker</v>
@@ -4294,7 +4293,7 @@
       </c>
       <c r="E30" t="str">
         <f>IF([1]Roster!H29=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -4319,7 +4318,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="str">
         <f>[1]Roster!A32</f>
         <v>Jennifer Forstner</v>
@@ -4341,7 +4340,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="str">
         <f>[1]Roster!A33</f>
         <v>Jean Barnett</v>
@@ -4363,7 +4362,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="str">
         <f>[1]Roster!A34</f>
         <v>Thomas Rossi</v>
@@ -4385,7 +4384,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="str">
         <f>[1]Roster!A35</f>
         <v>Steven Wilber</v>
@@ -4407,7 +4406,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="str">
         <f>[1]Roster!A36</f>
         <v>Jason Delk</v>
@@ -4429,7 +4428,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="str">
         <f>[1]Roster!A37</f>
         <v>Katherine Mcgarrey</v>
@@ -4451,7 +4450,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="str">
         <f>[1]Roster!A38</f>
         <v>Jim Manning</v>
@@ -4473,7 +4472,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="str">
         <f>[1]Roster!A39</f>
         <v>Kimberly Kaloz</v>
@@ -4495,7 +4494,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="str">
         <f>[1]Roster!A40</f>
         <v>Joseph Kewley</v>
@@ -4517,7 +4516,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="str">
         <f>[1]Roster!A41</f>
         <v>Anne Zenzer</v>
@@ -4539,7 +4538,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="str">
         <f>[1]Roster!A42</f>
         <v>Michael Neelon</v>
@@ -4561,7 +4560,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="str">
         <f>[1]Roster!A43</f>
         <v>Richard Angeli</v>
@@ -4583,7 +4582,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="str">
         <f>[1]Roster!A44</f>
         <v>Kari Schulsinger</v>
@@ -4605,7 +4604,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="str">
         <f>[1]Roster!A45</f>
         <v>Scott Ebersol</v>
@@ -4627,7 +4626,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="str">
         <f>[1]Roster!A46</f>
         <v>Kevin Ross</v>
@@ -4649,7 +4648,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="str">
         <f>[1]Roster!A47</f>
         <v>Dana Thomas</v>
@@ -4671,7 +4670,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="str">
         <f>[1]Roster!A48</f>
         <v>Ryan Roa</v>
@@ -4803,7 +4802,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f>[1]Roster!A54</f>
         <v>Gina Esposito</v>
@@ -4825,7 +4824,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="str">
         <f>[1]Roster!A55</f>
         <v>Stefanie Schmitz</v>
@@ -4847,7 +4846,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="str">
         <f>[1]Roster!A56</f>
         <v>Geffrey Bergh</v>
@@ -4869,7 +4868,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="str">
         <f>[1]Roster!A57</f>
         <v>Joe Reed</v>
@@ -4891,7 +4890,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
         <f>[1]Roster!A58</f>
         <v>Jennifer Smith</v>
@@ -4913,7 +4912,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
         <f>[1]Roster!A59</f>
         <v>Robert Cantu</v>
@@ -4935,7 +4934,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f>[1]Roster!A60</f>
         <v>Melanie Gobourne</v>
@@ -4957,7 +4956,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
         <f>[1]Roster!A61</f>
         <v>Andrew Metzinger</v>
@@ -4979,7 +4978,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f>[1]Roster!A62</f>
         <v>Brianj Frisone</v>
@@ -5001,7 +5000,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f>[1]Roster!A63</f>
         <v>David Rose</v>
@@ -5023,7 +5022,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f>[1]Roster!A64</f>
         <v>John Comonitski</v>
@@ -5045,7 +5044,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f>[1]Roster!A65</f>
         <v>Alicia Margoles</v>
@@ -5067,7 +5066,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f>[1]Roster!A66</f>
         <v>John Durand</v>
@@ -5089,7 +5088,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="str">
         <f>[1]Roster!A67</f>
         <v>Taylor Martin</v>
@@ -5111,7 +5110,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f>[1]Roster!A68</f>
         <v>Paul Carpenter</v>
@@ -5133,7 +5132,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f>[1]Roster!A69</f>
         <v>G Wigginton</v>
@@ -5155,7 +5154,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
         <f>[1]Roster!A70</f>
         <v>Todd Herman</v>
@@ -5177,7 +5176,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
         <f>[1]Roster!A71</f>
         <v>Heather Page</v>
@@ -5199,7 +5198,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
         <f>[1]Roster!A72</f>
         <v>Kristin Edwards</v>
@@ -5221,7 +5220,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
         <f>[1]Roster!A73</f>
         <v>Stan Merriken</v>
@@ -5243,7 +5242,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="str">
         <f>[1]Roster!A74</f>
         <v>Nannette Alton-Labus</v>
@@ -5258,14 +5257,14 @@
       </c>
       <c r="D74" t="str">
         <f>IF([1]Roster!G74=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E74" t="str">
         <f>IF([1]Roster!H73=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="str">
         <f>[1]Roster!A75</f>
         <v>Grove Bolger</v>
@@ -5287,7 +5286,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="str">
         <f>[1]Roster!A76</f>
         <v>Edward Sot</v>
@@ -5309,7 +5308,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="str">
         <f>[1]Roster!A77</f>
         <v>Daniel Coleman</v>
@@ -5331,7 +5330,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="str">
         <f>[1]Roster!A78</f>
         <v>Corinne Piazza</v>
@@ -5353,7 +5352,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="str">
         <f>[1]Roster!A79</f>
         <v>Glenn Belemjian</v>
@@ -5375,7 +5374,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="str">
         <f>[1]Roster!A80</f>
         <v>Anoop Mansukhani</v>
@@ -5397,7 +5396,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="str">
         <f>[1]Roster!A81</f>
         <v>Jonathan Ijaz</v>
@@ -5419,7 +5418,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="str">
         <f>[1]Roster!A82</f>
         <v>Kathryn Mckeon</v>
@@ -5441,7 +5440,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="str">
         <f>[1]Roster!A83</f>
         <v>Keith Ingstad</v>
@@ -5456,14 +5455,14 @@
       </c>
       <c r="D83" t="str">
         <f>IF([1]Roster!G83=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E83" t="str">
         <f>IF([1]Roster!H82=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="str">
         <f>[1]Roster!A84</f>
         <v>Joette Munoz</v>
@@ -5485,7 +5484,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="str">
         <f>[1]Roster!A85</f>
         <v>Fran Roberts</v>
@@ -5507,7 +5506,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="str">
         <f>[1]Roster!A86</f>
         <v>Douglas Gelatti</v>
@@ -5529,7 +5528,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="str">
         <f>[1]Roster!A87</f>
         <v>Carrie Britton</v>
@@ -5551,7 +5550,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="str">
         <f>[1]Roster!A88</f>
         <v>Louis Carbajal</v>
@@ -5573,7 +5572,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="str">
         <f>[1]Roster!A89</f>
         <v>Tara Barton</v>
@@ -5595,7 +5594,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="str">
         <f>[1]Roster!A90</f>
         <v>Jay Shen</v>
@@ -5617,7 +5616,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="str">
         <f>[1]Roster!A91</f>
         <v>Andrea Stricklin</v>
@@ -5859,7 +5858,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="str">
         <f>[1]Roster!A102</f>
         <v>Robert Zullo</v>
@@ -5881,7 +5880,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="str">
         <f>[1]Roster!A103</f>
         <v>Darlene Juliano</v>
@@ -5903,7 +5902,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="str">
         <f>[1]Roster!A104</f>
         <v>Andrew Neno</v>
@@ -5925,7 +5924,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="str">
         <f>[1]Roster!A105</f>
         <v>Alice Lydon</v>
@@ -5947,7 +5946,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="str">
         <f>[1]Roster!A106</f>
         <v>Gaetano Calafati Jr</v>
@@ -5969,7 +5968,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="str">
         <f>[1]Roster!A107</f>
         <v>Sue Rose</v>
@@ -5991,7 +5990,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="str">
         <f>[1]Roster!A108</f>
         <v>Laura Ruiz-Martinez</v>
@@ -6013,7 +6012,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="str">
         <f>[1]Roster!A109</f>
         <v>Leslie Brunette</v>
@@ -6035,7 +6034,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="str">
         <f>[1]Roster!A110</f>
         <v>Chris Golden</v>
@@ -6057,7 +6056,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="str">
         <f>[1]Roster!A111</f>
         <v>Michelle Moylanelder</v>
@@ -6079,7 +6078,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="str">
         <f>[1]Roster!A112</f>
         <v>Lynn Mckinley</v>
@@ -6101,7 +6100,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="str">
         <f>[1]Roster!A113</f>
         <v>Sarah Sawyer</v>
@@ -6123,7 +6122,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="str">
         <f>[1]Roster!A114</f>
         <v>Kenneth Simon</v>
@@ -6255,7 +6254,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="str">
         <f>[1]Roster!A120</f>
         <v>Michelle Reeder</v>
@@ -6277,7 +6276,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="str">
         <f>[1]Roster!A121</f>
         <v>Annie Laporta</v>
@@ -6299,7 +6298,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="str">
         <f>[1]Roster!A122</f>
         <v>Leslie Nodler</v>
@@ -6321,7 +6320,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="str">
         <f>[1]Roster!A123</f>
         <v>James Kemp</v>
@@ -6343,7 +6342,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="str">
         <f>[1]Roster!A124</f>
         <v>James Devins</v>
@@ -6365,7 +6364,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="str">
         <f>[1]Roster!A125</f>
         <v>Lisa Hohman</v>
@@ -6387,7 +6386,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="str">
         <f>[1]Roster!A126</f>
         <v>Jennifer Bentley</v>
@@ -6409,7 +6408,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="str">
         <f>[1]Roster!A127</f>
         <v>Peter Hayek</v>
@@ -6431,7 +6430,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="str">
         <f>[1]Roster!A128</f>
         <v>Jane Dantinne</v>
@@ -6453,7 +6452,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="str">
         <f>[1]Roster!A129</f>
         <v>Kerry Yamat</v>
@@ -6475,7 +6474,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="str">
         <f>[1]Roster!A130</f>
         <v>Kyle Spencer</v>
@@ -6497,7 +6496,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="str">
         <f>[1]Roster!A131</f>
         <v>Shilpa Kalawadia</v>
@@ -6519,7 +6518,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="str">
         <f>[1]Roster!A132</f>
         <v>Steven Gardner</v>
@@ -6541,7 +6540,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="str">
         <f>[1]Roster!A133</f>
         <v>Dawn Conrad</v>
@@ -6563,7 +6562,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="str">
         <f>[1]Roster!A134</f>
         <v>Paula Novabilski</v>
@@ -6585,7 +6584,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="str">
         <f>[1]Roster!A135</f>
         <v>Lynnette Nestor</v>
@@ -6607,7 +6606,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="str">
         <f>[1]Roster!A136</f>
         <v>Melissa Rieflin</v>
@@ -6629,7 +6628,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="str">
         <f>[1]Roster!A137</f>
         <v>Bill Germond</v>
@@ -6651,7 +6650,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="str">
         <f>[1]Roster!A138</f>
         <v>Andrea Hobbs</v>
@@ -6673,7 +6672,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="str">
         <f>[1]Roster!A139</f>
         <v>Tobey Hoambrecker</v>
@@ -6695,7 +6694,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="str">
         <f>[1]Roster!A140</f>
         <v>Kimberly Kunkleman</v>
@@ -6717,7 +6716,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="str">
         <f>[1]Roster!A141</f>
         <v>Jennifer Neumer</v>
@@ -6739,7 +6738,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="str">
         <f>[1]Roster!A142</f>
         <v>Joseph Yurt</v>
@@ -6761,7 +6760,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="str">
         <f>[1]Roster!A143</f>
         <v>Christopher Gosselin</v>
@@ -6783,7 +6782,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="str">
         <f>[1]Roster!A144</f>
         <v>Jason Monk</v>
@@ -6805,7 +6804,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="str">
         <f>[1]Roster!A145</f>
         <v>Dawn Hansen</v>
@@ -6827,7 +6826,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="str">
         <f>[1]Roster!A146</f>
         <v>Karyn Tomlin</v>
@@ -6849,7 +6848,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="str">
         <f>[1]Roster!A147</f>
         <v>Troy Siragusa</v>
@@ -6871,7 +6870,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="str">
         <f>[1]Roster!A148</f>
         <v>Sylvia Jacobs</v>
@@ -6893,7 +6892,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="str">
         <f>[1]Roster!A149</f>
         <v>Brandon Black</v>
@@ -6915,7 +6914,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="str">
         <f>[1]Roster!A150</f>
         <v>Michelleb Mitchell</v>
@@ -6937,7 +6936,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="str">
         <f>[1]Roster!A151</f>
         <v>Deborah Bergman</v>
@@ -6959,7 +6958,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="str">
         <f>[1]Roster!A152</f>
         <v>Robby Robinson</v>
@@ -6981,7 +6980,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="str">
         <f>[1]Roster!A153</f>
         <v>Nikole Austrup-Jones</v>
@@ -7003,7 +7002,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="str">
         <f>[1]Roster!A154</f>
         <v>Jasmina Boruta</v>
@@ -7025,7 +7024,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="str">
         <f>[1]Roster!A155</f>
         <v>Larry Balone</v>
@@ -7047,7 +7046,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="str">
         <f>[1]Roster!A156</f>
         <v>John Foster</v>
@@ -7069,7 +7068,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="str">
         <f>[1]Roster!A157</f>
         <v>Alexis Amici</v>
@@ -7091,7 +7090,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="str">
         <f>[1]Roster!A158</f>
         <v>Michele Torelli</v>
@@ -7113,7 +7112,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="str">
         <f>[1]Roster!A159</f>
         <v>Steve Fowler</v>
@@ -7135,7 +7134,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="str">
         <f>[1]Roster!A160</f>
         <v>Tiffany Grand</v>
@@ -7157,7 +7156,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="str">
         <f>[1]Roster!A161</f>
         <v>Thomas Berte</v>
@@ -7179,7 +7178,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="str">
         <f>[1]Roster!A162</f>
         <v>Tara Fleming</v>
@@ -7201,7 +7200,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="str">
         <f>[1]Roster!A163</f>
         <v>Ann Wagner</v>
@@ -7223,7 +7222,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="str">
         <f>[1]Roster!A164</f>
         <v>David Williams</v>
@@ -7245,7 +7244,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="str">
         <f>[1]Roster!A165</f>
         <v>Douglas Slape</v>
@@ -7267,7 +7266,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="str">
         <f>[1]Roster!A166</f>
         <v>Shandra Harvey Stewart</v>
@@ -7289,7 +7288,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="str">
         <f>[1]Roster!A167</f>
         <v>Hayley Ludwig</v>
@@ -7311,7 +7310,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="str">
         <f>[1]Roster!A168</f>
         <v>Maureen Hall</v>
@@ -7333,7 +7332,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="str">
         <f>[1]Roster!A169</f>
         <v>Randy Benson</v>
@@ -7355,7 +7354,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="str">
         <f>[1]Roster!A170</f>
         <v>Mark Campbell</v>
@@ -7377,7 +7376,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="str">
         <f>[1]Roster!A171</f>
         <v>Bree Carlin</v>
@@ -7399,7 +7398,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="str">
         <f>[1]Roster!A172</f>
         <v>Cecelia Daly</v>
@@ -7421,7 +7420,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="str">
         <f>[1]Roster!A173</f>
         <v>Christopher Billmann</v>
@@ -7443,7 +7442,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="str">
         <f>[1]Roster!A174</f>
         <v>Kent Hutchens</v>
@@ -7465,7 +7464,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="str">
         <f>[1]Roster!A175</f>
         <v>Amy Finn</v>
@@ -7487,7 +7486,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="str">
         <f>[1]Roster!A176</f>
         <v>Jodi Pergolis</v>
@@ -7509,7 +7508,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="str">
         <f>[1]Roster!A177</f>
         <v>Mark Barrett</v>
@@ -7531,7 +7530,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="str">
         <f>[1]Roster!A178</f>
         <v>John Towle</v>
@@ -7553,7 +7552,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="str">
         <f>[1]Roster!A179</f>
         <v>Andrew Oneil</v>
@@ -7575,7 +7574,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="str">
         <f>[1]Roster!A180</f>
         <v>Jeff Kounter</v>
@@ -7597,7 +7596,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="str">
         <f>[1]Roster!A181</f>
         <v>Kristin Ngchee</v>
@@ -7619,7 +7618,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="str">
         <f>[1]Roster!A182</f>
         <v>Carl Meister</v>
@@ -7641,7 +7640,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="str">
         <f>[1]Roster!A183</f>
         <v>Adam Martin</v>
@@ -7663,7 +7662,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="str">
         <f>[1]Roster!A184</f>
         <v>John Costello</v>
@@ -7685,7 +7684,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="str">
         <f>[1]Roster!A185</f>
         <v>Joseph Giuliano</v>
@@ -7888,13 +7887,7 @@
       <c r="A245" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E185" xr:uid="{EE1592C1-D93F-4B1C-A104-28CB57E115FF}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="complete"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D245" xr:uid="{EE1592C1-D93F-4B1C-A104-28CB57E115FF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A59F301-9BEA-4C2F-BC74-68E485191AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7489F1A-2FDF-4181-B639-59555A4938DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09040FFF-DEA5-439E-B83F-DFC31F1C4CDD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{125A678B-247E-42E1-B687-274875DB4DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G24">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H24">
             <v>0</v>
@@ -932,7 +932,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G46">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H46">
             <v>0</v>
@@ -1153,7 +1153,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G59">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H59">
             <v>0</v>
@@ -1493,7 +1493,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G79">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H79">
             <v>0</v>
@@ -2241,7 +2241,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G123">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H123">
             <v>0</v>
@@ -3625,11 +3625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2261F818-8511-43B8-B03B-615FCFA46318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E25A31-3FC6-4AB5-98EC-7A21EA3A089A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E185"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3658,7 +3659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="str">
         <f>[1]Roster!A2</f>
         <v>Bryan Martinez</v>
@@ -3702,7 +3703,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f>[1]Roster!A4</f>
         <v>James G Kelly</v>
@@ -3724,7 +3725,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f>[1]Roster!A5</f>
         <v>Donna Daniel</v>
@@ -3746,7 +3747,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f>[1]Roster!A6</f>
         <v>Jillian Sorrentino</v>
@@ -3768,7 +3769,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
         <f>[1]Roster!A7</f>
         <v>Tamara Ciner</v>
@@ -3790,7 +3791,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
         <f>[1]Roster!A8</f>
         <v>Andrea Schmoel</v>
@@ -3834,7 +3835,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
         <f>[1]Roster!A10</f>
         <v>John Stone</v>
@@ -3856,7 +3857,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
         <f>[1]Roster!A11</f>
         <v>Marcus Crawford</v>
@@ -3878,7 +3879,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
         <f>[1]Roster!A12</f>
         <v>Jerry Lubben</v>
@@ -3900,7 +3901,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
         <f>[1]Roster!A13</f>
         <v>Karen Kodanko</v>
@@ -3922,7 +3923,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
         <f>[1]Roster!A14</f>
         <v>Randall Roth</v>
@@ -3944,7 +3945,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
         <f>[1]Roster!A15</f>
         <v>Ann Marie Mcauliffe</v>
@@ -4010,7 +4011,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
         <f>[1]Roster!A18</f>
         <v>Annemarie Pedersen</v>
@@ -4032,7 +4033,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
         <f>[1]Roster!A19</f>
         <v>Harry Herar</v>
@@ -4076,7 +4077,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="str">
         <f>[1]Roster!A21</f>
         <v>Melanie Lamarche</v>
@@ -4120,7 +4121,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="str">
         <f>[1]Roster!A23</f>
         <v>Bridget Sullivan</v>
@@ -4157,7 +4158,7 @@
       </c>
       <c r="D24" t="str">
         <f>IF([1]Roster!G24=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E24" t="str">
         <f>IF([1]Roster!H23=1,"complete","not-started")</f>
@@ -4186,7 +4187,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="str">
         <f>[1]Roster!A26</f>
         <v>Cathy Prine</v>
@@ -4208,7 +4209,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="str">
         <f>[1]Roster!A27</f>
         <v>Chris Ross</v>
@@ -4230,7 +4231,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="str">
         <f>[1]Roster!A28</f>
         <v>Daniel Duke</v>
@@ -4252,7 +4253,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="str">
         <f>[1]Roster!A29</f>
         <v>Ricki Roberson</v>
@@ -4274,7 +4275,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="str">
         <f>[1]Roster!A30</f>
         <v>Brent Parker</v>
@@ -4296,7 +4297,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="str">
         <f>[1]Roster!A31</f>
         <v>Tamara Quarles</v>
@@ -4340,7 +4341,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="str">
         <f>[1]Roster!A33</f>
         <v>Jean Barnett</v>
@@ -4362,7 +4363,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="str">
         <f>[1]Roster!A34</f>
         <v>Thomas Rossi</v>
@@ -4406,7 +4407,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="str">
         <f>[1]Roster!A36</f>
         <v>Jason Delk</v>
@@ -4428,7 +4429,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="str">
         <f>[1]Roster!A37</f>
         <v>Katherine Mcgarrey</v>
@@ -4450,7 +4451,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="str">
         <f>[1]Roster!A38</f>
         <v>Jim Manning</v>
@@ -4472,7 +4473,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="str">
         <f>[1]Roster!A39</f>
         <v>Kimberly Kaloz</v>
@@ -4494,7 +4495,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="str">
         <f>[1]Roster!A40</f>
         <v>Joseph Kewley</v>
@@ -4516,7 +4517,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="str">
         <f>[1]Roster!A41</f>
         <v>Anne Zenzer</v>
@@ -4538,7 +4539,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="str">
         <f>[1]Roster!A42</f>
         <v>Michael Neelon</v>
@@ -4560,7 +4561,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="str">
         <f>[1]Roster!A43</f>
         <v>Richard Angeli</v>
@@ -4582,7 +4583,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="str">
         <f>[1]Roster!A44</f>
         <v>Kari Schulsinger</v>
@@ -4604,7 +4605,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="str">
         <f>[1]Roster!A45</f>
         <v>Scott Ebersol</v>
@@ -4641,14 +4642,14 @@
       </c>
       <c r="D46" t="str">
         <f>IF([1]Roster!G46=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E46" t="str">
         <f>IF([1]Roster!H45=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="str">
         <f>[1]Roster!A47</f>
         <v>Dana Thomas</v>
@@ -4670,7 +4671,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="str">
         <f>[1]Roster!A48</f>
         <v>Ryan Roa</v>
@@ -4692,7 +4693,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="str">
         <f>[1]Roster!A49</f>
         <v>Michael J Larivee</v>
@@ -4714,7 +4715,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="str">
         <f>[1]Roster!A50</f>
         <v>Derek Hersha</v>
@@ -4780,7 +4781,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
         <f>[1]Roster!A53</f>
         <v>Robert Avis</v>
@@ -4802,7 +4803,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f>[1]Roster!A54</f>
         <v>Gina Esposito</v>
@@ -4846,7 +4847,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="str">
         <f>[1]Roster!A56</f>
         <v>Geffrey Bergh</v>
@@ -4868,7 +4869,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="str">
         <f>[1]Roster!A57</f>
         <v>Joe Reed</v>
@@ -4927,14 +4928,14 @@
       </c>
       <c r="D59" t="str">
         <f>IF([1]Roster!G59=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E59" t="str">
         <f>IF([1]Roster!H58=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f>[1]Roster!A60</f>
         <v>Melanie Gobourne</v>
@@ -4956,7 +4957,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
         <f>[1]Roster!A61</f>
         <v>Andrew Metzinger</v>
@@ -5000,7 +5001,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f>[1]Roster!A63</f>
         <v>David Rose</v>
@@ -5022,7 +5023,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f>[1]Roster!A64</f>
         <v>John Comonitski</v>
@@ -5044,7 +5045,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f>[1]Roster!A65</f>
         <v>Alicia Margoles</v>
@@ -5066,7 +5067,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f>[1]Roster!A66</f>
         <v>John Durand</v>
@@ -5088,7 +5089,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="str">
         <f>[1]Roster!A67</f>
         <v>Taylor Martin</v>
@@ -5110,7 +5111,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f>[1]Roster!A68</f>
         <v>Paul Carpenter</v>
@@ -5132,7 +5133,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f>[1]Roster!A69</f>
         <v>G Wigginton</v>
@@ -5198,7 +5199,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
         <f>[1]Roster!A72</f>
         <v>Kristin Edwards</v>
@@ -5220,7 +5221,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
         <f>[1]Roster!A73</f>
         <v>Stan Merriken</v>
@@ -5264,7 +5265,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="str">
         <f>[1]Roster!A75</f>
         <v>Grove Bolger</v>
@@ -5286,7 +5287,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="str">
         <f>[1]Roster!A76</f>
         <v>Edward Sot</v>
@@ -5308,7 +5309,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="str">
         <f>[1]Roster!A77</f>
         <v>Daniel Coleman</v>
@@ -5330,7 +5331,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="str">
         <f>[1]Roster!A78</f>
         <v>Corinne Piazza</v>
@@ -5367,7 +5368,7 @@
       </c>
       <c r="D79" t="str">
         <f>IF([1]Roster!G79=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E79" t="str">
         <f>IF([1]Roster!H78=1,"complete","not-started")</f>
@@ -5396,7 +5397,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="str">
         <f>[1]Roster!A81</f>
         <v>Jonathan Ijaz</v>
@@ -5418,7 +5419,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="str">
         <f>[1]Roster!A82</f>
         <v>Kathryn Mckeon</v>
@@ -5462,7 +5463,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="str">
         <f>[1]Roster!A84</f>
         <v>Joette Munoz</v>
@@ -5484,7 +5485,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="str">
         <f>[1]Roster!A85</f>
         <v>Fran Roberts</v>
@@ -5550,7 +5551,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="str">
         <f>[1]Roster!A88</f>
         <v>Louis Carbajal</v>
@@ -5572,7 +5573,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="str">
         <f>[1]Roster!A89</f>
         <v>Tara Barton</v>
@@ -5594,7 +5595,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="str">
         <f>[1]Roster!A90</f>
         <v>Jay Shen</v>
@@ -5616,7 +5617,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="str">
         <f>[1]Roster!A91</f>
         <v>Andrea Stricklin</v>
@@ -5638,7 +5639,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="str">
         <f>[1]Roster!A92</f>
         <v>Wayne Musum</v>
@@ -5660,7 +5661,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="str">
         <f>[1]Roster!A93</f>
         <v>Pooja Atwal</v>
@@ -5682,7 +5683,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="str">
         <f>[1]Roster!A94</f>
         <v>Veronica Restrepo Vasquez</v>
@@ -5726,7 +5727,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="str">
         <f>[1]Roster!A96</f>
         <v>Hala Smith</v>
@@ -5748,7 +5749,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="str">
         <f>[1]Roster!A97</f>
         <v>Waynalyn Deshields</v>
@@ -5770,7 +5771,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="str">
         <f>[1]Roster!A98</f>
         <v>Suan Swenson</v>
@@ -5792,7 +5793,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="str">
         <f>[1]Roster!A99</f>
         <v>Kelly Holland</v>
@@ -5814,7 +5815,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="str">
         <f>[1]Roster!A100</f>
         <v>Cathy Russell</v>
@@ -5836,7 +5837,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="str">
         <f>[1]Roster!A101</f>
         <v>Molly Ortolani</v>
@@ -5858,7 +5859,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="str">
         <f>[1]Roster!A102</f>
         <v>Robert Zullo</v>
@@ -5902,7 +5903,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="str">
         <f>[1]Roster!A104</f>
         <v>Andrew Neno</v>
@@ -5968,7 +5969,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="str">
         <f>[1]Roster!A107</f>
         <v>Sue Rose</v>
@@ -6012,7 +6013,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="str">
         <f>[1]Roster!A109</f>
         <v>Leslie Brunette</v>
@@ -6034,7 +6035,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="str">
         <f>[1]Roster!A110</f>
         <v>Chris Golden</v>
@@ -6056,7 +6057,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="str">
         <f>[1]Roster!A111</f>
         <v>Michelle Moylanelder</v>
@@ -6100,7 +6101,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="str">
         <f>[1]Roster!A113</f>
         <v>Sarah Sawyer</v>
@@ -6122,7 +6123,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="str">
         <f>[1]Roster!A114</f>
         <v>Kenneth Simon</v>
@@ -6144,7 +6145,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="str">
         <f>[1]Roster!A115</f>
         <v>Patrick Neither</v>
@@ -6210,7 +6211,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="str">
         <f>[1]Roster!A118</f>
         <v>Jeffrey Hadley</v>
@@ -6254,7 +6255,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="str">
         <f>[1]Roster!A120</f>
         <v>Michelle Reeder</v>
@@ -6298,7 +6299,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="str">
         <f>[1]Roster!A122</f>
         <v>Leslie Nodler</v>
@@ -6335,7 +6336,7 @@
       </c>
       <c r="D123" t="str">
         <f>IF([1]Roster!G123=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E123" t="str">
         <f>IF([1]Roster!H122=1,"complete","not-started")</f>
@@ -6386,7 +6387,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="str">
         <f>[1]Roster!A126</f>
         <v>Jennifer Bentley</v>
@@ -6408,7 +6409,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="str">
         <f>[1]Roster!A127</f>
         <v>Peter Hayek</v>
@@ -6474,7 +6475,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="str">
         <f>[1]Roster!A130</f>
         <v>Kyle Spencer</v>
@@ -6496,7 +6497,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="str">
         <f>[1]Roster!A131</f>
         <v>Shilpa Kalawadia</v>
@@ -6518,7 +6519,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="str">
         <f>[1]Roster!A132</f>
         <v>Steven Gardner</v>
@@ -6540,7 +6541,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="str">
         <f>[1]Roster!A133</f>
         <v>Dawn Conrad</v>
@@ -6562,7 +6563,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="str">
         <f>[1]Roster!A134</f>
         <v>Paula Novabilski</v>
@@ -6584,7 +6585,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="str">
         <f>[1]Roster!A135</f>
         <v>Lynnette Nestor</v>
@@ -6606,7 +6607,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="str">
         <f>[1]Roster!A136</f>
         <v>Melissa Rieflin</v>
@@ -6650,7 +6651,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="str">
         <f>[1]Roster!A138</f>
         <v>Andrea Hobbs</v>
@@ -6672,7 +6673,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="str">
         <f>[1]Roster!A139</f>
         <v>Tobey Hoambrecker</v>
@@ -6694,7 +6695,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="str">
         <f>[1]Roster!A140</f>
         <v>Kimberly Kunkleman</v>
@@ -6716,7 +6717,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="str">
         <f>[1]Roster!A141</f>
         <v>Jennifer Neumer</v>
@@ -6738,7 +6739,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="str">
         <f>[1]Roster!A142</f>
         <v>Joseph Yurt</v>
@@ -6760,7 +6761,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="str">
         <f>[1]Roster!A143</f>
         <v>Christopher Gosselin</v>
@@ -6782,7 +6783,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="str">
         <f>[1]Roster!A144</f>
         <v>Jason Monk</v>
@@ -6804,7 +6805,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="str">
         <f>[1]Roster!A145</f>
         <v>Dawn Hansen</v>
@@ -6826,7 +6827,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="str">
         <f>[1]Roster!A146</f>
         <v>Karyn Tomlin</v>
@@ -6870,7 +6871,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="str">
         <f>[1]Roster!A148</f>
         <v>Sylvia Jacobs</v>
@@ -6892,7 +6893,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="str">
         <f>[1]Roster!A149</f>
         <v>Brandon Black</v>
@@ -6914,7 +6915,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="str">
         <f>[1]Roster!A150</f>
         <v>Michelleb Mitchell</v>
@@ -6958,7 +6959,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="str">
         <f>[1]Roster!A152</f>
         <v>Robby Robinson</v>
@@ -6980,7 +6981,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="str">
         <f>[1]Roster!A153</f>
         <v>Nikole Austrup-Jones</v>
@@ -7002,7 +7003,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="str">
         <f>[1]Roster!A154</f>
         <v>Jasmina Boruta</v>
@@ -7024,7 +7025,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="str">
         <f>[1]Roster!A155</f>
         <v>Larry Balone</v>
@@ -7046,7 +7047,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="str">
         <f>[1]Roster!A156</f>
         <v>John Foster</v>
@@ -7068,7 +7069,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="str">
         <f>[1]Roster!A157</f>
         <v>Alexis Amici</v>
@@ -7090,7 +7091,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="str">
         <f>[1]Roster!A158</f>
         <v>Michele Torelli</v>
@@ -7112,7 +7113,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="str">
         <f>[1]Roster!A159</f>
         <v>Steve Fowler</v>
@@ -7134,7 +7135,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="str">
         <f>[1]Roster!A160</f>
         <v>Tiffany Grand</v>
@@ -7156,7 +7157,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="str">
         <f>[1]Roster!A161</f>
         <v>Thomas Berte</v>
@@ -7178,7 +7179,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="str">
         <f>[1]Roster!A162</f>
         <v>Tara Fleming</v>
@@ -7200,7 +7201,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="str">
         <f>[1]Roster!A163</f>
         <v>Ann Wagner</v>
@@ -7222,7 +7223,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="str">
         <f>[1]Roster!A164</f>
         <v>David Williams</v>
@@ -7244,7 +7245,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="str">
         <f>[1]Roster!A165</f>
         <v>Douglas Slape</v>
@@ -7266,7 +7267,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="str">
         <f>[1]Roster!A166</f>
         <v>Shandra Harvey Stewart</v>
@@ -7288,7 +7289,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="str">
         <f>[1]Roster!A167</f>
         <v>Hayley Ludwig</v>
@@ -7310,7 +7311,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="str">
         <f>[1]Roster!A168</f>
         <v>Maureen Hall</v>
@@ -7332,7 +7333,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="str">
         <f>[1]Roster!A169</f>
         <v>Randy Benson</v>
@@ -7354,7 +7355,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="str">
         <f>[1]Roster!A170</f>
         <v>Mark Campbell</v>
@@ -7376,7 +7377,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="str">
         <f>[1]Roster!A171</f>
         <v>Bree Carlin</v>
@@ -7398,7 +7399,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="str">
         <f>[1]Roster!A172</f>
         <v>Cecelia Daly</v>
@@ -7420,7 +7421,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="str">
         <f>[1]Roster!A173</f>
         <v>Christopher Billmann</v>
@@ -7442,7 +7443,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="str">
         <f>[1]Roster!A174</f>
         <v>Kent Hutchens</v>
@@ -7464,7 +7465,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="str">
         <f>[1]Roster!A175</f>
         <v>Amy Finn</v>
@@ -7508,7 +7509,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="str">
         <f>[1]Roster!A177</f>
         <v>Mark Barrett</v>
@@ -7530,7 +7531,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="str">
         <f>[1]Roster!A178</f>
         <v>John Towle</v>
@@ -7552,7 +7553,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="str">
         <f>[1]Roster!A179</f>
         <v>Andrew Oneil</v>
@@ -7574,7 +7575,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="str">
         <f>[1]Roster!A180</f>
         <v>Jeff Kounter</v>
@@ -7596,7 +7597,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="str">
         <f>[1]Roster!A181</f>
         <v>Kristin Ngchee</v>
@@ -7618,7 +7619,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="str">
         <f>[1]Roster!A182</f>
         <v>Carl Meister</v>
@@ -7640,7 +7641,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="str">
         <f>[1]Roster!A183</f>
         <v>Adam Martin</v>
@@ -7684,7 +7685,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="str">
         <f>[1]Roster!A185</f>
         <v>Joseph Giuliano</v>
@@ -7706,188 +7707,194 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D245" xr:uid="{EE1592C1-D93F-4B1C-A104-28CB57E115FF}"/>
+  <autoFilter ref="D1:D245" xr:uid="{EE1592C1-D93F-4B1C-A104-28CB57E115FF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="complete"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eduwayz\Website\Aedashboard\AEdashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7489F1A-2FDF-4181-B639-59555A4938DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E5877A-4AC4-426D-ABAA-59D352D8B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{125A678B-247E-42E1-B687-274875DB4DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8D8A15E-BEE8-406C-88BC-A1293497D4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$D$1:$D$245</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -88,36 +85,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -126,11 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,23 +125,18 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Mapping"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="Roster"/>
       <sheetName val="Sheet3"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="Backend"/>
       <sheetName val="Sheet1"/>
       <sheetName val="Directors"/>
       <sheetName val="Details to set up account"/>
+      <sheetName val="Sheet4"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="H1" t="str">
-            <v>Director Assessment</v>
-          </cell>
-        </row>
+      <sheetData sheetId="1">
         <row r="2">
           <cell r="A2" t="str">
             <v>Bryan Martinez</v>
@@ -762,7 +726,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G36">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H36">
             <v>0</v>
@@ -935,7 +899,7 @@
             <v>1</v>
           </cell>
           <cell r="H46">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="47">
@@ -952,7 +916,7 @@
             <v>0</v>
           </cell>
           <cell r="H47">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="48">
@@ -1255,7 +1219,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G65">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H65">
             <v>0</v>
@@ -1663,7 +1627,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G89">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H89">
             <v>0</v>
@@ -1714,7 +1678,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G92">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H92">
             <v>1</v>
@@ -1816,7 +1780,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G98">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H98">
             <v>1</v>
@@ -1870,7 +1834,7 @@
             <v>0</v>
           </cell>
           <cell r="H101">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="102">
@@ -1887,7 +1851,7 @@
             <v>0</v>
           </cell>
           <cell r="H102">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="103">
@@ -1904,7 +1868,7 @@
             <v>1</v>
           </cell>
           <cell r="H103">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="104">
@@ -1921,7 +1885,7 @@
             <v>0</v>
           </cell>
           <cell r="H104">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="105">
@@ -1938,7 +1902,7 @@
             <v>1</v>
           </cell>
           <cell r="H105">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="106">
@@ -1955,7 +1919,7 @@
             <v>1</v>
           </cell>
           <cell r="H106">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="107">
@@ -1972,7 +1936,7 @@
             <v>0</v>
           </cell>
           <cell r="H107">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="108">
@@ -2190,7 +2154,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G120">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H120">
             <v>0</v>
@@ -3091,7 +3055,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G173">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H173">
             <v>0</v>
@@ -3297,13 +3261,188 @@
           <cell r="G185">
             <v>0</v>
           </cell>
+          <cell r="H185">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>Marilyn Gonzalez</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>Carlos Eduardo Munoz Borrero</v>
+          </cell>
+          <cell r="E186" t="str">
+            <v>Puerto Rico Team</v>
+          </cell>
+          <cell r="G186">
+            <v>0</v>
+          </cell>
+          <cell r="H186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>Johnsie Ortiz</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>Carlos Eduardo Munoz Borrero</v>
+          </cell>
+          <cell r="E187" t="str">
+            <v>Puerto Rico Team</v>
+          </cell>
+          <cell r="G187">
+            <v>0</v>
+          </cell>
+          <cell r="H187">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>Lillian Colon</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>Carlos Eduardo Munoz Borrero</v>
+          </cell>
+          <cell r="E188" t="str">
+            <v>Puerto Rico Team</v>
+          </cell>
+          <cell r="G188">
+            <v>0</v>
+          </cell>
+          <cell r="H188">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>Ricardo Rojas</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>Carlos Eduardo Munoz Borrero</v>
+          </cell>
+          <cell r="E189" t="str">
+            <v>Puerto Rico Team</v>
+          </cell>
+          <cell r="G189">
+            <v>0</v>
+          </cell>
+          <cell r="H189">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>Juan Pablo Rosado</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>Carlos Eduardo Munoz Borrero</v>
+          </cell>
+          <cell r="E190" t="str">
+            <v>Puerto Rico Team</v>
+          </cell>
+          <cell r="G190">
+            <v>0</v>
+          </cell>
+          <cell r="H190">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>Alma Guadalupe</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>Carlos Eduardo Munoz Borrero</v>
+          </cell>
+          <cell r="E191" t="str">
+            <v>Puerto Rico Team</v>
+          </cell>
+          <cell r="G191">
+            <v>0</v>
+          </cell>
+          <cell r="H191">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>Mark Montello</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>Hari Ravindranathan</v>
+          </cell>
+          <cell r="E192" t="str">
+            <v>Oncology</v>
+          </cell>
+          <cell r="G192">
+            <v>0</v>
+          </cell>
+          <cell r="H192">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>Claire McSorley</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>Hari Ravindranathan</v>
+          </cell>
+          <cell r="E193" t="str">
+            <v>Oncology</v>
+          </cell>
+          <cell r="G193">
+            <v>0</v>
+          </cell>
+          <cell r="H193">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>Michael Nicolucci</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>Hari Ravindranathan</v>
+          </cell>
+          <cell r="E194" t="str">
+            <v>Oncology</v>
+          </cell>
+          <cell r="G194">
+            <v>0</v>
+          </cell>
+          <cell r="H194">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>Craig R Haubach</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>Hari Ravindranathan</v>
+          </cell>
+          <cell r="E195" t="str">
+            <v>Oncology</v>
+          </cell>
+          <cell r="G195">
+            <v>0</v>
+          </cell>
+          <cell r="H195">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3625,24 +3764,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E25A31-3FC6-4AB5-98EC-7A21EA3A089A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E245"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F283E2CE-76F8-4966-9645-E5E23C1EFD83}">
+  <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3652,23 +3790,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="str">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
         <f>[1]Roster!A2</f>
         <v>Bryan Martinez</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" t="str">
         <f>[1]Roster!C2</f>
         <v>Michael Bagwell</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" t="str">
         <f>[1]Roster!E2</f>
         <v>IAM</v>
       </c>
@@ -3677,20 +3815,20 @@
         <v>not-started</v>
       </c>
       <c r="E2" t="str">
-        <f>IF([1]Roster!H1=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="str">
+        <f>IF([1]Roster!H2=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
         <f>[1]Roster!A3</f>
         <v>Ryan Attleson</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" t="str">
         <f>[1]Roster!C3</f>
         <v>Michael Bagwell</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" t="str">
         <f>[1]Roster!E3</f>
         <v>IAM</v>
       </c>
@@ -3699,20 +3837,20 @@
         <v>complete</v>
       </c>
       <c r="E3" t="str">
-        <f>IF([1]Roster!H2=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="str">
+        <f>IF([1]Roster!H3=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
         <f>[1]Roster!A4</f>
         <v>James G Kelly</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" t="str">
         <f>[1]Roster!C4</f>
         <v>Michael Bagwell</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" t="str">
         <f>[1]Roster!E4</f>
         <v>IAM</v>
       </c>
@@ -3721,20 +3859,20 @@
         <v>not-started</v>
       </c>
       <c r="E4" t="str">
-        <f>IF([1]Roster!H3=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="str">
+        <f>IF([1]Roster!H4=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
         <f>[1]Roster!A5</f>
         <v>Donna Daniel</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" t="str">
         <f>[1]Roster!C5</f>
         <v>Michael Bagwell</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" t="str">
         <f>[1]Roster!E5</f>
         <v>IAM</v>
       </c>
@@ -3743,20 +3881,20 @@
         <v>not-started</v>
       </c>
       <c r="E5" t="str">
-        <f>IF([1]Roster!H4=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="str">
+        <f>IF([1]Roster!H5=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
         <f>[1]Roster!A6</f>
         <v>Jillian Sorrentino</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" t="str">
         <f>[1]Roster!C6</f>
         <v>Michael Bagwell</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" t="str">
         <f>[1]Roster!E6</f>
         <v>IAM</v>
       </c>
@@ -3765,20 +3903,20 @@
         <v>not-started</v>
       </c>
       <c r="E6" t="str">
-        <f>IF([1]Roster!H5=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="str">
+        <f>IF([1]Roster!H6=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
         <f>[1]Roster!A7</f>
         <v>Tamara Ciner</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" t="str">
         <f>[1]Roster!C7</f>
         <v>Michael Bagwell</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" t="str">
         <f>[1]Roster!E7</f>
         <v>IAM</v>
       </c>
@@ -3787,20 +3925,20 @@
         <v>not-started</v>
       </c>
       <c r="E7" t="str">
-        <f>IF([1]Roster!H6=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="str">
+        <f>IF([1]Roster!H7=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
         <f>[1]Roster!A8</f>
         <v>Andrea Schmoel</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" t="str">
         <f>[1]Roster!C8</f>
         <v>Michael Bagwell</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" t="str">
         <f>[1]Roster!E8</f>
         <v>IAM</v>
       </c>
@@ -3809,20 +3947,20 @@
         <v>not-started</v>
       </c>
       <c r="E8" t="str">
-        <f>IF([1]Roster!H7=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="str">
+        <f>IF([1]Roster!H8=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
         <f>[1]Roster!A9</f>
         <v>Laura Chisman</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" t="str">
         <f>[1]Roster!C9</f>
         <v>Robert Baranick</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" t="str">
         <f>[1]Roster!E9</f>
         <v>IAM</v>
       </c>
@@ -3831,20 +3969,20 @@
         <v>complete</v>
       </c>
       <c r="E9" t="str">
-        <f>IF([1]Roster!H8=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="str">
+        <f>IF([1]Roster!H9=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
         <f>[1]Roster!A10</f>
         <v>John Stone</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" t="str">
         <f>[1]Roster!C10</f>
         <v>Robert Baranick</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" t="str">
         <f>[1]Roster!E10</f>
         <v>IAM</v>
       </c>
@@ -3853,20 +3991,20 @@
         <v>not-started</v>
       </c>
       <c r="E10" t="str">
-        <f>IF([1]Roster!H9=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="str">
+        <f>IF([1]Roster!H10=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
         <f>[1]Roster!A11</f>
         <v>Marcus Crawford</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" t="str">
         <f>[1]Roster!C11</f>
         <v>Robert Baranick</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" t="str">
         <f>[1]Roster!E11</f>
         <v>IAM</v>
       </c>
@@ -3875,20 +4013,20 @@
         <v>not-started</v>
       </c>
       <c r="E11" t="str">
-        <f>IF([1]Roster!H10=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="str">
+        <f>IF([1]Roster!H11=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
         <f>[1]Roster!A12</f>
         <v>Jerry Lubben</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" t="str">
         <f>[1]Roster!C12</f>
         <v>Robert Baranick</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" t="str">
         <f>[1]Roster!E12</f>
         <v>IAM</v>
       </c>
@@ -3897,20 +4035,20 @@
         <v>not-started</v>
       </c>
       <c r="E12" t="str">
-        <f>IF([1]Roster!H11=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="str">
+        <f>IF([1]Roster!H12=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
         <f>[1]Roster!A13</f>
         <v>Karen Kodanko</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" t="str">
         <f>[1]Roster!C13</f>
         <v>Robert Baranick</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" t="str">
         <f>[1]Roster!E13</f>
         <v>IAM</v>
       </c>
@@ -3919,20 +4057,20 @@
         <v>not-started</v>
       </c>
       <c r="E13" t="str">
-        <f>IF([1]Roster!H12=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="str">
+        <f>IF([1]Roster!H13=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
         <f>[1]Roster!A14</f>
         <v>Randall Roth</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" t="str">
         <f>[1]Roster!C14</f>
         <v>Robert Baranick</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" t="str">
         <f>[1]Roster!E14</f>
         <v>IAM</v>
       </c>
@@ -3941,20 +4079,20 @@
         <v>not-started</v>
       </c>
       <c r="E14" t="str">
-        <f>IF([1]Roster!H13=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="str">
+        <f>IF([1]Roster!H14=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
         <f>[1]Roster!A15</f>
         <v>Ann Marie Mcauliffe</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" t="str">
         <f>[1]Roster!C15</f>
         <v>Robert Baranick</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" t="str">
         <f>[1]Roster!E15</f>
         <v>IAM</v>
       </c>
@@ -3963,20 +4101,20 @@
         <v>not-started</v>
       </c>
       <c r="E15" t="str">
-        <f>IF([1]Roster!H14=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="str">
+        <f>IF([1]Roster!H15=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
         <f>[1]Roster!A16</f>
         <v>Callie Zampetis</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" t="str">
         <f>[1]Roster!C16</f>
         <v>Robert Baranick</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" t="str">
         <f>[1]Roster!E16</f>
         <v>IAM</v>
       </c>
@@ -3985,20 +4123,20 @@
         <v>complete</v>
       </c>
       <c r="E16" t="str">
-        <f>IF([1]Roster!H15=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="str">
+        <f>IF([1]Roster!H16=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
         <f>[1]Roster!A17</f>
         <v>Darlene Halverson</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" t="str">
         <f>[1]Roster!C17</f>
         <v>Dave Riepe</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" t="str">
         <f>[1]Roster!E17</f>
         <v>IAM</v>
       </c>
@@ -4007,20 +4145,20 @@
         <v>complete</v>
       </c>
       <c r="E17" t="str">
-        <f>IF([1]Roster!H16=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="str">
+        <f>IF([1]Roster!H17=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
         <f>[1]Roster!A18</f>
         <v>Annemarie Pedersen</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" t="str">
         <f>[1]Roster!C18</f>
         <v>Dave Riepe</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" t="str">
         <f>[1]Roster!E18</f>
         <v>IAM</v>
       </c>
@@ -4029,20 +4167,20 @@
         <v>not-started</v>
       </c>
       <c r="E18" t="str">
-        <f>IF([1]Roster!H17=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="str">
+        <f>IF([1]Roster!H18=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
         <f>[1]Roster!A19</f>
         <v>Harry Herar</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" t="str">
         <f>[1]Roster!C19</f>
         <v>Dave Riepe</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" t="str">
         <f>[1]Roster!E19</f>
         <v>IAM</v>
       </c>
@@ -4051,20 +4189,20 @@
         <v>not-started</v>
       </c>
       <c r="E19" t="str">
-        <f>IF([1]Roster!H18=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="str">
+        <f>IF([1]Roster!H19=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
         <f>[1]Roster!A20</f>
         <v>Kristin Smith</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" t="str">
         <f>[1]Roster!C20</f>
         <v>Dave Riepe</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" t="str">
         <f>[1]Roster!E20</f>
         <v>IAM</v>
       </c>
@@ -4073,20 +4211,20 @@
         <v>complete</v>
       </c>
       <c r="E20" t="str">
-        <f>IF([1]Roster!H19=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="str">
+        <f>IF([1]Roster!H20=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
         <f>[1]Roster!A21</f>
         <v>Melanie Lamarche</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" t="str">
         <f>[1]Roster!C21</f>
         <v>Dave Riepe</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" t="str">
         <f>[1]Roster!E21</f>
         <v>IAM</v>
       </c>
@@ -4095,20 +4233,20 @@
         <v>not-started</v>
       </c>
       <c r="E21" t="str">
-        <f>IF([1]Roster!H20=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="str">
+        <f>IF([1]Roster!H21=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
         <f>[1]Roster!A22</f>
         <v>Mysti Horwath</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" t="str">
         <f>[1]Roster!C22</f>
         <v>Dave Riepe</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" t="str">
         <f>[1]Roster!E22</f>
         <v>IAM</v>
       </c>
@@ -4117,20 +4255,20 @@
         <v>complete</v>
       </c>
       <c r="E22" t="str">
-        <f>IF([1]Roster!H21=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="str">
+        <f>IF([1]Roster!H22=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
         <f>[1]Roster!A23</f>
         <v>Bridget Sullivan</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B23" t="str">
         <f>[1]Roster!C23</f>
         <v>Dave Riepe</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" t="str">
         <f>[1]Roster!E23</f>
         <v>IAM</v>
       </c>
@@ -4139,20 +4277,20 @@
         <v>not-started</v>
       </c>
       <c r="E23" t="str">
-        <f>IF([1]Roster!H22=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="str">
+        <f>IF([1]Roster!H23=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
         <f>[1]Roster!A24</f>
         <v>Grace Pelkowski</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" t="str">
         <f>[1]Roster!C24</f>
         <v>Vanessa Hurliman</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" t="str">
         <f>[1]Roster!E24</f>
         <v>IAM</v>
       </c>
@@ -4161,20 +4299,20 @@
         <v>complete</v>
       </c>
       <c r="E24" t="str">
-        <f>IF([1]Roster!H23=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="str">
+        <f>IF([1]Roster!H24=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
         <f>[1]Roster!A25</f>
         <v>John Dover</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" t="str">
         <f>[1]Roster!C25</f>
         <v>Vanessa Hurliman</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" t="str">
         <f>[1]Roster!E25</f>
         <v>IAM</v>
       </c>
@@ -4183,20 +4321,20 @@
         <v>complete</v>
       </c>
       <c r="E25" t="str">
-        <f>IF([1]Roster!H24=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="str">
+        <f>IF([1]Roster!H25=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
         <f>[1]Roster!A26</f>
         <v>Cathy Prine</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" t="str">
         <f>[1]Roster!C26</f>
         <v>Vanessa Hurliman</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" t="str">
         <f>[1]Roster!E26</f>
         <v>IAM</v>
       </c>
@@ -4205,20 +4343,20 @@
         <v>not-started</v>
       </c>
       <c r="E26" t="str">
-        <f>IF([1]Roster!H25=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="str">
+        <f>IF([1]Roster!H26=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
         <f>[1]Roster!A27</f>
         <v>Chris Ross</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B27" t="str">
         <f>[1]Roster!C27</f>
         <v>Vanessa Hurliman</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" t="str">
         <f>[1]Roster!E27</f>
         <v>IAM</v>
       </c>
@@ -4227,20 +4365,20 @@
         <v>not-started</v>
       </c>
       <c r="E27" t="str">
-        <f>IF([1]Roster!H26=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="str">
+        <f>IF([1]Roster!H27=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
         <f>[1]Roster!A28</f>
         <v>Daniel Duke</v>
       </c>
-      <c r="B28" s="3" t="str">
+      <c r="B28" t="str">
         <f>[1]Roster!C28</f>
         <v>Vanessa Hurliman</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" t="str">
         <f>[1]Roster!E28</f>
         <v>IAM</v>
       </c>
@@ -4249,20 +4387,20 @@
         <v>not-started</v>
       </c>
       <c r="E28" t="str">
-        <f>IF([1]Roster!H27=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="str">
+        <f>IF([1]Roster!H28=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
         <f>[1]Roster!A29</f>
         <v>Ricki Roberson</v>
       </c>
-      <c r="B29" s="3" t="str">
+      <c r="B29" t="str">
         <f>[1]Roster!C29</f>
         <v>Vanessa Hurliman</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" t="str">
         <f>[1]Roster!E29</f>
         <v>IAM</v>
       </c>
@@ -4271,20 +4409,20 @@
         <v>not-started</v>
       </c>
       <c r="E29" t="str">
-        <f>IF([1]Roster!H28=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="str">
+        <f>IF([1]Roster!H29=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
         <f>[1]Roster!A30</f>
         <v>Brent Parker</v>
       </c>
-      <c r="B30" s="3" t="str">
+      <c r="B30" t="str">
         <f>[1]Roster!C30</f>
         <v>Vanessa Hurliman</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" t="str">
         <f>[1]Roster!E30</f>
         <v>IAM</v>
       </c>
@@ -4293,20 +4431,20 @@
         <v>not-started</v>
       </c>
       <c r="E30" t="str">
-        <f>IF([1]Roster!H29=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="str">
+        <f>IF([1]Roster!H30=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
         <f>[1]Roster!A31</f>
         <v>Tamara Quarles</v>
       </c>
-      <c r="B31" s="3" t="str">
+      <c r="B31" t="str">
         <f>[1]Roster!C31</f>
         <v>Michael Mullins</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" t="str">
         <f>[1]Roster!E31</f>
         <v>IAM</v>
       </c>
@@ -4315,20 +4453,20 @@
         <v>not-started</v>
       </c>
       <c r="E31" t="str">
-        <f>IF([1]Roster!H30=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="str">
+        <f>IF([1]Roster!H31=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
         <f>[1]Roster!A32</f>
         <v>Jennifer Forstner</v>
       </c>
-      <c r="B32" s="3" t="str">
+      <c r="B32" t="str">
         <f>[1]Roster!C32</f>
         <v>Michael Mullins</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" t="str">
         <f>[1]Roster!E32</f>
         <v>IAM</v>
       </c>
@@ -4337,20 +4475,20 @@
         <v>complete</v>
       </c>
       <c r="E32" t="str">
-        <f>IF([1]Roster!H31=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="str">
+        <f>IF([1]Roster!H32=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
         <f>[1]Roster!A33</f>
         <v>Jean Barnett</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="B33" t="str">
         <f>[1]Roster!C33</f>
         <v>Michael Mullins</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" t="str">
         <f>[1]Roster!E33</f>
         <v>IAM</v>
       </c>
@@ -4359,20 +4497,20 @@
         <v>not-started</v>
       </c>
       <c r="E33" t="str">
-        <f>IF([1]Roster!H32=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="str">
+        <f>IF([1]Roster!H33=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
         <f>[1]Roster!A34</f>
         <v>Thomas Rossi</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" t="str">
         <f>[1]Roster!C34</f>
         <v>Michael Mullins</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" t="str">
         <f>[1]Roster!E34</f>
         <v>IAM</v>
       </c>
@@ -4381,20 +4519,20 @@
         <v>not-started</v>
       </c>
       <c r="E34" t="str">
-        <f>IF([1]Roster!H33=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="str">
+        <f>IF([1]Roster!H34=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
         <f>[1]Roster!A35</f>
         <v>Steven Wilber</v>
       </c>
-      <c r="B35" s="3" t="str">
+      <c r="B35" t="str">
         <f>[1]Roster!C35</f>
         <v>Michael Mullins</v>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" t="str">
         <f>[1]Roster!E35</f>
         <v>IAM</v>
       </c>
@@ -4403,42 +4541,42 @@
         <v>complete</v>
       </c>
       <c r="E35" t="str">
-        <f>IF([1]Roster!H34=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="str">
+        <f>IF([1]Roster!H35=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
         <f>[1]Roster!A36</f>
         <v>Jason Delk</v>
       </c>
-      <c r="B36" s="3" t="str">
+      <c r="B36" t="str">
         <f>[1]Roster!C36</f>
         <v>Michael Mullins</v>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" t="str">
         <f>[1]Roster!E36</f>
         <v>IAM</v>
       </c>
       <c r="D36" t="str">
         <f>IF([1]Roster!G36=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E36" t="str">
-        <f>IF([1]Roster!H35=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="str">
+        <f>IF([1]Roster!H36=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
         <f>[1]Roster!A37</f>
         <v>Katherine Mcgarrey</v>
       </c>
-      <c r="B37" s="3" t="str">
+      <c r="B37" t="str">
         <f>[1]Roster!C37</f>
         <v>Michael Mullins</v>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" t="str">
         <f>[1]Roster!E37</f>
         <v>IAM</v>
       </c>
@@ -4447,20 +4585,20 @@
         <v>not-started</v>
       </c>
       <c r="E37" t="str">
-        <f>IF([1]Roster!H36=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="str">
+        <f>IF([1]Roster!H37=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
         <f>[1]Roster!A38</f>
         <v>Jim Manning</v>
       </c>
-      <c r="B38" s="3" t="str">
+      <c r="B38" t="str">
         <f>[1]Roster!C38</f>
         <v>Nathan Pichette</v>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" t="str">
         <f>[1]Roster!E38</f>
         <v>IAM</v>
       </c>
@@ -4469,20 +4607,20 @@
         <v>not-started</v>
       </c>
       <c r="E38" t="str">
-        <f>IF([1]Roster!H37=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="str">
+        <f>IF([1]Roster!H38=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
         <f>[1]Roster!A39</f>
         <v>Kimberly Kaloz</v>
       </c>
-      <c r="B39" s="3" t="str">
+      <c r="B39" t="str">
         <f>[1]Roster!C39</f>
         <v>Nathan Pichette</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" t="str">
         <f>[1]Roster!E39</f>
         <v>IAM</v>
       </c>
@@ -4491,20 +4629,20 @@
         <v>not-started</v>
       </c>
       <c r="E39" t="str">
-        <f>IF([1]Roster!H38=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="str">
+        <f>IF([1]Roster!H39=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
         <f>[1]Roster!A40</f>
         <v>Joseph Kewley</v>
       </c>
-      <c r="B40" s="3" t="str">
+      <c r="B40" t="str">
         <f>[1]Roster!C40</f>
         <v>Nathan Pichette</v>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" t="str">
         <f>[1]Roster!E40</f>
         <v>IAM</v>
       </c>
@@ -4513,20 +4651,20 @@
         <v>not-started</v>
       </c>
       <c r="E40" t="str">
-        <f>IF([1]Roster!H39=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="str">
+        <f>IF([1]Roster!H40=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
         <f>[1]Roster!A41</f>
         <v>Anne Zenzer</v>
       </c>
-      <c r="B41" s="3" t="str">
+      <c r="B41" t="str">
         <f>[1]Roster!C41</f>
         <v>Nathan Pichette</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" t="str">
         <f>[1]Roster!E41</f>
         <v>IAM</v>
       </c>
@@ -4535,20 +4673,20 @@
         <v>not-started</v>
       </c>
       <c r="E41" t="str">
-        <f>IF([1]Roster!H40=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="str">
+        <f>IF([1]Roster!H41=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
         <f>[1]Roster!A42</f>
         <v>Michael Neelon</v>
       </c>
-      <c r="B42" s="3" t="str">
+      <c r="B42" t="str">
         <f>[1]Roster!C42</f>
         <v>Nathan Pichette</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" t="str">
         <f>[1]Roster!E42</f>
         <v>IAM</v>
       </c>
@@ -4557,20 +4695,20 @@
         <v>not-started</v>
       </c>
       <c r="E42" t="str">
-        <f>IF([1]Roster!H41=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="str">
+        <f>IF([1]Roster!H42=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
         <f>[1]Roster!A43</f>
         <v>Richard Angeli</v>
       </c>
-      <c r="B43" s="3" t="str">
+      <c r="B43" t="str">
         <f>[1]Roster!C43</f>
         <v>Nathan Pichette</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" t="str">
         <f>[1]Roster!E43</f>
         <v>IAM</v>
       </c>
@@ -4579,20 +4717,20 @@
         <v>not-started</v>
       </c>
       <c r="E43" t="str">
-        <f>IF([1]Roster!H42=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="str">
+        <f>IF([1]Roster!H43=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
         <f>[1]Roster!A44</f>
         <v>Kari Schulsinger</v>
       </c>
-      <c r="B44" s="3" t="str">
+      <c r="B44" t="str">
         <f>[1]Roster!C44</f>
         <v>Nathan Pichette</v>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" t="str">
         <f>[1]Roster!E44</f>
         <v>IAM</v>
       </c>
@@ -4601,20 +4739,20 @@
         <v>not-started</v>
       </c>
       <c r="E44" t="str">
-        <f>IF([1]Roster!H43=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="str">
+        <f>IF([1]Roster!H44=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
         <f>[1]Roster!A45</f>
         <v>Scott Ebersol</v>
       </c>
-      <c r="B45" s="3" t="str">
+      <c r="B45" t="str">
         <f>[1]Roster!C45</f>
         <v>Nathan Pichette</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" t="str">
         <f>[1]Roster!E45</f>
         <v>IAM</v>
       </c>
@@ -4623,20 +4761,20 @@
         <v>not-started</v>
       </c>
       <c r="E45" t="str">
-        <f>IF([1]Roster!H44=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="str">
+        <f>IF([1]Roster!H45=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
         <f>[1]Roster!A46</f>
         <v>Kevin Ross</v>
       </c>
-      <c r="B46" s="3" t="str">
+      <c r="B46" t="str">
         <f>[1]Roster!C46</f>
         <v>Mike Stabbert</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" t="str">
         <f>[1]Roster!E46</f>
         <v>IAM</v>
       </c>
@@ -4645,20 +4783,20 @@
         <v>complete</v>
       </c>
       <c r="E46" t="str">
-        <f>IF([1]Roster!H45=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="str">
+        <f>IF([1]Roster!H46=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
         <f>[1]Roster!A47</f>
         <v>Dana Thomas</v>
       </c>
-      <c r="B47" s="3" t="str">
+      <c r="B47" t="str">
         <f>[1]Roster!C47</f>
         <v>Mike Stabbert</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" t="str">
         <f>[1]Roster!E47</f>
         <v>IAM</v>
       </c>
@@ -4667,20 +4805,20 @@
         <v>not-started</v>
       </c>
       <c r="E47" t="str">
-        <f>IF([1]Roster!H46=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="str">
+        <f>IF([1]Roster!H47=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
         <f>[1]Roster!A48</f>
         <v>Ryan Roa</v>
       </c>
-      <c r="B48" s="3" t="str">
+      <c r="B48" t="str">
         <f>[1]Roster!C48</f>
         <v>Mike Stabbert</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" t="str">
         <f>[1]Roster!E48</f>
         <v>IAM</v>
       </c>
@@ -4689,20 +4827,20 @@
         <v>not-started</v>
       </c>
       <c r="E48" t="str">
-        <f>IF([1]Roster!H47=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="str">
+        <f>IF([1]Roster!H48=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
         <f>[1]Roster!A49</f>
         <v>Michael J Larivee</v>
       </c>
-      <c r="B49" s="3" t="str">
+      <c r="B49" t="str">
         <f>[1]Roster!C49</f>
         <v>Mike Stabbert</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" t="str">
         <f>[1]Roster!E49</f>
         <v>IAM</v>
       </c>
@@ -4711,20 +4849,20 @@
         <v>not-started</v>
       </c>
       <c r="E49" t="str">
-        <f>IF([1]Roster!H48=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="str">
+        <f>IF([1]Roster!H49=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
         <f>[1]Roster!A50</f>
         <v>Derek Hersha</v>
       </c>
-      <c r="B50" s="3" t="str">
+      <c r="B50" t="str">
         <f>[1]Roster!C50</f>
         <v>Mike Stabbert</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" t="str">
         <f>[1]Roster!E50</f>
         <v>IAM</v>
       </c>
@@ -4733,20 +4871,20 @@
         <v>not-started</v>
       </c>
       <c r="E50" t="str">
-        <f>IF([1]Roster!H49=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="str">
+        <f>IF([1]Roster!H50=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
         <f>[1]Roster!A51</f>
         <v>Natalie Lindley</v>
       </c>
-      <c r="B51" s="3" t="str">
+      <c r="B51" t="str">
         <f>[1]Roster!C51</f>
         <v>Mike Stabbert</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" t="str">
         <f>[1]Roster!E51</f>
         <v>IAM</v>
       </c>
@@ -4755,20 +4893,20 @@
         <v>complete</v>
       </c>
       <c r="E51" t="str">
-        <f>IF([1]Roster!H50=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="str">
+        <f>IF([1]Roster!H51=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
         <f>[1]Roster!A52</f>
         <v>Michael Martinez</v>
       </c>
-      <c r="B52" s="3" t="str">
+      <c r="B52" t="str">
         <f>[1]Roster!C52</f>
         <v>Mike Stabbert</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" t="str">
         <f>[1]Roster!E52</f>
         <v>IAM</v>
       </c>
@@ -4777,20 +4915,20 @@
         <v>complete</v>
       </c>
       <c r="E52" t="str">
-        <f>IF([1]Roster!H51=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="str">
+        <f>IF([1]Roster!H52=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
         <f>[1]Roster!A53</f>
         <v>Robert Avis</v>
       </c>
-      <c r="B53" s="3" t="str">
+      <c r="B53" t="str">
         <f>[1]Roster!C53</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" t="str">
         <f>[1]Roster!E53</f>
         <v>IAM</v>
       </c>
@@ -4799,20 +4937,20 @@
         <v>not-started</v>
       </c>
       <c r="E53" t="str">
-        <f>IF([1]Roster!H52=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="str">
+        <f>IF([1]Roster!H53=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
         <f>[1]Roster!A54</f>
         <v>Gina Esposito</v>
       </c>
-      <c r="B54" s="3" t="str">
+      <c r="B54" t="str">
         <f>[1]Roster!C54</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" t="str">
         <f>[1]Roster!E54</f>
         <v>IAM</v>
       </c>
@@ -4821,20 +4959,20 @@
         <v>not-started</v>
       </c>
       <c r="E54" t="str">
-        <f>IF([1]Roster!H53=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="str">
+        <f>IF([1]Roster!H54=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
         <f>[1]Roster!A55</f>
         <v>Stefanie Schmitz</v>
       </c>
-      <c r="B55" s="3" t="str">
+      <c r="B55" t="str">
         <f>[1]Roster!C55</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" t="str">
         <f>[1]Roster!E55</f>
         <v>IAM</v>
       </c>
@@ -4843,20 +4981,20 @@
         <v>complete</v>
       </c>
       <c r="E55" t="str">
-        <f>IF([1]Roster!H54=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="str">
+        <f>IF([1]Roster!H55=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
         <f>[1]Roster!A56</f>
         <v>Geffrey Bergh</v>
       </c>
-      <c r="B56" s="3" t="str">
+      <c r="B56" t="str">
         <f>[1]Roster!C56</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" t="str">
         <f>[1]Roster!E56</f>
         <v>IAM</v>
       </c>
@@ -4865,20 +5003,20 @@
         <v>not-started</v>
       </c>
       <c r="E56" t="str">
-        <f>IF([1]Roster!H55=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="str">
+        <f>IF([1]Roster!H56=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
         <f>[1]Roster!A57</f>
         <v>Joe Reed</v>
       </c>
-      <c r="B57" s="3" t="str">
+      <c r="B57" t="str">
         <f>[1]Roster!C57</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" t="str">
         <f>[1]Roster!E57</f>
         <v>IAM</v>
       </c>
@@ -4887,20 +5025,20 @@
         <v>not-started</v>
       </c>
       <c r="E57" t="str">
-        <f>IF([1]Roster!H56=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="str">
+        <f>IF([1]Roster!H57=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
         <f>[1]Roster!A58</f>
         <v>Jennifer Smith</v>
       </c>
-      <c r="B58" s="3" t="str">
+      <c r="B58" t="str">
         <f>[1]Roster!C58</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" t="str">
         <f>[1]Roster!E58</f>
         <v>IAM</v>
       </c>
@@ -4909,20 +5047,20 @@
         <v>complete</v>
       </c>
       <c r="E58" t="str">
-        <f>IF([1]Roster!H57=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="str">
+        <f>IF([1]Roster!H58=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
         <f>[1]Roster!A59</f>
         <v>Robert Cantu</v>
       </c>
-      <c r="B59" s="3" t="str">
+      <c r="B59" t="str">
         <f>[1]Roster!C59</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" t="str">
         <f>[1]Roster!E59</f>
         <v>IAM</v>
       </c>
@@ -4931,20 +5069,20 @@
         <v>complete</v>
       </c>
       <c r="E59" t="str">
-        <f>IF([1]Roster!H58=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="str">
+        <f>IF([1]Roster!H59=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
         <f>[1]Roster!A60</f>
         <v>Melanie Gobourne</v>
       </c>
-      <c r="B60" s="3" t="str">
+      <c r="B60" t="str">
         <f>[1]Roster!C60</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" t="str">
         <f>[1]Roster!E60</f>
         <v>IAM</v>
       </c>
@@ -4953,20 +5091,20 @@
         <v>not-started</v>
       </c>
       <c r="E60" t="str">
-        <f>IF([1]Roster!H59=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="str">
+        <f>IF([1]Roster!H60=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
         <f>[1]Roster!A61</f>
         <v>Andrew Metzinger</v>
       </c>
-      <c r="B61" s="3" t="str">
+      <c r="B61" t="str">
         <f>[1]Roster!C61</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" t="str">
         <f>[1]Roster!E61</f>
         <v>IAM</v>
       </c>
@@ -4975,20 +5113,20 @@
         <v>not-started</v>
       </c>
       <c r="E61" t="str">
-        <f>IF([1]Roster!H60=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="str">
+        <f>IF([1]Roster!H61=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
         <f>[1]Roster!A62</f>
         <v>Brianj Frisone</v>
       </c>
-      <c r="B62" s="3" t="str">
+      <c r="B62" t="str">
         <f>[1]Roster!C62</f>
         <v>Warren Tayes</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" t="str">
         <f>[1]Roster!E62</f>
         <v>IAM</v>
       </c>
@@ -4997,20 +5135,20 @@
         <v>complete</v>
       </c>
       <c r="E62" t="str">
-        <f>IF([1]Roster!H61=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="str">
+        <f>IF([1]Roster!H62=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
         <f>[1]Roster!A63</f>
         <v>David Rose</v>
       </c>
-      <c r="B63" s="3" t="str">
+      <c r="B63" t="str">
         <f>[1]Roster!C63</f>
         <v>Javier Storani</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" t="str">
         <f>[1]Roster!E63</f>
         <v>IAM</v>
       </c>
@@ -5019,20 +5157,20 @@
         <v>not-started</v>
       </c>
       <c r="E63" t="str">
-        <f>IF([1]Roster!H62=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="str">
+        <f>IF([1]Roster!H63=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
         <f>[1]Roster!A64</f>
         <v>John Comonitski</v>
       </c>
-      <c r="B64" s="3" t="str">
+      <c r="B64" t="str">
         <f>[1]Roster!C64</f>
         <v>Javier Storani</v>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" t="str">
         <f>[1]Roster!E64</f>
         <v>IAM</v>
       </c>
@@ -5041,42 +5179,42 @@
         <v>not-started</v>
       </c>
       <c r="E64" t="str">
-        <f>IF([1]Roster!H63=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="str">
+        <f>IF([1]Roster!H64=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
         <f>[1]Roster!A65</f>
         <v>Alicia Margoles</v>
       </c>
-      <c r="B65" s="3" t="str">
+      <c r="B65" t="str">
         <f>[1]Roster!C65</f>
         <v>Javier Storani</v>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" t="str">
         <f>[1]Roster!E65</f>
         <v>IAM</v>
       </c>
       <c r="D65" t="str">
         <f>IF([1]Roster!G65=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E65" t="str">
-        <f>IF([1]Roster!H64=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="str">
+        <f>IF([1]Roster!H65=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
         <f>[1]Roster!A66</f>
         <v>John Durand</v>
       </c>
-      <c r="B66" s="3" t="str">
+      <c r="B66" t="str">
         <f>[1]Roster!C66</f>
         <v>Javier Storani</v>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" t="str">
         <f>[1]Roster!E66</f>
         <v>IAM</v>
       </c>
@@ -5085,20 +5223,20 @@
         <v>not-started</v>
       </c>
       <c r="E66" t="str">
-        <f>IF([1]Roster!H65=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="str">
+        <f>IF([1]Roster!H66=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
         <f>[1]Roster!A67</f>
         <v>Taylor Martin</v>
       </c>
-      <c r="B67" s="3" t="str">
+      <c r="B67" t="str">
         <f>[1]Roster!C67</f>
         <v>Javier Storani</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" t="str">
         <f>[1]Roster!E67</f>
         <v>IAM</v>
       </c>
@@ -5107,20 +5245,20 @@
         <v>not-started</v>
       </c>
       <c r="E67" t="str">
-        <f>IF([1]Roster!H66=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="str">
+        <f>IF([1]Roster!H67=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
         <f>[1]Roster!A68</f>
         <v>Paul Carpenter</v>
       </c>
-      <c r="B68" s="3" t="str">
+      <c r="B68" t="str">
         <f>[1]Roster!C68</f>
         <v>Javier Storani</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" t="str">
         <f>[1]Roster!E68</f>
         <v>IAM</v>
       </c>
@@ -5129,20 +5267,20 @@
         <v>not-started</v>
       </c>
       <c r="E68" t="str">
-        <f>IF([1]Roster!H67=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="str">
+        <f>IF([1]Roster!H68=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
         <f>[1]Roster!A69</f>
         <v>G Wigginton</v>
       </c>
-      <c r="B69" s="3" t="str">
+      <c r="B69" t="str">
         <f>[1]Roster!C69</f>
         <v>Javier Storani</v>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" t="str">
         <f>[1]Roster!E69</f>
         <v>IAM</v>
       </c>
@@ -5151,20 +5289,20 @@
         <v>not-started</v>
       </c>
       <c r="E69" t="str">
-        <f>IF([1]Roster!H68=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="str">
+        <f>IF([1]Roster!H69=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
         <f>[1]Roster!A70</f>
         <v>Todd Herman</v>
       </c>
-      <c r="B70" s="3" t="str">
+      <c r="B70" t="str">
         <f>[1]Roster!C70</f>
         <v>Tim Fratus</v>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" t="str">
         <f>[1]Roster!E70</f>
         <v>IAM</v>
       </c>
@@ -5173,20 +5311,20 @@
         <v>complete</v>
       </c>
       <c r="E70" t="str">
-        <f>IF([1]Roster!H69=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="str">
+        <f>IF([1]Roster!H70=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
         <f>[1]Roster!A71</f>
         <v>Heather Page</v>
       </c>
-      <c r="B71" s="3" t="str">
+      <c r="B71" t="str">
         <f>[1]Roster!C71</f>
         <v>Tim Fratus</v>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" t="str">
         <f>[1]Roster!E71</f>
         <v>IAM</v>
       </c>
@@ -5195,20 +5333,20 @@
         <v>complete</v>
       </c>
       <c r="E71" t="str">
-        <f>IF([1]Roster!H70=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="str">
+        <f>IF([1]Roster!H71=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
         <f>[1]Roster!A72</f>
         <v>Kristin Edwards</v>
       </c>
-      <c r="B72" s="3" t="str">
+      <c r="B72" t="str">
         <f>[1]Roster!C72</f>
         <v>Tim Fratus</v>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" t="str">
         <f>[1]Roster!E72</f>
         <v>IAM</v>
       </c>
@@ -5217,20 +5355,20 @@
         <v>not-started</v>
       </c>
       <c r="E72" t="str">
-        <f>IF([1]Roster!H71=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="str">
+        <f>IF([1]Roster!H72=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
         <f>[1]Roster!A73</f>
         <v>Stan Merriken</v>
       </c>
-      <c r="B73" s="3" t="str">
+      <c r="B73" t="str">
         <f>[1]Roster!C73</f>
         <v>Tim Fratus</v>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" t="str">
         <f>[1]Roster!E73</f>
         <v>IAM</v>
       </c>
@@ -5239,20 +5377,20 @@
         <v>not-started</v>
       </c>
       <c r="E73" t="str">
-        <f>IF([1]Roster!H72=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="str">
+        <f>IF([1]Roster!H73=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
         <f>[1]Roster!A74</f>
         <v>Nannette Alton-Labus</v>
       </c>
-      <c r="B74" s="3" t="str">
+      <c r="B74" t="str">
         <f>[1]Roster!C74</f>
         <v>Tim Fratus</v>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" t="str">
         <f>[1]Roster!E74</f>
         <v>IAM</v>
       </c>
@@ -5261,20 +5399,20 @@
         <v>complete</v>
       </c>
       <c r="E74" t="str">
-        <f>IF([1]Roster!H73=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="str">
+        <f>IF([1]Roster!H74=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
         <f>[1]Roster!A75</f>
         <v>Grove Bolger</v>
       </c>
-      <c r="B75" s="3" t="str">
+      <c r="B75" t="str">
         <f>[1]Roster!C75</f>
         <v>Tim Fratus</v>
       </c>
-      <c r="C75" s="3" t="str">
+      <c r="C75" t="str">
         <f>[1]Roster!E75</f>
         <v>IAM</v>
       </c>
@@ -5283,20 +5421,20 @@
         <v>not-started</v>
       </c>
       <c r="E75" t="str">
-        <f>IF([1]Roster!H74=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="str">
+        <f>IF([1]Roster!H75=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
         <f>[1]Roster!A76</f>
         <v>Edward Sot</v>
       </c>
-      <c r="B76" s="3" t="str">
+      <c r="B76" t="str">
         <f>[1]Roster!C76</f>
         <v>Tim Fratus</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" t="str">
         <f>[1]Roster!E76</f>
         <v>IAM</v>
       </c>
@@ -5305,20 +5443,20 @@
         <v>not-started</v>
       </c>
       <c r="E76" t="str">
-        <f>IF([1]Roster!H75=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="str">
+        <f>IF([1]Roster!H76=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
         <f>[1]Roster!A77</f>
         <v>Daniel Coleman</v>
       </c>
-      <c r="B77" s="3" t="str">
+      <c r="B77" t="str">
         <f>[1]Roster!C77</f>
         <v>Tim Fratus</v>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" t="str">
         <f>[1]Roster!E77</f>
         <v>IAM</v>
       </c>
@@ -5327,20 +5465,20 @@
         <v>not-started</v>
       </c>
       <c r="E77" t="str">
-        <f>IF([1]Roster!H76=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="str">
+        <f>IF([1]Roster!H77=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
         <f>[1]Roster!A78</f>
         <v>Corinne Piazza</v>
       </c>
-      <c r="B78" s="3" t="str">
+      <c r="B78" t="str">
         <f>[1]Roster!C78</f>
         <v>Brian Rose</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" t="str">
         <f>[1]Roster!E78</f>
         <v>IAM</v>
       </c>
@@ -5349,20 +5487,20 @@
         <v>not-started</v>
       </c>
       <c r="E78" t="str">
-        <f>IF([1]Roster!H77=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="str">
+        <f>IF([1]Roster!H78=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
         <f>[1]Roster!A79</f>
         <v>Glenn Belemjian</v>
       </c>
-      <c r="B79" s="3" t="str">
+      <c r="B79" t="str">
         <f>[1]Roster!C79</f>
         <v>Brian Rose</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" t="str">
         <f>[1]Roster!E79</f>
         <v>IAM</v>
       </c>
@@ -5371,20 +5509,20 @@
         <v>complete</v>
       </c>
       <c r="E79" t="str">
-        <f>IF([1]Roster!H78=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="str">
+        <f>IF([1]Roster!H79=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
         <f>[1]Roster!A80</f>
         <v>Anoop Mansukhani</v>
       </c>
-      <c r="B80" s="3" t="str">
+      <c r="B80" t="str">
         <f>[1]Roster!C80</f>
         <v>Brian Rose</v>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" t="str">
         <f>[1]Roster!E80</f>
         <v>IAM</v>
       </c>
@@ -5393,20 +5531,20 @@
         <v>complete</v>
       </c>
       <c r="E80" t="str">
-        <f>IF([1]Roster!H79=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="str">
+        <f>IF([1]Roster!H80=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
         <f>[1]Roster!A81</f>
         <v>Jonathan Ijaz</v>
       </c>
-      <c r="B81" s="3" t="str">
+      <c r="B81" t="str">
         <f>[1]Roster!C81</f>
         <v>Brian Rose</v>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" t="str">
         <f>[1]Roster!E81</f>
         <v>IAM</v>
       </c>
@@ -5415,20 +5553,20 @@
         <v>not-started</v>
       </c>
       <c r="E81" t="str">
-        <f>IF([1]Roster!H80=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="str">
+        <f>IF([1]Roster!H81=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
         <f>[1]Roster!A82</f>
         <v>Kathryn Mckeon</v>
       </c>
-      <c r="B82" s="3" t="str">
+      <c r="B82" t="str">
         <f>[1]Roster!C82</f>
         <v>Brian Rose</v>
       </c>
-      <c r="C82" s="3" t="str">
+      <c r="C82" t="str">
         <f>[1]Roster!E82</f>
         <v>IAM</v>
       </c>
@@ -5437,20 +5575,20 @@
         <v>not-started</v>
       </c>
       <c r="E82" t="str">
-        <f>IF([1]Roster!H81=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="str">
+        <f>IF([1]Roster!H82=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
         <f>[1]Roster!A83</f>
         <v>Keith Ingstad</v>
       </c>
-      <c r="B83" s="3" t="str">
+      <c r="B83" t="str">
         <f>[1]Roster!C83</f>
         <v>Brian Rose</v>
       </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" t="str">
         <f>[1]Roster!E83</f>
         <v>IAM</v>
       </c>
@@ -5459,20 +5597,20 @@
         <v>complete</v>
       </c>
       <c r="E83" t="str">
-        <f>IF([1]Roster!H82=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="str">
+        <f>IF([1]Roster!H83=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
         <f>[1]Roster!A84</f>
         <v>Joette Munoz</v>
       </c>
-      <c r="B84" s="3" t="str">
+      <c r="B84" t="str">
         <f>[1]Roster!C84</f>
         <v>Erica Davidovic</v>
       </c>
-      <c r="C84" s="3" t="str">
+      <c r="C84" t="str">
         <f>[1]Roster!E84</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5481,20 +5619,20 @@
         <v>not-started</v>
       </c>
       <c r="E84" t="str">
-        <f>IF([1]Roster!H83=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="str">
+        <f>IF([1]Roster!H84=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
         <f>[1]Roster!A85</f>
         <v>Fran Roberts</v>
       </c>
-      <c r="B85" s="3" t="str">
+      <c r="B85" t="str">
         <f>[1]Roster!C85</f>
         <v>Erica Davidovic</v>
       </c>
-      <c r="C85" s="3" t="str">
+      <c r="C85" t="str">
         <f>[1]Roster!E85</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5503,20 +5641,20 @@
         <v>not-started</v>
       </c>
       <c r="E85" t="str">
-        <f>IF([1]Roster!H84=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="str">
+        <f>IF([1]Roster!H85=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
         <f>[1]Roster!A86</f>
         <v>Douglas Gelatti</v>
       </c>
-      <c r="B86" s="3" t="str">
+      <c r="B86" t="str">
         <f>[1]Roster!C86</f>
         <v>Erica Davidovic</v>
       </c>
-      <c r="C86" s="3" t="str">
+      <c r="C86" t="str">
         <f>[1]Roster!E86</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5525,20 +5663,20 @@
         <v>complete</v>
       </c>
       <c r="E86" t="str">
-        <f>IF([1]Roster!H85=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="str">
+        <f>IF([1]Roster!H86=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
         <f>[1]Roster!A87</f>
         <v>Carrie Britton</v>
       </c>
-      <c r="B87" s="3" t="str">
+      <c r="B87" t="str">
         <f>[1]Roster!C87</f>
         <v>Erica Davidovic</v>
       </c>
-      <c r="C87" s="3" t="str">
+      <c r="C87" t="str">
         <f>[1]Roster!E87</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5547,20 +5685,20 @@
         <v>complete</v>
       </c>
       <c r="E87" t="str">
-        <f>IF([1]Roster!H86=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="str">
+        <f>IF([1]Roster!H87=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
         <f>[1]Roster!A88</f>
         <v>Louis Carbajal</v>
       </c>
-      <c r="B88" s="3" t="str">
+      <c r="B88" t="str">
         <f>[1]Roster!C88</f>
         <v>Erica Davidovic</v>
       </c>
-      <c r="C88" s="3" t="str">
+      <c r="C88" t="str">
         <f>[1]Roster!E88</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5569,42 +5707,42 @@
         <v>not-started</v>
       </c>
       <c r="E88" t="str">
-        <f>IF([1]Roster!H87=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="str">
+        <f>IF([1]Roster!H88=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
         <f>[1]Roster!A89</f>
         <v>Tara Barton</v>
       </c>
-      <c r="B89" s="3" t="str">
+      <c r="B89" t="str">
         <f>[1]Roster!C89</f>
         <v>Erica Davidovic</v>
       </c>
-      <c r="C89" s="3" t="str">
+      <c r="C89" t="str">
         <f>[1]Roster!E89</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D89" t="str">
         <f>IF([1]Roster!G89=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E89" t="str">
-        <f>IF([1]Roster!H88=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="str">
+        <f>IF([1]Roster!H89=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
         <f>[1]Roster!A90</f>
         <v>Jay Shen</v>
       </c>
-      <c r="B90" s="3" t="str">
+      <c r="B90" t="str">
         <f>[1]Roster!C90</f>
         <v>Erica Davidovic</v>
       </c>
-      <c r="C90" s="3" t="str">
+      <c r="C90" t="str">
         <f>[1]Roster!E90</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5613,20 +5751,20 @@
         <v>not-started</v>
       </c>
       <c r="E90" t="str">
-        <f>IF([1]Roster!H89=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="str">
+        <f>IF([1]Roster!H90=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
         <f>[1]Roster!A91</f>
         <v>Andrea Stricklin</v>
       </c>
-      <c r="B91" s="3" t="str">
+      <c r="B91" t="str">
         <f>[1]Roster!C91</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C91" s="3" t="str">
+      <c r="C91" t="str">
         <f>[1]Roster!E91</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5635,42 +5773,42 @@
         <v>not-started</v>
       </c>
       <c r="E91" t="str">
-        <f>IF([1]Roster!H90=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="str">
+        <f>IF([1]Roster!H91=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
         <f>[1]Roster!A92</f>
         <v>Wayne Musum</v>
       </c>
-      <c r="B92" s="3" t="str">
+      <c r="B92" t="str">
         <f>[1]Roster!C92</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C92" s="3" t="str">
+      <c r="C92" t="str">
         <f>[1]Roster!E92</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D92" t="str">
         <f>IF([1]Roster!G92=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E92" t="str">
-        <f>IF([1]Roster!H91=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="str">
+        <f>IF([1]Roster!H92=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
         <f>[1]Roster!A93</f>
         <v>Pooja Atwal</v>
       </c>
-      <c r="B93" s="3" t="str">
+      <c r="B93" t="str">
         <f>[1]Roster!C93</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C93" s="3" t="str">
+      <c r="C93" t="str">
         <f>[1]Roster!E93</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5679,20 +5817,20 @@
         <v>not-started</v>
       </c>
       <c r="E93" t="str">
-        <f>IF([1]Roster!H92=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="str">
+        <f>IF([1]Roster!H93=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
         <f>[1]Roster!A94</f>
         <v>Veronica Restrepo Vasquez</v>
       </c>
-      <c r="B94" s="3" t="str">
+      <c r="B94" t="str">
         <f>[1]Roster!C94</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C94" s="3" t="str">
+      <c r="C94" t="str">
         <f>[1]Roster!E94</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5701,20 +5839,20 @@
         <v>not-started</v>
       </c>
       <c r="E94" t="str">
-        <f>IF([1]Roster!H93=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="str">
+        <f>IF([1]Roster!H94=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
         <f>[1]Roster!A95</f>
         <v>Amy Young</v>
       </c>
-      <c r="B95" s="3" t="str">
+      <c r="B95" t="str">
         <f>[1]Roster!C95</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C95" s="3" t="str">
+      <c r="C95" t="str">
         <f>[1]Roster!E95</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5723,20 +5861,20 @@
         <v>complete</v>
       </c>
       <c r="E95" t="str">
-        <f>IF([1]Roster!H94=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="str">
+        <f>IF([1]Roster!H95=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
         <f>[1]Roster!A96</f>
         <v>Hala Smith</v>
       </c>
-      <c r="B96" s="3" t="str">
+      <c r="B96" t="str">
         <f>[1]Roster!C96</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" t="str">
         <f>[1]Roster!E96</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5745,20 +5883,20 @@
         <v>not-started</v>
       </c>
       <c r="E96" t="str">
-        <f>IF([1]Roster!H95=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="str">
+        <f>IF([1]Roster!H96=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
         <f>[1]Roster!A97</f>
         <v>Waynalyn Deshields</v>
       </c>
-      <c r="B97" s="3" t="str">
+      <c r="B97" t="str">
         <f>[1]Roster!C97</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" t="str">
         <f>[1]Roster!E97</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5767,42 +5905,42 @@
         <v>not-started</v>
       </c>
       <c r="E97" t="str">
-        <f>IF([1]Roster!H96=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="str">
+        <f>IF([1]Roster!H97=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
         <f>[1]Roster!A98</f>
         <v>Suan Swenson</v>
       </c>
-      <c r="B98" s="3" t="str">
+      <c r="B98" t="str">
         <f>[1]Roster!C98</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C98" s="3" t="str">
+      <c r="C98" t="str">
         <f>[1]Roster!E98</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D98" t="str">
         <f>IF([1]Roster!G98=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E98" t="str">
-        <f>IF([1]Roster!H97=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="str">
+        <f>IF([1]Roster!H98=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
         <f>[1]Roster!A99</f>
         <v>Kelly Holland</v>
       </c>
-      <c r="B99" s="3" t="str">
+      <c r="B99" t="str">
         <f>[1]Roster!C99</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" t="str">
         <f>[1]Roster!E99</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5811,20 +5949,20 @@
         <v>not-started</v>
       </c>
       <c r="E99" t="str">
-        <f>IF([1]Roster!H98=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="str">
+        <f>IF([1]Roster!H99=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
         <f>[1]Roster!A100</f>
         <v>Cathy Russell</v>
       </c>
-      <c r="B100" s="3" t="str">
+      <c r="B100" t="str">
         <f>[1]Roster!C100</f>
         <v>Jeffrey Duffill</v>
       </c>
-      <c r="C100" s="3" t="str">
+      <c r="C100" t="str">
         <f>[1]Roster!E100</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5833,20 +5971,20 @@
         <v>not-started</v>
       </c>
       <c r="E100" t="str">
-        <f>IF([1]Roster!H99=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="str">
+        <f>IF([1]Roster!H100=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
         <f>[1]Roster!A101</f>
         <v>Molly Ortolani</v>
       </c>
-      <c r="B101" s="3" t="str">
+      <c r="B101" t="str">
         <f>[1]Roster!C101</f>
         <v>Kate Fennell</v>
       </c>
-      <c r="C101" s="3" t="str">
+      <c r="C101" t="str">
         <f>[1]Roster!E101</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5855,20 +5993,20 @@
         <v>not-started</v>
       </c>
       <c r="E101" t="str">
-        <f>IF([1]Roster!H100=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="str">
+        <f>IF([1]Roster!H101=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
         <f>[1]Roster!A102</f>
         <v>Robert Zullo</v>
       </c>
-      <c r="B102" s="3" t="str">
+      <c r="B102" t="str">
         <f>[1]Roster!C102</f>
         <v>Kate Fennell</v>
       </c>
-      <c r="C102" s="3" t="str">
+      <c r="C102" t="str">
         <f>[1]Roster!E102</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5877,20 +6015,20 @@
         <v>not-started</v>
       </c>
       <c r="E102" t="str">
-        <f>IF([1]Roster!H101=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="str">
+        <f>IF([1]Roster!H102=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
         <f>[1]Roster!A103</f>
         <v>Darlene Juliano</v>
       </c>
-      <c r="B103" s="3" t="str">
+      <c r="B103" t="str">
         <f>[1]Roster!C103</f>
         <v>Kate Fennell</v>
       </c>
-      <c r="C103" s="3" t="str">
+      <c r="C103" t="str">
         <f>[1]Roster!E103</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5899,20 +6037,20 @@
         <v>complete</v>
       </c>
       <c r="E103" t="str">
-        <f>IF([1]Roster!H102=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="str">
+        <f>IF([1]Roster!H103=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
         <f>[1]Roster!A104</f>
         <v>Andrew Neno</v>
       </c>
-      <c r="B104" s="3" t="str">
+      <c r="B104" t="str">
         <f>[1]Roster!C104</f>
         <v>Kate Fennell</v>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C104" t="str">
         <f>[1]Roster!E104</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5921,20 +6059,20 @@
         <v>not-started</v>
       </c>
       <c r="E104" t="str">
-        <f>IF([1]Roster!H103=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="str">
+        <f>IF([1]Roster!H104=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
         <f>[1]Roster!A105</f>
         <v>Alice Lydon</v>
       </c>
-      <c r="B105" s="3" t="str">
+      <c r="B105" t="str">
         <f>[1]Roster!C105</f>
         <v>Kate Fennell</v>
       </c>
-      <c r="C105" s="3" t="str">
+      <c r="C105" t="str">
         <f>[1]Roster!E105</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5943,20 +6081,20 @@
         <v>complete</v>
       </c>
       <c r="E105" t="str">
-        <f>IF([1]Roster!H104=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="str">
+        <f>IF([1]Roster!H105=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
         <f>[1]Roster!A106</f>
         <v>Gaetano Calafati Jr</v>
       </c>
-      <c r="B106" s="3" t="str">
+      <c r="B106" t="str">
         <f>[1]Roster!C106</f>
         <v>Kate Fennell</v>
       </c>
-      <c r="C106" s="3" t="str">
+      <c r="C106" t="str">
         <f>[1]Roster!E106</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5965,20 +6103,20 @@
         <v>complete</v>
       </c>
       <c r="E106" t="str">
-        <f>IF([1]Roster!H105=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="str">
+        <f>IF([1]Roster!H106=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
         <f>[1]Roster!A107</f>
         <v>Sue Rose</v>
       </c>
-      <c r="B107" s="3" t="str">
+      <c r="B107" t="str">
         <f>[1]Roster!C107</f>
         <v>Kate Fennell</v>
       </c>
-      <c r="C107" s="3" t="str">
+      <c r="C107" t="str">
         <f>[1]Roster!E107</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -5987,20 +6125,20 @@
         <v>not-started</v>
       </c>
       <c r="E107" t="str">
-        <f>IF([1]Roster!H106=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="str">
+        <f>IF([1]Roster!H107=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
         <f>[1]Roster!A108</f>
         <v>Laura Ruiz-Martinez</v>
       </c>
-      <c r="B108" s="3" t="str">
+      <c r="B108" t="str">
         <f>[1]Roster!C108</f>
         <v>Michael Gavlak</v>
       </c>
-      <c r="C108" s="3" t="str">
+      <c r="C108" t="str">
         <f>[1]Roster!E108</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6009,20 +6147,20 @@
         <v>complete</v>
       </c>
       <c r="E108" t="str">
-        <f>IF([1]Roster!H107=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="str">
+        <f>IF([1]Roster!H108=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
         <f>[1]Roster!A109</f>
         <v>Leslie Brunette</v>
       </c>
-      <c r="B109" s="3" t="str">
+      <c r="B109" t="str">
         <f>[1]Roster!C109</f>
         <v>Michael Gavlak</v>
       </c>
-      <c r="C109" s="3" t="str">
+      <c r="C109" t="str">
         <f>[1]Roster!E109</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6031,20 +6169,20 @@
         <v>not-started</v>
       </c>
       <c r="E109" t="str">
-        <f>IF([1]Roster!H108=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="str">
+        <f>IF([1]Roster!H109=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
         <f>[1]Roster!A110</f>
         <v>Chris Golden</v>
       </c>
-      <c r="B110" s="3" t="str">
+      <c r="B110" t="str">
         <f>[1]Roster!C110</f>
         <v>Michael Gavlak</v>
       </c>
-      <c r="C110" s="3" t="str">
+      <c r="C110" t="str">
         <f>[1]Roster!E110</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6053,20 +6191,20 @@
         <v>not-started</v>
       </c>
       <c r="E110" t="str">
-        <f>IF([1]Roster!H109=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="str">
+        <f>IF([1]Roster!H110=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
         <f>[1]Roster!A111</f>
         <v>Michelle Moylanelder</v>
       </c>
-      <c r="B111" s="3" t="str">
+      <c r="B111" t="str">
         <f>[1]Roster!C111</f>
         <v>Michael Gavlak</v>
       </c>
-      <c r="C111" s="3" t="str">
+      <c r="C111" t="str">
         <f>[1]Roster!E111</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6075,20 +6213,20 @@
         <v>not-started</v>
       </c>
       <c r="E111" t="str">
-        <f>IF([1]Roster!H110=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="str">
+        <f>IF([1]Roster!H111=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
         <f>[1]Roster!A112</f>
         <v>Lynn Mckinley</v>
       </c>
-      <c r="B112" s="3" t="str">
+      <c r="B112" t="str">
         <f>[1]Roster!C112</f>
         <v>Michael Gavlak</v>
       </c>
-      <c r="C112" s="3" t="str">
+      <c r="C112" t="str">
         <f>[1]Roster!E112</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6097,20 +6235,20 @@
         <v>complete</v>
       </c>
       <c r="E112" t="str">
-        <f>IF([1]Roster!H111=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="str">
+        <f>IF([1]Roster!H112=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
         <f>[1]Roster!A113</f>
         <v>Sarah Sawyer</v>
       </c>
-      <c r="B113" s="3" t="str">
+      <c r="B113" t="str">
         <f>[1]Roster!C113</f>
         <v>Michael Gavlak</v>
       </c>
-      <c r="C113" s="3" t="str">
+      <c r="C113" t="str">
         <f>[1]Roster!E113</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6119,20 +6257,20 @@
         <v>not-started</v>
       </c>
       <c r="E113" t="str">
-        <f>IF([1]Roster!H112=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="str">
+        <f>IF([1]Roster!H113=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
         <f>[1]Roster!A114</f>
         <v>Kenneth Simon</v>
       </c>
-      <c r="B114" s="3" t="str">
+      <c r="B114" t="str">
         <f>[1]Roster!C114</f>
         <v>Brian Hawkins</v>
       </c>
-      <c r="C114" s="3" t="str">
+      <c r="C114" t="str">
         <f>[1]Roster!E114</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6141,20 +6279,20 @@
         <v>not-started</v>
       </c>
       <c r="E114" t="str">
-        <f>IF([1]Roster!H113=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="str">
+        <f>IF([1]Roster!H114=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
         <f>[1]Roster!A115</f>
         <v>Patrick Neither</v>
       </c>
-      <c r="B115" s="3" t="str">
+      <c r="B115" t="str">
         <f>[1]Roster!C115</f>
         <v>Brian Hawkins</v>
       </c>
-      <c r="C115" s="3" t="str">
+      <c r="C115" t="str">
         <f>[1]Roster!E115</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6163,20 +6301,20 @@
         <v>not-started</v>
       </c>
       <c r="E115" t="str">
-        <f>IF([1]Roster!H114=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="str">
+        <f>IF([1]Roster!H115=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
         <f>[1]Roster!A116</f>
         <v>Dino Villa</v>
       </c>
-      <c r="B116" s="3" t="str">
+      <c r="B116" t="str">
         <f>[1]Roster!C116</f>
         <v>Brian Hawkins</v>
       </c>
-      <c r="C116" s="3" t="str">
+      <c r="C116" t="str">
         <f>[1]Roster!E116</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6185,20 +6323,20 @@
         <v>complete</v>
       </c>
       <c r="E116" t="str">
-        <f>IF([1]Roster!H115=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="str">
+        <f>IF([1]Roster!H116=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
         <f>[1]Roster!A117</f>
         <v>Ali Broxson</v>
       </c>
-      <c r="B117" s="3" t="str">
+      <c r="B117" t="str">
         <f>[1]Roster!C117</f>
         <v>Brian Hawkins</v>
       </c>
-      <c r="C117" s="3" t="str">
+      <c r="C117" t="str">
         <f>[1]Roster!E117</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6207,20 +6345,20 @@
         <v>complete</v>
       </c>
       <c r="E117" t="str">
-        <f>IF([1]Roster!H116=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="str">
+        <f>IF([1]Roster!H117=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
         <f>[1]Roster!A118</f>
         <v>Jeffrey Hadley</v>
       </c>
-      <c r="B118" s="3" t="str">
+      <c r="B118" t="str">
         <f>[1]Roster!C118</f>
         <v>Brian Hawkins</v>
       </c>
-      <c r="C118" s="3" t="str">
+      <c r="C118" t="str">
         <f>[1]Roster!E118</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6229,20 +6367,20 @@
         <v>not-started</v>
       </c>
       <c r="E118" t="str">
-        <f>IF([1]Roster!H117=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="str">
+        <f>IF([1]Roster!H118=1,"complete","not-started")</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
         <f>[1]Roster!A119</f>
         <v>Theodore Scheff</v>
       </c>
-      <c r="B119" s="3" t="str">
+      <c r="B119" t="str">
         <f>[1]Roster!C119</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C119" s="3" t="str">
+      <c r="C119" t="str">
         <f>[1]Roster!E119</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6251,42 +6389,42 @@
         <v>complete</v>
       </c>
       <c r="E119" t="str">
-        <f>IF([1]Roster!H118=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="str">
+        <f>IF([1]Roster!H119=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
         <f>[1]Roster!A120</f>
         <v>Michelle Reeder</v>
       </c>
-      <c r="B120" s="3" t="str">
+      <c r="B120" t="str">
         <f>[1]Roster!C120</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C120" s="3" t="str">
+      <c r="C120" t="str">
         <f>[1]Roster!E120</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D120" t="str">
         <f>IF([1]Roster!G120=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E120" t="str">
-        <f>IF([1]Roster!H119=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="str">
+        <f>IF([1]Roster!H120=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
         <f>[1]Roster!A121</f>
         <v>Annie Laporta</v>
       </c>
-      <c r="B121" s="3" t="str">
+      <c r="B121" t="str">
         <f>[1]Roster!C121</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C121" s="3" t="str">
+      <c r="C121" t="str">
         <f>[1]Roster!E121</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6295,20 +6433,20 @@
         <v>complete</v>
       </c>
       <c r="E121" t="str">
-        <f>IF([1]Roster!H120=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="str">
+        <f>IF([1]Roster!H121=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="str">
         <f>[1]Roster!A122</f>
         <v>Leslie Nodler</v>
       </c>
-      <c r="B122" s="3" t="str">
+      <c r="B122" t="str">
         <f>[1]Roster!C122</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C122" s="3" t="str">
+      <c r="C122" t="str">
         <f>[1]Roster!E122</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6317,20 +6455,20 @@
         <v>not-started</v>
       </c>
       <c r="E122" t="str">
-        <f>IF([1]Roster!H121=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="str">
+        <f>IF([1]Roster!H122=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="str">
         <f>[1]Roster!A123</f>
         <v>James Kemp</v>
       </c>
-      <c r="B123" s="3" t="str">
+      <c r="B123" t="str">
         <f>[1]Roster!C123</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C123" s="3" t="str">
+      <c r="C123" t="str">
         <f>[1]Roster!E123</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6339,20 +6477,20 @@
         <v>complete</v>
       </c>
       <c r="E123" t="str">
-        <f>IF([1]Roster!H122=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="str">
+        <f>IF([1]Roster!H123=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="str">
         <f>[1]Roster!A124</f>
         <v>James Devins</v>
       </c>
-      <c r="B124" s="3" t="str">
+      <c r="B124" t="str">
         <f>[1]Roster!C124</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C124" s="3" t="str">
+      <c r="C124" t="str">
         <f>[1]Roster!E124</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6361,20 +6499,20 @@
         <v>complete</v>
       </c>
       <c r="E124" t="str">
-        <f>IF([1]Roster!H123=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="str">
+        <f>IF([1]Roster!H124=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="str">
         <f>[1]Roster!A125</f>
         <v>Lisa Hohman</v>
       </c>
-      <c r="B125" s="3" t="str">
+      <c r="B125" t="str">
         <f>[1]Roster!C125</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C125" s="3" t="str">
+      <c r="C125" t="str">
         <f>[1]Roster!E125</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6383,20 +6521,20 @@
         <v>complete</v>
       </c>
       <c r="E125" t="str">
-        <f>IF([1]Roster!H124=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="str">
+        <f>IF([1]Roster!H125=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="str">
         <f>[1]Roster!A126</f>
         <v>Jennifer Bentley</v>
       </c>
-      <c r="B126" s="3" t="str">
+      <c r="B126" t="str">
         <f>[1]Roster!C126</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C126" s="3" t="str">
+      <c r="C126" t="str">
         <f>[1]Roster!E126</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6405,20 +6543,20 @@
         <v>not-started</v>
       </c>
       <c r="E126" t="str">
-        <f>IF([1]Roster!H125=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="str">
+        <f>IF([1]Roster!H126=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="str">
         <f>[1]Roster!A127</f>
         <v>Peter Hayek</v>
       </c>
-      <c r="B127" s="3" t="str">
+      <c r="B127" t="str">
         <f>[1]Roster!C127</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C127" s="3" t="str">
+      <c r="C127" t="str">
         <f>[1]Roster!E127</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6427,20 +6565,20 @@
         <v>not-started</v>
       </c>
       <c r="E127" t="str">
-        <f>IF([1]Roster!H126=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="str">
+        <f>IF([1]Roster!H127=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="str">
         <f>[1]Roster!A128</f>
         <v>Jane Dantinne</v>
       </c>
-      <c r="B128" s="3" t="str">
+      <c r="B128" t="str">
         <f>[1]Roster!C128</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C128" s="3" t="str">
+      <c r="C128" t="str">
         <f>[1]Roster!E128</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6449,20 +6587,20 @@
         <v>complete</v>
       </c>
       <c r="E128" t="str">
-        <f>IF([1]Roster!H127=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="str">
+        <f>IF([1]Roster!H128=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="str">
         <f>[1]Roster!A129</f>
         <v>Kerry Yamat</v>
       </c>
-      <c r="B129" s="3" t="str">
+      <c r="B129" t="str">
         <f>[1]Roster!C129</f>
         <v>Thomas Lyon</v>
       </c>
-      <c r="C129" s="3" t="str">
+      <c r="C129" t="str">
         <f>[1]Roster!E129</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6471,20 +6609,20 @@
         <v>complete</v>
       </c>
       <c r="E129" t="str">
-        <f>IF([1]Roster!H128=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="str">
+        <f>IF([1]Roster!H129=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="str">
         <f>[1]Roster!A130</f>
         <v>Kyle Spencer</v>
       </c>
-      <c r="B130" s="3" t="str">
+      <c r="B130" t="str">
         <f>[1]Roster!C130</f>
         <v>Andrew Finkelstein</v>
       </c>
-      <c r="C130" s="3" t="str">
+      <c r="C130" t="str">
         <f>[1]Roster!E130</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6493,20 +6631,20 @@
         <v>not-started</v>
       </c>
       <c r="E130" t="str">
-        <f>IF([1]Roster!H129=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="str">
+        <f>IF([1]Roster!H130=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="str">
         <f>[1]Roster!A131</f>
         <v>Shilpa Kalawadia</v>
       </c>
-      <c r="B131" s="3" t="str">
+      <c r="B131" t="str">
         <f>[1]Roster!C131</f>
         <v>Andrew Finkelstein</v>
       </c>
-      <c r="C131" s="3" t="str">
+      <c r="C131" t="str">
         <f>[1]Roster!E131</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6515,20 +6653,20 @@
         <v>not-started</v>
       </c>
       <c r="E131" t="str">
-        <f>IF([1]Roster!H130=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="str">
+        <f>IF([1]Roster!H131=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="str">
         <f>[1]Roster!A132</f>
         <v>Steven Gardner</v>
       </c>
-      <c r="B132" s="3" t="str">
+      <c r="B132" t="str">
         <f>[1]Roster!C132</f>
         <v>Andrew Finkelstein</v>
       </c>
-      <c r="C132" s="3" t="str">
+      <c r="C132" t="str">
         <f>[1]Roster!E132</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6537,20 +6675,20 @@
         <v>not-started</v>
       </c>
       <c r="E132" t="str">
-        <f>IF([1]Roster!H131=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="str">
+        <f>IF([1]Roster!H132=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="str">
         <f>[1]Roster!A133</f>
         <v>Dawn Conrad</v>
       </c>
-      <c r="B133" s="3" t="str">
+      <c r="B133" t="str">
         <f>[1]Roster!C133</f>
         <v>Andrew Finkelstein</v>
       </c>
-      <c r="C133" s="3" t="str">
+      <c r="C133" t="str">
         <f>[1]Roster!E133</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6559,20 +6697,20 @@
         <v>not-started</v>
       </c>
       <c r="E133" t="str">
-        <f>IF([1]Roster!H132=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="str">
+        <f>IF([1]Roster!H133=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="str">
         <f>[1]Roster!A134</f>
         <v>Paula Novabilski</v>
       </c>
-      <c r="B134" s="3" t="str">
+      <c r="B134" t="str">
         <f>[1]Roster!C134</f>
         <v>Andrew Finkelstein</v>
       </c>
-      <c r="C134" s="3" t="str">
+      <c r="C134" t="str">
         <f>[1]Roster!E134</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6581,20 +6719,20 @@
         <v>not-started</v>
       </c>
       <c r="E134" t="str">
-        <f>IF([1]Roster!H133=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="str">
+        <f>IF([1]Roster!H134=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="str">
         <f>[1]Roster!A135</f>
         <v>Lynnette Nestor</v>
       </c>
-      <c r="B135" s="3" t="str">
+      <c r="B135" t="str">
         <f>[1]Roster!C135</f>
         <v>Andrew Finkelstein</v>
       </c>
-      <c r="C135" s="3" t="str">
+      <c r="C135" t="str">
         <f>[1]Roster!E135</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6603,20 +6741,20 @@
         <v>not-started</v>
       </c>
       <c r="E135" t="str">
-        <f>IF([1]Roster!H134=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="str">
+        <f>IF([1]Roster!H135=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="str">
         <f>[1]Roster!A136</f>
         <v>Melissa Rieflin</v>
       </c>
-      <c r="B136" s="3" t="str">
+      <c r="B136" t="str">
         <f>[1]Roster!C136</f>
         <v>Andrew Finkelstein</v>
       </c>
-      <c r="C136" s="3" t="str">
+      <c r="C136" t="str">
         <f>[1]Roster!E136</f>
         <v xml:space="preserve">Vaccines </v>
       </c>
@@ -6625,20 +6763,20 @@
         <v>not-started</v>
       </c>
       <c r="E136" t="str">
-        <f>IF([1]Roster!H135=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="str">
+        <f>IF([1]Roster!H136=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="str">
         <f>[1]Roster!A137</f>
         <v>Bill Germond</v>
       </c>
-      <c r="B137" s="3" t="str">
+      <c r="B137" t="str">
         <f>[1]Roster!C137</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C137" s="3" t="str">
+      <c r="C137" t="str">
         <f>[1]Roster!E137</f>
         <v>Oncology</v>
       </c>
@@ -6647,20 +6785,20 @@
         <v>complete</v>
       </c>
       <c r="E137" t="str">
-        <f>IF([1]Roster!H136=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="str">
+        <f>IF([1]Roster!H137=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="str">
         <f>[1]Roster!A138</f>
         <v>Andrea Hobbs</v>
       </c>
-      <c r="B138" s="3" t="str">
+      <c r="B138" t="str">
         <f>[1]Roster!C138</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C138" s="3" t="str">
+      <c r="C138" t="str">
         <f>[1]Roster!E138</f>
         <v>Oncology</v>
       </c>
@@ -6669,20 +6807,20 @@
         <v>not-started</v>
       </c>
       <c r="E138" t="str">
-        <f>IF([1]Roster!H137=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="str">
+        <f>IF([1]Roster!H138=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="str">
         <f>[1]Roster!A139</f>
         <v>Tobey Hoambrecker</v>
       </c>
-      <c r="B139" s="3" t="str">
+      <c r="B139" t="str">
         <f>[1]Roster!C139</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C139" s="3" t="str">
+      <c r="C139" t="str">
         <f>[1]Roster!E139</f>
         <v>Oncology</v>
       </c>
@@ -6691,20 +6829,20 @@
         <v>not-started</v>
       </c>
       <c r="E139" t="str">
-        <f>IF([1]Roster!H138=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="str">
+        <f>IF([1]Roster!H139=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="str">
         <f>[1]Roster!A140</f>
         <v>Kimberly Kunkleman</v>
       </c>
-      <c r="B140" s="3" t="str">
+      <c r="B140" t="str">
         <f>[1]Roster!C140</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C140" s="3" t="str">
+      <c r="C140" t="str">
         <f>[1]Roster!E140</f>
         <v>Oncology</v>
       </c>
@@ -6713,20 +6851,20 @@
         <v>not-started</v>
       </c>
       <c r="E140" t="str">
-        <f>IF([1]Roster!H139=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="3" t="str">
+        <f>IF([1]Roster!H140=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="str">
         <f>[1]Roster!A141</f>
         <v>Jennifer Neumer</v>
       </c>
-      <c r="B141" s="3" t="str">
+      <c r="B141" t="str">
         <f>[1]Roster!C141</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C141" s="3" t="str">
+      <c r="C141" t="str">
         <f>[1]Roster!E141</f>
         <v>Oncology</v>
       </c>
@@ -6735,20 +6873,20 @@
         <v>not-started</v>
       </c>
       <c r="E141" t="str">
-        <f>IF([1]Roster!H140=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="3" t="str">
+        <f>IF([1]Roster!H141=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="str">
         <f>[1]Roster!A142</f>
         <v>Joseph Yurt</v>
       </c>
-      <c r="B142" s="3" t="str">
+      <c r="B142" t="str">
         <f>[1]Roster!C142</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C142" s="3" t="str">
+      <c r="C142" t="str">
         <f>[1]Roster!E142</f>
         <v>Oncology</v>
       </c>
@@ -6757,20 +6895,20 @@
         <v>not-started</v>
       </c>
       <c r="E142" t="str">
-        <f>IF([1]Roster!H141=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="str">
+        <f>IF([1]Roster!H142=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="str">
         <f>[1]Roster!A143</f>
         <v>Christopher Gosselin</v>
       </c>
-      <c r="B143" s="3" t="str">
+      <c r="B143" t="str">
         <f>[1]Roster!C143</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C143" s="3" t="str">
+      <c r="C143" t="str">
         <f>[1]Roster!E143</f>
         <v>Oncology</v>
       </c>
@@ -6779,20 +6917,20 @@
         <v>not-started</v>
       </c>
       <c r="E143" t="str">
-        <f>IF([1]Roster!H142=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="str">
+        <f>IF([1]Roster!H143=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="str">
         <f>[1]Roster!A144</f>
         <v>Jason Monk</v>
       </c>
-      <c r="B144" s="3" t="str">
+      <c r="B144" t="str">
         <f>[1]Roster!C144</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C144" s="3" t="str">
+      <c r="C144" t="str">
         <f>[1]Roster!E144</f>
         <v>Oncology</v>
       </c>
@@ -6801,20 +6939,20 @@
         <v>not-started</v>
       </c>
       <c r="E144" t="str">
-        <f>IF([1]Roster!H143=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="3" t="str">
+        <f>IF([1]Roster!H144=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="str">
         <f>[1]Roster!A145</f>
         <v>Dawn Hansen</v>
       </c>
-      <c r="B145" s="3" t="str">
+      <c r="B145" t="str">
         <f>[1]Roster!C145</f>
         <v>Mark Karwowski</v>
       </c>
-      <c r="C145" s="3" t="str">
+      <c r="C145" t="str">
         <f>[1]Roster!E145</f>
         <v>Oncology</v>
       </c>
@@ -6823,20 +6961,20 @@
         <v>not-started</v>
       </c>
       <c r="E145" t="str">
-        <f>IF([1]Roster!H144=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="3" t="str">
+        <f>IF([1]Roster!H145=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="str">
         <f>[1]Roster!A146</f>
         <v>Karyn Tomlin</v>
       </c>
-      <c r="B146" s="3" t="str">
+      <c r="B146" t="str">
         <f>[1]Roster!C146</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C146" s="3" t="str">
+      <c r="C146" t="str">
         <f>[1]Roster!E146</f>
         <v>Oncology</v>
       </c>
@@ -6845,20 +6983,20 @@
         <v>not-started</v>
       </c>
       <c r="E146" t="str">
-        <f>IF([1]Roster!H145=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="str">
+        <f>IF([1]Roster!H146=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="str">
         <f>[1]Roster!A147</f>
         <v>Troy Siragusa</v>
       </c>
-      <c r="B147" s="3" t="str">
+      <c r="B147" t="str">
         <f>[1]Roster!C147</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C147" s="3" t="str">
+      <c r="C147" t="str">
         <f>[1]Roster!E147</f>
         <v>Oncology</v>
       </c>
@@ -6867,20 +7005,20 @@
         <v>complete</v>
       </c>
       <c r="E147" t="str">
-        <f>IF([1]Roster!H146=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="3" t="str">
+        <f>IF([1]Roster!H147=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="str">
         <f>[1]Roster!A148</f>
         <v>Sylvia Jacobs</v>
       </c>
-      <c r="B148" s="3" t="str">
+      <c r="B148" t="str">
         <f>[1]Roster!C148</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C148" s="3" t="str">
+      <c r="C148" t="str">
         <f>[1]Roster!E148</f>
         <v>Oncology</v>
       </c>
@@ -6889,20 +7027,20 @@
         <v>not-started</v>
       </c>
       <c r="E148" t="str">
-        <f>IF([1]Roster!H147=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="3" t="str">
+        <f>IF([1]Roster!H148=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="str">
         <f>[1]Roster!A149</f>
         <v>Brandon Black</v>
       </c>
-      <c r="B149" s="3" t="str">
+      <c r="B149" t="str">
         <f>[1]Roster!C149</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C149" s="3" t="str">
+      <c r="C149" t="str">
         <f>[1]Roster!E149</f>
         <v>Oncology</v>
       </c>
@@ -6911,20 +7049,20 @@
         <v>not-started</v>
       </c>
       <c r="E149" t="str">
-        <f>IF([1]Roster!H148=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="str">
+        <f>IF([1]Roster!H149=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="str">
         <f>[1]Roster!A150</f>
         <v>Michelleb Mitchell</v>
       </c>
-      <c r="B150" s="3" t="str">
+      <c r="B150" t="str">
         <f>[1]Roster!C150</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C150" s="3" t="str">
+      <c r="C150" t="str">
         <f>[1]Roster!E150</f>
         <v>Oncology</v>
       </c>
@@ -6933,20 +7071,20 @@
         <v>not-started</v>
       </c>
       <c r="E150" t="str">
-        <f>IF([1]Roster!H149=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="str">
+        <f>IF([1]Roster!H150=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="str">
         <f>[1]Roster!A151</f>
         <v>Deborah Bergman</v>
       </c>
-      <c r="B151" s="3" t="str">
+      <c r="B151" t="str">
         <f>[1]Roster!C151</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C151" s="3" t="str">
+      <c r="C151" t="str">
         <f>[1]Roster!E151</f>
         <v>Oncology</v>
       </c>
@@ -6955,20 +7093,20 @@
         <v>complete</v>
       </c>
       <c r="E151" t="str">
-        <f>IF([1]Roster!H150=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="str">
+        <f>IF([1]Roster!H151=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="str">
         <f>[1]Roster!A152</f>
         <v>Robby Robinson</v>
       </c>
-      <c r="B152" s="3" t="str">
+      <c r="B152" t="str">
         <f>[1]Roster!C152</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C152" s="3" t="str">
+      <c r="C152" t="str">
         <f>[1]Roster!E152</f>
         <v>Oncology</v>
       </c>
@@ -6977,20 +7115,20 @@
         <v>not-started</v>
       </c>
       <c r="E152" t="str">
-        <f>IF([1]Roster!H151=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="3" t="str">
+        <f>IF([1]Roster!H152=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="str">
         <f>[1]Roster!A153</f>
         <v>Nikole Austrup-Jones</v>
       </c>
-      <c r="B153" s="3" t="str">
+      <c r="B153" t="str">
         <f>[1]Roster!C153</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C153" s="3" t="str">
+      <c r="C153" t="str">
         <f>[1]Roster!E153</f>
         <v>Oncology</v>
       </c>
@@ -6999,20 +7137,20 @@
         <v>not-started</v>
       </c>
       <c r="E153" t="str">
-        <f>IF([1]Roster!H152=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="3" t="str">
+        <f>IF([1]Roster!H153=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="str">
         <f>[1]Roster!A154</f>
         <v>Jasmina Boruta</v>
       </c>
-      <c r="B154" s="3" t="str">
+      <c r="B154" t="str">
         <f>[1]Roster!C154</f>
         <v>Robert Murphy</v>
       </c>
-      <c r="C154" s="3" t="str">
+      <c r="C154" t="str">
         <f>[1]Roster!E154</f>
         <v>Oncology</v>
       </c>
@@ -7021,20 +7159,20 @@
         <v>not-started</v>
       </c>
       <c r="E154" t="str">
-        <f>IF([1]Roster!H153=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="3" t="str">
+        <f>IF([1]Roster!H154=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="str">
         <f>[1]Roster!A155</f>
         <v>Larry Balone</v>
       </c>
-      <c r="B155" s="3" t="str">
+      <c r="B155" t="str">
         <f>[1]Roster!C155</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C155" s="3" t="str">
+      <c r="C155" t="str">
         <f>[1]Roster!E155</f>
         <v>Oncology</v>
       </c>
@@ -7043,20 +7181,20 @@
         <v>not-started</v>
       </c>
       <c r="E155" t="str">
-        <f>IF([1]Roster!H154=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="str">
+        <f>IF([1]Roster!H155=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="str">
         <f>[1]Roster!A156</f>
         <v>John Foster</v>
       </c>
-      <c r="B156" s="3" t="str">
+      <c r="B156" t="str">
         <f>[1]Roster!C156</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C156" s="3" t="str">
+      <c r="C156" t="str">
         <f>[1]Roster!E156</f>
         <v>Oncology</v>
       </c>
@@ -7065,20 +7203,20 @@
         <v>not-started</v>
       </c>
       <c r="E156" t="str">
-        <f>IF([1]Roster!H155=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="str">
+        <f>IF([1]Roster!H156=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="str">
         <f>[1]Roster!A157</f>
         <v>Alexis Amici</v>
       </c>
-      <c r="B157" s="3" t="str">
+      <c r="B157" t="str">
         <f>[1]Roster!C157</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C157" s="3" t="str">
+      <c r="C157" t="str">
         <f>[1]Roster!E157</f>
         <v>Oncology</v>
       </c>
@@ -7087,20 +7225,20 @@
         <v>not-started</v>
       </c>
       <c r="E157" t="str">
-        <f>IF([1]Roster!H156=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="3" t="str">
+        <f>IF([1]Roster!H157=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="str">
         <f>[1]Roster!A158</f>
         <v>Michele Torelli</v>
       </c>
-      <c r="B158" s="3" t="str">
+      <c r="B158" t="str">
         <f>[1]Roster!C158</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C158" s="3" t="str">
+      <c r="C158" t="str">
         <f>[1]Roster!E158</f>
         <v>Oncology</v>
       </c>
@@ -7109,20 +7247,20 @@
         <v>not-started</v>
       </c>
       <c r="E158" t="str">
-        <f>IF([1]Roster!H157=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="3" t="str">
+        <f>IF([1]Roster!H158=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="str">
         <f>[1]Roster!A159</f>
         <v>Steve Fowler</v>
       </c>
-      <c r="B159" s="3" t="str">
+      <c r="B159" t="str">
         <f>[1]Roster!C159</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C159" s="3" t="str">
+      <c r="C159" t="str">
         <f>[1]Roster!E159</f>
         <v>Oncology</v>
       </c>
@@ -7131,20 +7269,20 @@
         <v>not-started</v>
       </c>
       <c r="E159" t="str">
-        <f>IF([1]Roster!H158=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="3" t="str">
+        <f>IF([1]Roster!H159=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="str">
         <f>[1]Roster!A160</f>
         <v>Tiffany Grand</v>
       </c>
-      <c r="B160" s="3" t="str">
+      <c r="B160" t="str">
         <f>[1]Roster!C160</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C160" s="3" t="str">
+      <c r="C160" t="str">
         <f>[1]Roster!E160</f>
         <v>Oncology</v>
       </c>
@@ -7153,20 +7291,20 @@
         <v>not-started</v>
       </c>
       <c r="E160" t="str">
-        <f>IF([1]Roster!H159=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="str">
+        <f>IF([1]Roster!H160=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="str">
         <f>[1]Roster!A161</f>
         <v>Thomas Berte</v>
       </c>
-      <c r="B161" s="3" t="str">
+      <c r="B161" t="str">
         <f>[1]Roster!C161</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C161" s="3" t="str">
+      <c r="C161" t="str">
         <f>[1]Roster!E161</f>
         <v>Oncology</v>
       </c>
@@ -7175,20 +7313,20 @@
         <v>not-started</v>
       </c>
       <c r="E161" t="str">
-        <f>IF([1]Roster!H160=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="str">
+        <f>IF([1]Roster!H161=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="str">
         <f>[1]Roster!A162</f>
         <v>Tara Fleming</v>
       </c>
-      <c r="B162" s="3" t="str">
+      <c r="B162" t="str">
         <f>[1]Roster!C162</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C162" s="3" t="str">
+      <c r="C162" t="str">
         <f>[1]Roster!E162</f>
         <v>Oncology</v>
       </c>
@@ -7197,20 +7335,20 @@
         <v>not-started</v>
       </c>
       <c r="E162" t="str">
-        <f>IF([1]Roster!H161=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="str">
+        <f>IF([1]Roster!H162=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="str">
         <f>[1]Roster!A163</f>
         <v>Ann Wagner</v>
       </c>
-      <c r="B163" s="3" t="str">
+      <c r="B163" t="str">
         <f>[1]Roster!C163</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C163" s="3" t="str">
+      <c r="C163" t="str">
         <f>[1]Roster!E163</f>
         <v>Oncology</v>
       </c>
@@ -7219,20 +7357,20 @@
         <v>not-started</v>
       </c>
       <c r="E163" t="str">
-        <f>IF([1]Roster!H162=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="3" t="str">
+        <f>IF([1]Roster!H163=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="str">
         <f>[1]Roster!A164</f>
         <v>David Williams</v>
       </c>
-      <c r="B164" s="3" t="str">
+      <c r="B164" t="str">
         <f>[1]Roster!C164</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C164" s="3" t="str">
+      <c r="C164" t="str">
         <f>[1]Roster!E164</f>
         <v>Oncology</v>
       </c>
@@ -7241,20 +7379,20 @@
         <v>not-started</v>
       </c>
       <c r="E164" t="str">
-        <f>IF([1]Roster!H163=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="3" t="str">
+        <f>IF([1]Roster!H164=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="str">
         <f>[1]Roster!A165</f>
         <v>Douglas Slape</v>
       </c>
-      <c r="B165" s="3" t="str">
+      <c r="B165" t="str">
         <f>[1]Roster!C165</f>
         <v>Theresa Cohen</v>
       </c>
-      <c r="C165" s="3" t="str">
+      <c r="C165" t="str">
         <f>[1]Roster!E165</f>
         <v>Oncology</v>
       </c>
@@ -7263,20 +7401,20 @@
         <v>not-started</v>
       </c>
       <c r="E165" t="str">
-        <f>IF([1]Roster!H164=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="3" t="str">
+        <f>IF([1]Roster!H165=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="str">
         <f>[1]Roster!A166</f>
         <v>Shandra Harvey Stewart</v>
       </c>
-      <c r="B166" s="3" t="str">
+      <c r="B166" t="str">
         <f>[1]Roster!C166</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C166" s="3" t="str">
+      <c r="C166" t="str">
         <f>[1]Roster!E166</f>
         <v>Oncology</v>
       </c>
@@ -7285,20 +7423,20 @@
         <v>not-started</v>
       </c>
       <c r="E166" t="str">
-        <f>IF([1]Roster!H165=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="3" t="str">
+        <f>IF([1]Roster!H166=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="str">
         <f>[1]Roster!A167</f>
         <v>Hayley Ludwig</v>
       </c>
-      <c r="B167" s="3" t="str">
+      <c r="B167" t="str">
         <f>[1]Roster!C167</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C167" s="3" t="str">
+      <c r="C167" t="str">
         <f>[1]Roster!E167</f>
         <v>Oncology</v>
       </c>
@@ -7307,20 +7445,20 @@
         <v>not-started</v>
       </c>
       <c r="E167" t="str">
-        <f>IF([1]Roster!H166=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="3" t="str">
+        <f>IF([1]Roster!H167=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="str">
         <f>[1]Roster!A168</f>
         <v>Maureen Hall</v>
       </c>
-      <c r="B168" s="3" t="str">
+      <c r="B168" t="str">
         <f>[1]Roster!C168</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C168" s="3" t="str">
+      <c r="C168" t="str">
         <f>[1]Roster!E168</f>
         <v>Oncology</v>
       </c>
@@ -7329,20 +7467,20 @@
         <v>not-started</v>
       </c>
       <c r="E168" t="str">
-        <f>IF([1]Roster!H167=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="str">
+        <f>IF([1]Roster!H168=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="str">
         <f>[1]Roster!A169</f>
         <v>Randy Benson</v>
       </c>
-      <c r="B169" s="3" t="str">
+      <c r="B169" t="str">
         <f>[1]Roster!C169</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C169" s="3" t="str">
+      <c r="C169" t="str">
         <f>[1]Roster!E169</f>
         <v>Oncology</v>
       </c>
@@ -7351,20 +7489,20 @@
         <v>not-started</v>
       </c>
       <c r="E169" t="str">
-        <f>IF([1]Roster!H168=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="3" t="str">
+        <f>IF([1]Roster!H169=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="str">
         <f>[1]Roster!A170</f>
         <v>Mark Campbell</v>
       </c>
-      <c r="B170" s="3" t="str">
+      <c r="B170" t="str">
         <f>[1]Roster!C170</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C170" s="3" t="str">
+      <c r="C170" t="str">
         <f>[1]Roster!E170</f>
         <v>Oncology</v>
       </c>
@@ -7373,20 +7511,20 @@
         <v>not-started</v>
       </c>
       <c r="E170" t="str">
-        <f>IF([1]Roster!H169=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="3" t="str">
+        <f>IF([1]Roster!H170=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="str">
         <f>[1]Roster!A171</f>
         <v>Bree Carlin</v>
       </c>
-      <c r="B171" s="3" t="str">
+      <c r="B171" t="str">
         <f>[1]Roster!C171</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C171" s="3" t="str">
+      <c r="C171" t="str">
         <f>[1]Roster!E171</f>
         <v>Oncology</v>
       </c>
@@ -7395,20 +7533,20 @@
         <v>not-started</v>
       </c>
       <c r="E171" t="str">
-        <f>IF([1]Roster!H170=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="str">
+        <f>IF([1]Roster!H171=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="str">
         <f>[1]Roster!A172</f>
         <v>Cecelia Daly</v>
       </c>
-      <c r="B172" s="3" t="str">
+      <c r="B172" t="str">
         <f>[1]Roster!C172</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C172" s="3" t="str">
+      <c r="C172" t="str">
         <f>[1]Roster!E172</f>
         <v>Oncology</v>
       </c>
@@ -7417,42 +7555,42 @@
         <v>not-started</v>
       </c>
       <c r="E172" t="str">
-        <f>IF([1]Roster!H171=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="3" t="str">
+        <f>IF([1]Roster!H172=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="str">
         <f>[1]Roster!A173</f>
         <v>Christopher Billmann</v>
       </c>
-      <c r="B173" s="3" t="str">
+      <c r="B173" t="str">
         <f>[1]Roster!C173</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C173" s="3" t="str">
+      <c r="C173" t="str">
         <f>[1]Roster!E173</f>
         <v>Oncology</v>
       </c>
       <c r="D173" t="str">
         <f>IF([1]Roster!G173=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E173" t="str">
-        <f>IF([1]Roster!H172=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="3" t="str">
+        <f>IF([1]Roster!H173=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="str">
         <f>[1]Roster!A174</f>
         <v>Kent Hutchens</v>
       </c>
-      <c r="B174" s="3" t="str">
+      <c r="B174" t="str">
         <f>[1]Roster!C174</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C174" s="3" t="str">
+      <c r="C174" t="str">
         <f>[1]Roster!E174</f>
         <v>Oncology</v>
       </c>
@@ -7461,20 +7599,20 @@
         <v>not-started</v>
       </c>
       <c r="E174" t="str">
-        <f>IF([1]Roster!H173=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="3" t="str">
+        <f>IF([1]Roster!H174=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="str">
         <f>[1]Roster!A175</f>
         <v>Amy Finn</v>
       </c>
-      <c r="B175" s="3" t="str">
+      <c r="B175" t="str">
         <f>[1]Roster!C175</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C175" s="3" t="str">
+      <c r="C175" t="str">
         <f>[1]Roster!E175</f>
         <v>Oncology</v>
       </c>
@@ -7483,20 +7621,20 @@
         <v>not-started</v>
       </c>
       <c r="E175" t="str">
-        <f>IF([1]Roster!H174=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="3" t="str">
+        <f>IF([1]Roster!H175=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="str">
         <f>[1]Roster!A176</f>
         <v>Jodi Pergolis</v>
       </c>
-      <c r="B176" s="3" t="str">
+      <c r="B176" t="str">
         <f>[1]Roster!C176</f>
         <v>Judith Leenguyen</v>
       </c>
-      <c r="C176" s="3" t="str">
+      <c r="C176" t="str">
         <f>[1]Roster!E176</f>
         <v>Oncology</v>
       </c>
@@ -7505,20 +7643,20 @@
         <v>complete</v>
       </c>
       <c r="E176" t="str">
-        <f>IF([1]Roster!H175=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="str">
+        <f>IF([1]Roster!H176=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="str">
         <f>[1]Roster!A177</f>
         <v>Mark Barrett</v>
       </c>
-      <c r="B177" s="3" t="str">
+      <c r="B177" t="str">
         <f>[1]Roster!C177</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C177" s="3" t="str">
+      <c r="C177" t="str">
         <f>[1]Roster!E177</f>
         <v>Oncology</v>
       </c>
@@ -7527,20 +7665,20 @@
         <v>not-started</v>
       </c>
       <c r="E177" t="str">
-        <f>IF([1]Roster!H176=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="3" t="str">
+        <f>IF([1]Roster!H177=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="str">
         <f>[1]Roster!A178</f>
         <v>John Towle</v>
       </c>
-      <c r="B178" s="3" t="str">
+      <c r="B178" t="str">
         <f>[1]Roster!C178</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C178" s="3" t="str">
+      <c r="C178" t="str">
         <f>[1]Roster!E178</f>
         <v>Oncology</v>
       </c>
@@ -7549,20 +7687,20 @@
         <v>not-started</v>
       </c>
       <c r="E178" t="str">
-        <f>IF([1]Roster!H177=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="str">
+        <f>IF([1]Roster!H178=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="str">
         <f>[1]Roster!A179</f>
         <v>Andrew Oneil</v>
       </c>
-      <c r="B179" s="3" t="str">
+      <c r="B179" t="str">
         <f>[1]Roster!C179</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C179" s="3" t="str">
+      <c r="C179" t="str">
         <f>[1]Roster!E179</f>
         <v>Oncology</v>
       </c>
@@ -7571,20 +7709,20 @@
         <v>not-started</v>
       </c>
       <c r="E179" t="str">
-        <f>IF([1]Roster!H178=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="3" t="str">
+        <f>IF([1]Roster!H179=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="str">
         <f>[1]Roster!A180</f>
         <v>Jeff Kounter</v>
       </c>
-      <c r="B180" s="3" t="str">
+      <c r="B180" t="str">
         <f>[1]Roster!C180</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C180" s="3" t="str">
+      <c r="C180" t="str">
         <f>[1]Roster!E180</f>
         <v>Oncology</v>
       </c>
@@ -7593,20 +7731,20 @@
         <v>not-started</v>
       </c>
       <c r="E180" t="str">
-        <f>IF([1]Roster!H179=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="3" t="str">
+        <f>IF([1]Roster!H180=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="str">
         <f>[1]Roster!A181</f>
         <v>Kristin Ngchee</v>
       </c>
-      <c r="B181" s="3" t="str">
+      <c r="B181" t="str">
         <f>[1]Roster!C181</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C181" s="3" t="str">
+      <c r="C181" t="str">
         <f>[1]Roster!E181</f>
         <v>Oncology</v>
       </c>
@@ -7615,20 +7753,20 @@
         <v>not-started</v>
       </c>
       <c r="E181" t="str">
-        <f>IF([1]Roster!H180=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="3" t="str">
+        <f>IF([1]Roster!H181=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="str">
         <f>[1]Roster!A182</f>
         <v>Carl Meister</v>
       </c>
-      <c r="B182" s="3" t="str">
+      <c r="B182" t="str">
         <f>[1]Roster!C182</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C182" s="3" t="str">
+      <c r="C182" t="str">
         <f>[1]Roster!E182</f>
         <v>Oncology</v>
       </c>
@@ -7637,20 +7775,20 @@
         <v>not-started</v>
       </c>
       <c r="E182" t="str">
-        <f>IF([1]Roster!H181=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="3" t="str">
+        <f>IF([1]Roster!H182=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="str">
         <f>[1]Roster!A183</f>
         <v>Adam Martin</v>
       </c>
-      <c r="B183" s="3" t="str">
+      <c r="B183" t="str">
         <f>[1]Roster!C183</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C183" s="3" t="str">
+      <c r="C183" t="str">
         <f>[1]Roster!E183</f>
         <v>Oncology</v>
       </c>
@@ -7659,20 +7797,20 @@
         <v>not-started</v>
       </c>
       <c r="E183" t="str">
-        <f>IF([1]Roster!H182=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="3" t="str">
+        <f>IF([1]Roster!H183=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="str">
         <f>[1]Roster!A184</f>
         <v>John Costello</v>
       </c>
-      <c r="B184" s="3" t="str">
+      <c r="B184" t="str">
         <f>[1]Roster!C184</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C184" s="3" t="str">
+      <c r="C184" t="str">
         <f>[1]Roster!E184</f>
         <v>Oncology</v>
       </c>
@@ -7681,20 +7819,20 @@
         <v>complete</v>
       </c>
       <c r="E184" t="str">
-        <f>IF([1]Roster!H183=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="str">
+        <f>IF([1]Roster!H184=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="str">
         <f>[1]Roster!A185</f>
         <v>Joseph Giuliano</v>
       </c>
-      <c r="B185" s="3" t="str">
+      <c r="B185" t="str">
         <f>[1]Roster!C185</f>
         <v>Latrice Williams</v>
       </c>
-      <c r="C185" s="3" t="str">
+      <c r="C185" t="str">
         <f>[1]Roster!E185</f>
         <v>Oncology</v>
       </c>
@@ -7703,198 +7841,231 @@
         <v>not-started</v>
       </c>
       <c r="E185" t="str">
-        <f>IF([1]Roster!H184=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="3"/>
-    </row>
-    <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="3"/>
-    </row>
-    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="3"/>
-    </row>
-    <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="3"/>
-    </row>
-    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="3"/>
-    </row>
-    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="3"/>
-    </row>
-    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="3"/>
-    </row>
-    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="3"/>
-    </row>
-    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="3"/>
-    </row>
-    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="3"/>
-    </row>
-    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="3"/>
-    </row>
-    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="3"/>
-    </row>
-    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="3"/>
-    </row>
-    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="3"/>
-    </row>
-    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="3"/>
-    </row>
-    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="3"/>
-    </row>
-    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="3"/>
-    </row>
-    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="3"/>
-    </row>
-    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="3"/>
-    </row>
-    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="3"/>
-    </row>
-    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="3"/>
-    </row>
-    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="3"/>
-    </row>
-    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="3"/>
-    </row>
-    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="3"/>
-    </row>
-    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="3"/>
-    </row>
-    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="3"/>
-    </row>
-    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="3"/>
-    </row>
-    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="3"/>
-    </row>
-    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="3"/>
-    </row>
-    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="3"/>
-    </row>
-    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="3"/>
-    </row>
-    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="3"/>
-    </row>
-    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="3"/>
-    </row>
-    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="3"/>
-    </row>
-    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="3"/>
-    </row>
-    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="3"/>
-    </row>
-    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="3"/>
-    </row>
-    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="3"/>
-    </row>
-    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="3"/>
-    </row>
-    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="3"/>
-    </row>
-    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="3"/>
-    </row>
-    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="3"/>
-    </row>
-    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="3"/>
-    </row>
-    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="3"/>
-    </row>
-    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="3"/>
-    </row>
-    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="3"/>
-    </row>
-    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="3"/>
-    </row>
-    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="3"/>
-    </row>
-    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="3"/>
-    </row>
-    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="3"/>
-    </row>
-    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="3"/>
-    </row>
-    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="3"/>
-    </row>
-    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="3"/>
-    </row>
-    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="3"/>
+        <f>IF([1]Roster!H185=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="str">
+        <f>[1]Roster!A186</f>
+        <v>Marilyn Gonzalez</v>
+      </c>
+      <c r="B186" t="str">
+        <f>[1]Roster!C186</f>
+        <v>Carlos Eduardo Munoz Borrero</v>
+      </c>
+      <c r="C186" t="str">
+        <f>[1]Roster!E186</f>
+        <v>Puerto Rico Team</v>
+      </c>
+      <c r="D186" t="str">
+        <f>IF([1]Roster!G186=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E186" t="str">
+        <f>IF([1]Roster!H186=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="str">
+        <f>[1]Roster!A187</f>
+        <v>Johnsie Ortiz</v>
+      </c>
+      <c r="B187" t="str">
+        <f>[1]Roster!C187</f>
+        <v>Carlos Eduardo Munoz Borrero</v>
+      </c>
+      <c r="C187" t="str">
+        <f>[1]Roster!E187</f>
+        <v>Puerto Rico Team</v>
+      </c>
+      <c r="D187" t="str">
+        <f>IF([1]Roster!G187=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E187" t="str">
+        <f>IF([1]Roster!H187=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="str">
+        <f>[1]Roster!A188</f>
+        <v>Lillian Colon</v>
+      </c>
+      <c r="B188" t="str">
+        <f>[1]Roster!C188</f>
+        <v>Carlos Eduardo Munoz Borrero</v>
+      </c>
+      <c r="C188" t="str">
+        <f>[1]Roster!E188</f>
+        <v>Puerto Rico Team</v>
+      </c>
+      <c r="D188" t="str">
+        <f>IF([1]Roster!G188=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E188" t="str">
+        <f>IF([1]Roster!H188=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="str">
+        <f>[1]Roster!A189</f>
+        <v>Ricardo Rojas</v>
+      </c>
+      <c r="B189" t="str">
+        <f>[1]Roster!C189</f>
+        <v>Carlos Eduardo Munoz Borrero</v>
+      </c>
+      <c r="C189" t="str">
+        <f>[1]Roster!E189</f>
+        <v>Puerto Rico Team</v>
+      </c>
+      <c r="D189" t="str">
+        <f>IF([1]Roster!G189=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E189" t="str">
+        <f>IF([1]Roster!H189=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="str">
+        <f>[1]Roster!A190</f>
+        <v>Juan Pablo Rosado</v>
+      </c>
+      <c r="B190" t="str">
+        <f>[1]Roster!C190</f>
+        <v>Carlos Eduardo Munoz Borrero</v>
+      </c>
+      <c r="C190" t="str">
+        <f>[1]Roster!E190</f>
+        <v>Puerto Rico Team</v>
+      </c>
+      <c r="D190" t="str">
+        <f>IF([1]Roster!G190=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E190" t="str">
+        <f>IF([1]Roster!H190=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="str">
+        <f>[1]Roster!A191</f>
+        <v>Alma Guadalupe</v>
+      </c>
+      <c r="B191" t="str">
+        <f>[1]Roster!C191</f>
+        <v>Carlos Eduardo Munoz Borrero</v>
+      </c>
+      <c r="C191" t="str">
+        <f>[1]Roster!E191</f>
+        <v>Puerto Rico Team</v>
+      </c>
+      <c r="D191" t="str">
+        <f>IF([1]Roster!G191=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E191" t="str">
+        <f>IF([1]Roster!H191=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="str">
+        <f>[1]Roster!A192</f>
+        <v>Mark Montello</v>
+      </c>
+      <c r="B192" t="str">
+        <f>[1]Roster!C192</f>
+        <v>Hari Ravindranathan</v>
+      </c>
+      <c r="C192" t="str">
+        <f>[1]Roster!E192</f>
+        <v>Oncology</v>
+      </c>
+      <c r="D192" t="str">
+        <f>IF([1]Roster!G192=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E192" t="str">
+        <f>IF([1]Roster!H192=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="str">
+        <f>[1]Roster!A193</f>
+        <v>Claire McSorley</v>
+      </c>
+      <c r="B193" t="str">
+        <f>[1]Roster!C193</f>
+        <v>Hari Ravindranathan</v>
+      </c>
+      <c r="C193" t="str">
+        <f>[1]Roster!E193</f>
+        <v>Oncology</v>
+      </c>
+      <c r="D193" t="str">
+        <f>IF([1]Roster!G193=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E193" t="str">
+        <f>IF([1]Roster!H193=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="str">
+        <f>[1]Roster!A194</f>
+        <v>Michael Nicolucci</v>
+      </c>
+      <c r="B194" t="str">
+        <f>[1]Roster!C194</f>
+        <v>Hari Ravindranathan</v>
+      </c>
+      <c r="C194" t="str">
+        <f>[1]Roster!E194</f>
+        <v>Oncology</v>
+      </c>
+      <c r="D194" t="str">
+        <f>IF([1]Roster!G194=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E194" t="str">
+        <f>IF([1]Roster!H194=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="str">
+        <f>[1]Roster!A195</f>
+        <v>Craig R Haubach</v>
+      </c>
+      <c r="B195" t="str">
+        <f>[1]Roster!C195</f>
+        <v>Hari Ravindranathan</v>
+      </c>
+      <c r="C195" t="str">
+        <f>[1]Roster!E195</f>
+        <v>Oncology</v>
+      </c>
+      <c r="D195" t="str">
+        <f>IF([1]Roster!G195=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E195" t="str">
+        <f>IF([1]Roster!H195=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D245" xr:uid="{EE1592C1-D93F-4B1C-A104-28CB57E115FF}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="complete"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eduwayz\Website\Aedashboard\AEdashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E5877A-4AC4-426D-ABAA-59D352D8B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95708BAE-6A85-41DD-88B9-BC3FD6FCBB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8D8A15E-BEE8-406C-88BC-A1293497D4CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{244779BD-8F8A-4D43-83FB-535ED7C483A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -60,16 +60,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -97,9 +89,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,7 +173,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H4">
             <v>0</v>
@@ -1746,7 +1737,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G96">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H96">
             <v>1</v>
@@ -3412,7 +3403,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G194">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H194">
             <v>0</v>
@@ -3764,40 +3755,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F283E2CE-76F8-4966-9645-E5E23C1EFD83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6952F83-E3FE-4409-987D-84327B77DE8C}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>[1]Roster!A2</f>
         <v>Bryan Martinez</v>
@@ -3819,7 +3810,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>[1]Roster!A3</f>
         <v>Ryan Attleson</v>
@@ -3841,7 +3832,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>[1]Roster!A4</f>
         <v>James G Kelly</v>
@@ -3856,14 +3847,14 @@
       </c>
       <c r="D4" t="str">
         <f>IF([1]Roster!G4=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E4" t="str">
         <f>IF([1]Roster!H4=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>[1]Roster!A5</f>
         <v>Donna Daniel</v>
@@ -3885,7 +3876,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]Roster!A6</f>
         <v>Jillian Sorrentino</v>
@@ -3907,7 +3898,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>[1]Roster!A7</f>
         <v>Tamara Ciner</v>
@@ -3929,7 +3920,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]Roster!A8</f>
         <v>Andrea Schmoel</v>
@@ -3951,7 +3942,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]Roster!A9</f>
         <v>Laura Chisman</v>
@@ -3973,7 +3964,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>[1]Roster!A10</f>
         <v>John Stone</v>
@@ -3995,7 +3986,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]Roster!A11</f>
         <v>Marcus Crawford</v>
@@ -4017,7 +4008,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>[1]Roster!A12</f>
         <v>Jerry Lubben</v>
@@ -4039,7 +4030,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>[1]Roster!A13</f>
         <v>Karen Kodanko</v>
@@ -4061,7 +4052,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>[1]Roster!A14</f>
         <v>Randall Roth</v>
@@ -4083,7 +4074,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[1]Roster!A15</f>
         <v>Ann Marie Mcauliffe</v>
@@ -4105,7 +4096,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>[1]Roster!A16</f>
         <v>Callie Zampetis</v>
@@ -4127,7 +4118,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>[1]Roster!A17</f>
         <v>Darlene Halverson</v>
@@ -4149,7 +4140,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[1]Roster!A18</f>
         <v>Annemarie Pedersen</v>
@@ -4171,7 +4162,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>[1]Roster!A19</f>
         <v>Harry Herar</v>
@@ -4193,7 +4184,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>[1]Roster!A20</f>
         <v>Kristin Smith</v>
@@ -4215,7 +4206,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>[1]Roster!A21</f>
         <v>Melanie Lamarche</v>
@@ -4237,7 +4228,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>[1]Roster!A22</f>
         <v>Mysti Horwath</v>
@@ -4259,7 +4250,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>[1]Roster!A23</f>
         <v>Bridget Sullivan</v>
@@ -4281,7 +4272,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>[1]Roster!A24</f>
         <v>Grace Pelkowski</v>
@@ -4303,7 +4294,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>[1]Roster!A25</f>
         <v>John Dover</v>
@@ -4325,7 +4316,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>[1]Roster!A26</f>
         <v>Cathy Prine</v>
@@ -4347,7 +4338,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>[1]Roster!A27</f>
         <v>Chris Ross</v>
@@ -4369,7 +4360,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>[1]Roster!A28</f>
         <v>Daniel Duke</v>
@@ -4391,7 +4382,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>[1]Roster!A29</f>
         <v>Ricki Roberson</v>
@@ -4413,7 +4404,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>[1]Roster!A30</f>
         <v>Brent Parker</v>
@@ -4435,7 +4426,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>[1]Roster!A31</f>
         <v>Tamara Quarles</v>
@@ -4457,7 +4448,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>[1]Roster!A32</f>
         <v>Jennifer Forstner</v>
@@ -4479,7 +4470,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>[1]Roster!A33</f>
         <v>Jean Barnett</v>
@@ -4501,7 +4492,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>[1]Roster!A34</f>
         <v>Thomas Rossi</v>
@@ -4523,7 +4514,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>[1]Roster!A35</f>
         <v>Steven Wilber</v>
@@ -4545,7 +4536,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>[1]Roster!A36</f>
         <v>Jason Delk</v>
@@ -4567,7 +4558,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>[1]Roster!A37</f>
         <v>Katherine Mcgarrey</v>
@@ -4589,7 +4580,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>[1]Roster!A38</f>
         <v>Jim Manning</v>
@@ -4611,7 +4602,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>[1]Roster!A39</f>
         <v>Kimberly Kaloz</v>
@@ -4633,7 +4624,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>[1]Roster!A40</f>
         <v>Joseph Kewley</v>
@@ -4655,7 +4646,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>[1]Roster!A41</f>
         <v>Anne Zenzer</v>
@@ -4677,7 +4668,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>[1]Roster!A42</f>
         <v>Michael Neelon</v>
@@ -4699,7 +4690,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>[1]Roster!A43</f>
         <v>Richard Angeli</v>
@@ -4721,7 +4712,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>[1]Roster!A44</f>
         <v>Kari Schulsinger</v>
@@ -4743,7 +4734,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>[1]Roster!A45</f>
         <v>Scott Ebersol</v>
@@ -4765,7 +4756,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>[1]Roster!A46</f>
         <v>Kevin Ross</v>
@@ -4787,7 +4778,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>[1]Roster!A47</f>
         <v>Dana Thomas</v>
@@ -4809,7 +4800,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>[1]Roster!A48</f>
         <v>Ryan Roa</v>
@@ -4831,7 +4822,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>[1]Roster!A49</f>
         <v>Michael J Larivee</v>
@@ -4853,7 +4844,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>[1]Roster!A50</f>
         <v>Derek Hersha</v>
@@ -4875,7 +4866,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>[1]Roster!A51</f>
         <v>Natalie Lindley</v>
@@ -4897,7 +4888,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>[1]Roster!A52</f>
         <v>Michael Martinez</v>
@@ -4919,7 +4910,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>[1]Roster!A53</f>
         <v>Robert Avis</v>
@@ -4941,7 +4932,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>[1]Roster!A54</f>
         <v>Gina Esposito</v>
@@ -4963,7 +4954,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>[1]Roster!A55</f>
         <v>Stefanie Schmitz</v>
@@ -4985,7 +4976,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>[1]Roster!A56</f>
         <v>Geffrey Bergh</v>
@@ -5007,7 +4998,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>[1]Roster!A57</f>
         <v>Joe Reed</v>
@@ -5029,7 +5020,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>[1]Roster!A58</f>
         <v>Jennifer Smith</v>
@@ -5051,7 +5042,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>[1]Roster!A59</f>
         <v>Robert Cantu</v>
@@ -5073,7 +5064,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>[1]Roster!A60</f>
         <v>Melanie Gobourne</v>
@@ -5095,7 +5086,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>[1]Roster!A61</f>
         <v>Andrew Metzinger</v>
@@ -5117,7 +5108,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>[1]Roster!A62</f>
         <v>Brianj Frisone</v>
@@ -5139,7 +5130,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>[1]Roster!A63</f>
         <v>David Rose</v>
@@ -5161,7 +5152,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>[1]Roster!A64</f>
         <v>John Comonitski</v>
@@ -5183,7 +5174,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>[1]Roster!A65</f>
         <v>Alicia Margoles</v>
@@ -5205,7 +5196,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>[1]Roster!A66</f>
         <v>John Durand</v>
@@ -5227,7 +5218,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>[1]Roster!A67</f>
         <v>Taylor Martin</v>
@@ -5249,7 +5240,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>[1]Roster!A68</f>
         <v>Paul Carpenter</v>
@@ -5271,7 +5262,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>[1]Roster!A69</f>
         <v>G Wigginton</v>
@@ -5293,7 +5284,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>[1]Roster!A70</f>
         <v>Todd Herman</v>
@@ -5315,7 +5306,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>[1]Roster!A71</f>
         <v>Heather Page</v>
@@ -5337,7 +5328,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>[1]Roster!A72</f>
         <v>Kristin Edwards</v>
@@ -5359,7 +5350,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>[1]Roster!A73</f>
         <v>Stan Merriken</v>
@@ -5381,7 +5372,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>[1]Roster!A74</f>
         <v>Nannette Alton-Labus</v>
@@ -5403,7 +5394,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>[1]Roster!A75</f>
         <v>Grove Bolger</v>
@@ -5425,7 +5416,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>[1]Roster!A76</f>
         <v>Edward Sot</v>
@@ -5447,7 +5438,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>[1]Roster!A77</f>
         <v>Daniel Coleman</v>
@@ -5469,7 +5460,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>[1]Roster!A78</f>
         <v>Corinne Piazza</v>
@@ -5491,7 +5482,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>[1]Roster!A79</f>
         <v>Glenn Belemjian</v>
@@ -5513,7 +5504,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>[1]Roster!A80</f>
         <v>Anoop Mansukhani</v>
@@ -5535,7 +5526,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>[1]Roster!A81</f>
         <v>Jonathan Ijaz</v>
@@ -5557,7 +5548,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>[1]Roster!A82</f>
         <v>Kathryn Mckeon</v>
@@ -5579,7 +5570,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>[1]Roster!A83</f>
         <v>Keith Ingstad</v>
@@ -5601,7 +5592,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>[1]Roster!A84</f>
         <v>Joette Munoz</v>
@@ -5623,7 +5614,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>[1]Roster!A85</f>
         <v>Fran Roberts</v>
@@ -5645,7 +5636,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>[1]Roster!A86</f>
         <v>Douglas Gelatti</v>
@@ -5667,7 +5658,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>[1]Roster!A87</f>
         <v>Carrie Britton</v>
@@ -5689,7 +5680,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>[1]Roster!A88</f>
         <v>Louis Carbajal</v>
@@ -5711,7 +5702,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>[1]Roster!A89</f>
         <v>Tara Barton</v>
@@ -5733,7 +5724,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>[1]Roster!A90</f>
         <v>Jay Shen</v>
@@ -5755,7 +5746,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>[1]Roster!A91</f>
         <v>Andrea Stricklin</v>
@@ -5777,7 +5768,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>[1]Roster!A92</f>
         <v>Wayne Musum</v>
@@ -5799,7 +5790,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>[1]Roster!A93</f>
         <v>Pooja Atwal</v>
@@ -5821,7 +5812,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>[1]Roster!A94</f>
         <v>Veronica Restrepo Vasquez</v>
@@ -5843,7 +5834,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>[1]Roster!A95</f>
         <v>Amy Young</v>
@@ -5865,7 +5856,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>[1]Roster!A96</f>
         <v>Hala Smith</v>
@@ -5880,14 +5871,14 @@
       </c>
       <c r="D96" t="str">
         <f>IF([1]Roster!G96=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E96" t="str">
         <f>IF([1]Roster!H96=1,"complete","not-started")</f>
         <v>complete</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>[1]Roster!A97</f>
         <v>Waynalyn Deshields</v>
@@ -5909,7 +5900,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>[1]Roster!A98</f>
         <v>Suan Swenson</v>
@@ -5931,7 +5922,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>[1]Roster!A99</f>
         <v>Kelly Holland</v>
@@ -5953,7 +5944,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>[1]Roster!A100</f>
         <v>Cathy Russell</v>
@@ -5975,7 +5966,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>[1]Roster!A101</f>
         <v>Molly Ortolani</v>
@@ -5997,7 +5988,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>[1]Roster!A102</f>
         <v>Robert Zullo</v>
@@ -6019,7 +6010,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>[1]Roster!A103</f>
         <v>Darlene Juliano</v>
@@ -6041,7 +6032,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>[1]Roster!A104</f>
         <v>Andrew Neno</v>
@@ -6063,7 +6054,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>[1]Roster!A105</f>
         <v>Alice Lydon</v>
@@ -6085,7 +6076,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>[1]Roster!A106</f>
         <v>Gaetano Calafati Jr</v>
@@ -6107,7 +6098,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>[1]Roster!A107</f>
         <v>Sue Rose</v>
@@ -6129,7 +6120,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>[1]Roster!A108</f>
         <v>Laura Ruiz-Martinez</v>
@@ -6151,7 +6142,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>[1]Roster!A109</f>
         <v>Leslie Brunette</v>
@@ -6173,7 +6164,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>[1]Roster!A110</f>
         <v>Chris Golden</v>
@@ -6195,7 +6186,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>[1]Roster!A111</f>
         <v>Michelle Moylanelder</v>
@@ -6217,7 +6208,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>[1]Roster!A112</f>
         <v>Lynn Mckinley</v>
@@ -6239,7 +6230,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>[1]Roster!A113</f>
         <v>Sarah Sawyer</v>
@@ -6261,7 +6252,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>[1]Roster!A114</f>
         <v>Kenneth Simon</v>
@@ -6283,7 +6274,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>[1]Roster!A115</f>
         <v>Patrick Neither</v>
@@ -6305,7 +6296,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>[1]Roster!A116</f>
         <v>Dino Villa</v>
@@ -6327,7 +6318,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>[1]Roster!A117</f>
         <v>Ali Broxson</v>
@@ -6349,7 +6340,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>[1]Roster!A118</f>
         <v>Jeffrey Hadley</v>
@@ -6371,7 +6362,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>[1]Roster!A119</f>
         <v>Theodore Scheff</v>
@@ -6393,7 +6384,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>[1]Roster!A120</f>
         <v>Michelle Reeder</v>
@@ -6415,7 +6406,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>[1]Roster!A121</f>
         <v>Annie Laporta</v>
@@ -6437,7 +6428,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>[1]Roster!A122</f>
         <v>Leslie Nodler</v>
@@ -6459,7 +6450,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>[1]Roster!A123</f>
         <v>James Kemp</v>
@@ -6481,7 +6472,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>[1]Roster!A124</f>
         <v>James Devins</v>
@@ -6503,7 +6494,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>[1]Roster!A125</f>
         <v>Lisa Hohman</v>
@@ -6525,7 +6516,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>[1]Roster!A126</f>
         <v>Jennifer Bentley</v>
@@ -6547,7 +6538,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>[1]Roster!A127</f>
         <v>Peter Hayek</v>
@@ -6569,7 +6560,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>[1]Roster!A128</f>
         <v>Jane Dantinne</v>
@@ -6591,7 +6582,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>[1]Roster!A129</f>
         <v>Kerry Yamat</v>
@@ -6613,7 +6604,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
         <f>[1]Roster!A130</f>
         <v>Kyle Spencer</v>
@@ -6635,7 +6626,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
         <f>[1]Roster!A131</f>
         <v>Shilpa Kalawadia</v>
@@ -6657,7 +6648,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="str">
         <f>[1]Roster!A132</f>
         <v>Steven Gardner</v>
@@ -6679,7 +6670,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
         <f>[1]Roster!A133</f>
         <v>Dawn Conrad</v>
@@ -6701,7 +6692,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f>[1]Roster!A134</f>
         <v>Paula Novabilski</v>
@@ -6723,7 +6714,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f>[1]Roster!A135</f>
         <v>Lynnette Nestor</v>
@@ -6745,7 +6736,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f>[1]Roster!A136</f>
         <v>Melissa Rieflin</v>
@@ -6767,7 +6758,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
         <f>[1]Roster!A137</f>
         <v>Bill Germond</v>
@@ -6789,7 +6780,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
         <f>[1]Roster!A138</f>
         <v>Andrea Hobbs</v>
@@ -6811,7 +6802,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="str">
         <f>[1]Roster!A139</f>
         <v>Tobey Hoambrecker</v>
@@ -6833,7 +6824,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
         <f>[1]Roster!A140</f>
         <v>Kimberly Kunkleman</v>
@@ -6855,7 +6846,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="str">
         <f>[1]Roster!A141</f>
         <v>Jennifer Neumer</v>
@@ -6877,7 +6868,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="str">
         <f>[1]Roster!A142</f>
         <v>Joseph Yurt</v>
@@ -6899,7 +6890,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="str">
         <f>[1]Roster!A143</f>
         <v>Christopher Gosselin</v>
@@ -6921,7 +6912,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
         <f>[1]Roster!A144</f>
         <v>Jason Monk</v>
@@ -6943,7 +6934,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="str">
         <f>[1]Roster!A145</f>
         <v>Dawn Hansen</v>
@@ -6965,7 +6956,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="str">
         <f>[1]Roster!A146</f>
         <v>Karyn Tomlin</v>
@@ -6987,7 +6978,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="str">
         <f>[1]Roster!A147</f>
         <v>Troy Siragusa</v>
@@ -7009,7 +7000,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f>[1]Roster!A148</f>
         <v>Sylvia Jacobs</v>
@@ -7031,7 +7022,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="str">
         <f>[1]Roster!A149</f>
         <v>Brandon Black</v>
@@ -7053,7 +7044,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="str">
         <f>[1]Roster!A150</f>
         <v>Michelleb Mitchell</v>
@@ -7075,7 +7066,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="str">
         <f>[1]Roster!A151</f>
         <v>Deborah Bergman</v>
@@ -7097,7 +7088,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="str">
         <f>[1]Roster!A152</f>
         <v>Robby Robinson</v>
@@ -7119,7 +7110,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="str">
         <f>[1]Roster!A153</f>
         <v>Nikole Austrup-Jones</v>
@@ -7141,7 +7132,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="str">
         <f>[1]Roster!A154</f>
         <v>Jasmina Boruta</v>
@@ -7163,7 +7154,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="str">
         <f>[1]Roster!A155</f>
         <v>Larry Balone</v>
@@ -7185,7 +7176,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="str">
         <f>[1]Roster!A156</f>
         <v>John Foster</v>
@@ -7207,7 +7198,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="str">
         <f>[1]Roster!A157</f>
         <v>Alexis Amici</v>
@@ -7229,7 +7220,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
         <f>[1]Roster!A158</f>
         <v>Michele Torelli</v>
@@ -7251,7 +7242,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="str">
         <f>[1]Roster!A159</f>
         <v>Steve Fowler</v>
@@ -7273,7 +7264,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="str">
         <f>[1]Roster!A160</f>
         <v>Tiffany Grand</v>
@@ -7295,7 +7286,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="str">
         <f>[1]Roster!A161</f>
         <v>Thomas Berte</v>
@@ -7317,7 +7308,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
         <f>[1]Roster!A162</f>
         <v>Tara Fleming</v>
@@ -7339,7 +7330,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="str">
         <f>[1]Roster!A163</f>
         <v>Ann Wagner</v>
@@ -7361,7 +7352,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="str">
         <f>[1]Roster!A164</f>
         <v>David Williams</v>
@@ -7383,7 +7374,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
         <f>[1]Roster!A165</f>
         <v>Douglas Slape</v>
@@ -7405,7 +7396,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="str">
         <f>[1]Roster!A166</f>
         <v>Shandra Harvey Stewart</v>
@@ -7427,7 +7418,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="str">
         <f>[1]Roster!A167</f>
         <v>Hayley Ludwig</v>
@@ -7449,7 +7440,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="str">
         <f>[1]Roster!A168</f>
         <v>Maureen Hall</v>
@@ -7471,7 +7462,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="str">
         <f>[1]Roster!A169</f>
         <v>Randy Benson</v>
@@ -7493,7 +7484,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="str">
         <f>[1]Roster!A170</f>
         <v>Mark Campbell</v>
@@ -7515,7 +7506,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="str">
         <f>[1]Roster!A171</f>
         <v>Bree Carlin</v>
@@ -7537,7 +7528,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="str">
         <f>[1]Roster!A172</f>
         <v>Cecelia Daly</v>
@@ -7559,7 +7550,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="str">
         <f>[1]Roster!A173</f>
         <v>Christopher Billmann</v>
@@ -7581,7 +7572,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="str">
         <f>[1]Roster!A174</f>
         <v>Kent Hutchens</v>
@@ -7603,7 +7594,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="str">
         <f>[1]Roster!A175</f>
         <v>Amy Finn</v>
@@ -7625,7 +7616,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="str">
         <f>[1]Roster!A176</f>
         <v>Jodi Pergolis</v>
@@ -7647,7 +7638,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="str">
         <f>[1]Roster!A177</f>
         <v>Mark Barrett</v>
@@ -7669,7 +7660,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="str">
         <f>[1]Roster!A178</f>
         <v>John Towle</v>
@@ -7691,7 +7682,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="str">
         <f>[1]Roster!A179</f>
         <v>Andrew Oneil</v>
@@ -7713,7 +7704,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="str">
         <f>[1]Roster!A180</f>
         <v>Jeff Kounter</v>
@@ -7735,7 +7726,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="str">
         <f>[1]Roster!A181</f>
         <v>Kristin Ngchee</v>
@@ -7757,7 +7748,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="str">
         <f>[1]Roster!A182</f>
         <v>Carl Meister</v>
@@ -7779,7 +7770,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="str">
         <f>[1]Roster!A183</f>
         <v>Adam Martin</v>
@@ -7801,7 +7792,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="str">
         <f>[1]Roster!A184</f>
         <v>John Costello</v>
@@ -7823,7 +7814,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="str">
         <f>[1]Roster!A185</f>
         <v>Joseph Giuliano</v>
@@ -7845,7 +7836,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="str">
         <f>[1]Roster!A186</f>
         <v>Marilyn Gonzalez</v>
@@ -7867,7 +7858,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="str">
         <f>[1]Roster!A187</f>
         <v>Johnsie Ortiz</v>
@@ -7889,7 +7880,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="str">
         <f>[1]Roster!A188</f>
         <v>Lillian Colon</v>
@@ -7911,7 +7902,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="str">
         <f>[1]Roster!A189</f>
         <v>Ricardo Rojas</v>
@@ -7933,7 +7924,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="str">
         <f>[1]Roster!A190</f>
         <v>Juan Pablo Rosado</v>
@@ -7955,7 +7946,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="str">
         <f>[1]Roster!A191</f>
         <v>Alma Guadalupe</v>
@@ -7977,7 +7968,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="str">
         <f>[1]Roster!A192</f>
         <v>Mark Montello</v>
@@ -7999,7 +7990,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="str">
         <f>[1]Roster!A193</f>
         <v>Claire McSorley</v>
@@ -8021,7 +8012,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="str">
         <f>[1]Roster!A194</f>
         <v>Michael Nicolucci</v>
@@ -8036,14 +8027,14 @@
       </c>
       <c r="D194" t="str">
         <f>IF([1]Roster!G194=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E194" t="str">
         <f>IF([1]Roster!H194=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="str">
         <f>[1]Roster!A195</f>
         <v>Craig R Haubach</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95708BAE-6A85-41DD-88B9-BC3FD6FCBB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E6783B-2420-4C1E-9F06-E4B67301DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{244779BD-8F8A-4D43-83FB-535ED7C483A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F510EE1D-E412-4DC1-AAF8-28B46652AD90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -60,8 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -89,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,13 +126,10 @@
     <sheetNames>
       <sheetName val="Mapping"/>
       <sheetName val="Roster"/>
-      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Backend"/>
       <sheetName val="Sheet2"/>
-      <sheetName val="Backend"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Directors"/>
       <sheetName val="Details to set up account"/>
-      <sheetName val="Sheet4"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3199,7 +3205,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G182">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H182">
             <v>0</v>
@@ -3423,6 +3429,57 @@
             <v>0</v>
           </cell>
           <cell r="H195">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>Kimberley Olmstedkreag</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>Hari Ravindranathan</v>
+          </cell>
+          <cell r="E196" t="str">
+            <v>Oncology</v>
+          </cell>
+          <cell r="G196">
+            <v>0</v>
+          </cell>
+          <cell r="H196">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>Robert Wiley</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>Hari Ravindranathan</v>
+          </cell>
+          <cell r="E197" t="str">
+            <v>Oncology</v>
+          </cell>
+          <cell r="G197">
+            <v>0</v>
+          </cell>
+          <cell r="H197">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>John Bousum</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>Hari Ravindranathan</v>
+          </cell>
+          <cell r="E198" t="str">
+            <v>Oncology</v>
+          </cell>
+          <cell r="G198">
+            <v>0</v>
+          </cell>
+          <cell r="H198">
             <v>0</v>
           </cell>
         </row>
@@ -3431,9 +3488,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3755,11 +3809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6952F83-E3FE-4409-987D-84327B77DE8C}">
-  <dimension ref="A1:E195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D800D4-A414-4F60-B178-8CA27527C525}">
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3772,19 +3826,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7763,7 +7817,7 @@
       </c>
       <c r="D182" t="str">
         <f>IF([1]Roster!G182=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E182" t="str">
         <f>IF([1]Roster!H182=1,"complete","not-started")</f>
@@ -8056,8 +8110,75 @@
         <v>not-started</v>
       </c>
     </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="str">
+        <f>[1]Roster!A196</f>
+        <v>Kimberley Olmstedkreag</v>
+      </c>
+      <c r="B196" t="str">
+        <f>[1]Roster!C196</f>
+        <v>Hari Ravindranathan</v>
+      </c>
+      <c r="C196" t="str">
+        <f>[1]Roster!E196</f>
+        <v>Oncology</v>
+      </c>
+      <c r="D196" t="str">
+        <f>IF([1]Roster!G196=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E196" t="str">
+        <f>IF([1]Roster!H196=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" t="str">
+        <f>[1]Roster!A197</f>
+        <v>Robert Wiley</v>
+      </c>
+      <c r="B197" t="str">
+        <f>[1]Roster!C197</f>
+        <v>Hari Ravindranathan</v>
+      </c>
+      <c r="C197" t="str">
+        <f>[1]Roster!E197</f>
+        <v>Oncology</v>
+      </c>
+      <c r="D197" t="str">
+        <f>IF([1]Roster!G197=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E197" t="str">
+        <f>IF([1]Roster!H197=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" t="str">
+        <f>[1]Roster!A198</f>
+        <v>John Bousum</v>
+      </c>
+      <c r="B198" t="str">
+        <f>[1]Roster!C198</f>
+        <v>Hari Ravindranathan</v>
+      </c>
+      <c r="C198" t="str">
+        <f>[1]Roster!E198</f>
+        <v>Oncology</v>
+      </c>
+      <c r="D198" t="str">
+        <f>IF([1]Roster!G198=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E198" t="str">
+        <f>IF([1]Roster!H198=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E6783B-2420-4C1E-9F06-E4B67301DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A4991B-2FB9-4D08-81D8-994C36B9EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F510EE1D-E412-4DC1-AAF8-28B46652AD90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{315E8FD4-9BCD-4D91-AD82-963D54D78D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$203</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -148,7 +151,7 @@
             <v>0</v>
           </cell>
           <cell r="H2">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3">
@@ -165,7 +168,7 @@
             <v>1</v>
           </cell>
           <cell r="H3">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
@@ -182,7 +185,7 @@
             <v>1</v>
           </cell>
           <cell r="H4">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="5">
@@ -199,7 +202,7 @@
             <v>0</v>
           </cell>
           <cell r="H5">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="6">
@@ -216,7 +219,7 @@
             <v>0</v>
           </cell>
           <cell r="H6">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="7">
@@ -233,7 +236,7 @@
             <v>0</v>
           </cell>
           <cell r="H7">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="8">
@@ -250,7 +253,7 @@
             <v>0</v>
           </cell>
           <cell r="H8">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="9">
@@ -604,7 +607,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G29">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H29">
             <v>1</v>
@@ -740,7 +743,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H37">
             <v>0</v>
@@ -1760,7 +1763,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G97">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H97">
             <v>1</v>
@@ -1811,7 +1814,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G100">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H100">
             <v>1</v>
@@ -2542,7 +2545,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G143">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H143">
             <v>0</v>
@@ -2797,7 +2800,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G158">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H158">
             <v>0</v>
@@ -2882,7 +2885,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G163">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H163">
             <v>0</v>
@@ -2899,7 +2902,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G164">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H164">
             <v>0</v>
@@ -3137,7 +3140,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G178">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H178">
             <v>0</v>
@@ -3256,7 +3259,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G185">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H185">
             <v>0</v>
@@ -3324,7 +3327,7 @@
             <v>Puerto Rico Team</v>
           </cell>
           <cell r="G189">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H189">
             <v>0</v>
@@ -3443,7 +3446,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G196">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H196">
             <v>0</v>
@@ -3460,7 +3463,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G197">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H197">
             <v>0</v>
@@ -3477,7 +3480,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G198">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H198">
             <v>0</v>
@@ -3809,11 +3812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D800D4-A414-4F60-B178-8CA27527C525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0EF40-C141-4F6E-A0B1-8008E1B25FA4}">
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E198"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3861,7 +3864,7 @@
       </c>
       <c r="E2" t="str">
         <f>IF([1]Roster!H2=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3883,7 +3886,7 @@
       </c>
       <c r="E3" t="str">
         <f>IF([1]Roster!H3=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3905,7 +3908,7 @@
       </c>
       <c r="E4" t="str">
         <f>IF([1]Roster!H4=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3927,7 +3930,7 @@
       </c>
       <c r="E5" t="str">
         <f>IF([1]Roster!H5=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3949,7 +3952,7 @@
       </c>
       <c r="E6" t="str">
         <f>IF([1]Roster!H6=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3971,7 +3974,7 @@
       </c>
       <c r="E7" t="str">
         <f>IF([1]Roster!H7=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3993,7 +3996,7 @@
       </c>
       <c r="E8" t="str">
         <f>IF([1]Roster!H8=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4451,7 +4454,7 @@
       </c>
       <c r="D29" t="str">
         <f>IF([1]Roster!G29=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E29" t="str">
         <f>IF([1]Roster!H29=1,"complete","not-started")</f>
@@ -4627,7 +4630,7 @@
       </c>
       <c r="D37" t="str">
         <f>IF([1]Roster!G37=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E37" t="str">
         <f>IF([1]Roster!H37=1,"complete","not-started")</f>
@@ -5947,7 +5950,7 @@
       </c>
       <c r="D97" t="str">
         <f>IF([1]Roster!G97=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E97" t="str">
         <f>IF([1]Roster!H97=1,"complete","not-started")</f>
@@ -6013,7 +6016,7 @@
       </c>
       <c r="D100" t="str">
         <f>IF([1]Roster!G100=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E100" t="str">
         <f>IF([1]Roster!H100=1,"complete","not-started")</f>
@@ -6959,7 +6962,7 @@
       </c>
       <c r="D143" t="str">
         <f>IF([1]Roster!G143=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E143" t="str">
         <f>IF([1]Roster!H143=1,"complete","not-started")</f>
@@ -7289,7 +7292,7 @@
       </c>
       <c r="D158" t="str">
         <f>IF([1]Roster!G158=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E158" t="str">
         <f>IF([1]Roster!H158=1,"complete","not-started")</f>
@@ -7399,7 +7402,7 @@
       </c>
       <c r="D163" t="str">
         <f>IF([1]Roster!G163=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E163" t="str">
         <f>IF([1]Roster!H163=1,"complete","not-started")</f>
@@ -7421,7 +7424,7 @@
       </c>
       <c r="D164" t="str">
         <f>IF([1]Roster!G164=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E164" t="str">
         <f>IF([1]Roster!H164=1,"complete","not-started")</f>
@@ -7729,7 +7732,7 @@
       </c>
       <c r="D178" t="str">
         <f>IF([1]Roster!G178=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E178" t="str">
         <f>IF([1]Roster!H178=1,"complete","not-started")</f>
@@ -7883,7 +7886,7 @@
       </c>
       <c r="D185" t="str">
         <f>IF([1]Roster!G185=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E185" t="str">
         <f>IF([1]Roster!H185=1,"complete","not-started")</f>
@@ -7971,7 +7974,7 @@
       </c>
       <c r="D189" t="str">
         <f>IF([1]Roster!G189=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E189" t="str">
         <f>IF([1]Roster!H189=1,"complete","not-started")</f>
@@ -8125,7 +8128,7 @@
       </c>
       <c r="D196" t="str">
         <f>IF([1]Roster!G196=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E196" t="str">
         <f>IF([1]Roster!H196=1,"complete","not-started")</f>
@@ -8147,7 +8150,7 @@
       </c>
       <c r="D197" t="str">
         <f>IF([1]Roster!G197=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E197" t="str">
         <f>IF([1]Roster!H197=1,"complete","not-started")</f>
@@ -8169,7 +8172,7 @@
       </c>
       <c r="D198" t="str">
         <f>IF([1]Roster!G198=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E198" t="str">
         <f>IF([1]Roster!H198=1,"complete","not-started")</f>
@@ -8177,6 +8180,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E203" xr:uid="{4396AF0D-29EB-4808-A8A6-4ED66D1EEC6C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A4991B-2FB9-4D08-81D8-994C36B9EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0364C951-72DA-4E14-A551-B45B6B3FBBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{315E8FD4-9BCD-4D91-AD82-963D54D78D3D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CF0663D2-7D9D-436B-99A8-D53FE738CF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -148,7 +148,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G2">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H2">
             <v>1</v>
@@ -420,7 +420,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G18">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H18">
             <v>0</v>
@@ -525,7 +525,7 @@
             <v>1</v>
           </cell>
           <cell r="H24">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="25">
@@ -576,7 +576,7 @@
             <v>0</v>
           </cell>
           <cell r="H27">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="28">
@@ -593,7 +593,7 @@
             <v>0</v>
           </cell>
           <cell r="H28">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="29">
@@ -1423,7 +1423,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G77">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H77">
             <v>0</v>
@@ -1508,7 +1508,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G82">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H82">
             <v>0</v>
@@ -2698,7 +2698,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G152">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H152">
             <v>0</v>
@@ -2766,7 +2766,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G156">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H156">
             <v>0</v>
@@ -2919,7 +2919,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G165">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H165">
             <v>0</v>
@@ -3310,7 +3310,7 @@
             <v>Puerto Rico Team</v>
           </cell>
           <cell r="G188">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H188">
             <v>0</v>
@@ -3429,7 +3429,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G195">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H195">
             <v>0</v>
@@ -3812,11 +3812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0EF40-C141-4F6E-A0B1-8008E1B25FA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC48832-075B-485A-B9F5-C720FC9E428E}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="D2" t="str">
         <f>IF([1]Roster!G2=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E2" t="str">
         <f>IF([1]Roster!H2=1,"complete","not-started")</f>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="D18" t="str">
         <f>IF([1]Roster!G18=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E18" t="str">
         <f>IF([1]Roster!H18=1,"complete","not-started")</f>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="E24" t="str">
         <f>IF([1]Roster!H24=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E27" t="str">
         <f>IF([1]Roster!H27=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="E28" t="str">
         <f>IF([1]Roster!H28=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="D77" t="str">
         <f>IF([1]Roster!G77=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E77" t="str">
         <f>IF([1]Roster!H77=1,"complete","not-started")</f>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="D82" t="str">
         <f>IF([1]Roster!G82=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E82" t="str">
         <f>IF([1]Roster!H82=1,"complete","not-started")</f>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="D152" t="str">
         <f>IF([1]Roster!G152=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E152" t="str">
         <f>IF([1]Roster!H152=1,"complete","not-started")</f>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="D156" t="str">
         <f>IF([1]Roster!G156=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E156" t="str">
         <f>IF([1]Roster!H156=1,"complete","not-started")</f>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="D165" t="str">
         <f>IF([1]Roster!G165=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E165" t="str">
         <f>IF([1]Roster!H165=1,"complete","not-started")</f>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="D188" t="str">
         <f>IF([1]Roster!G188=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E188" t="str">
         <f>IF([1]Roster!H188=1,"complete","not-started")</f>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="D195" t="str">
         <f>IF([1]Roster!G195=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E195" t="str">
         <f>IF([1]Roster!H195=1,"complete","not-started")</f>
@@ -8180,7 +8180,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E203" xr:uid="{4396AF0D-29EB-4808-A8A6-4ED66D1EEC6C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0364C951-72DA-4E14-A551-B45B6B3FBBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4B804C-924A-461E-8436-82F6A216B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CF0663D2-7D9D-436B-99A8-D53FE738CF2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A72B2DD2-881F-44C2-B37A-97E8D8A9B077}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,7 +1426,7 @@
             <v>1</v>
           </cell>
           <cell r="H77">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="78">
@@ -1661,7 +1661,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G91">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H91">
             <v>1</v>
@@ -2596,7 +2596,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G146">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H146">
             <v>0</v>
@@ -3812,11 +3812,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC48832-075B-485A-B9F5-C720FC9E428E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A2ACAC-F0EF-45C3-B2B0-4BC54D8B49A5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3999,7 +4000,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]Roster!A9</f>
         <v>Laura Chisman</v>
@@ -4021,7 +4022,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>[1]Roster!A10</f>
         <v>John Stone</v>
@@ -4043,7 +4044,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]Roster!A11</f>
         <v>Marcus Crawford</v>
@@ -4065,7 +4066,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>[1]Roster!A12</f>
         <v>Jerry Lubben</v>
@@ -4087,7 +4088,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>[1]Roster!A13</f>
         <v>Karen Kodanko</v>
@@ -4109,7 +4110,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>[1]Roster!A14</f>
         <v>Randall Roth</v>
@@ -4131,7 +4132,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[1]Roster!A15</f>
         <v>Ann Marie Mcauliffe</v>
@@ -4153,7 +4154,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>[1]Roster!A16</f>
         <v>Callie Zampetis</v>
@@ -4175,7 +4176,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>[1]Roster!A17</f>
         <v>Darlene Halverson</v>
@@ -4197,7 +4198,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[1]Roster!A18</f>
         <v>Annemarie Pedersen</v>
@@ -4219,7 +4220,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>[1]Roster!A19</f>
         <v>Harry Herar</v>
@@ -4241,7 +4242,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>[1]Roster!A20</f>
         <v>Kristin Smith</v>
@@ -4263,7 +4264,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>[1]Roster!A21</f>
         <v>Melanie Lamarche</v>
@@ -4285,7 +4286,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>[1]Roster!A22</f>
         <v>Mysti Horwath</v>
@@ -4307,7 +4308,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>[1]Roster!A23</f>
         <v>Bridget Sullivan</v>
@@ -4351,7 +4352,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>[1]Roster!A25</f>
         <v>John Dover</v>
@@ -4373,7 +4374,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>[1]Roster!A26</f>
         <v>Cathy Prine</v>
@@ -4483,7 +4484,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>[1]Roster!A31</f>
         <v>Tamara Quarles</v>
@@ -4505,7 +4506,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>[1]Roster!A32</f>
         <v>Jennifer Forstner</v>
@@ -4527,7 +4528,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>[1]Roster!A33</f>
         <v>Jean Barnett</v>
@@ -4549,7 +4550,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>[1]Roster!A34</f>
         <v>Thomas Rossi</v>
@@ -4571,7 +4572,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>[1]Roster!A35</f>
         <v>Steven Wilber</v>
@@ -4593,7 +4594,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>[1]Roster!A36</f>
         <v>Jason Delk</v>
@@ -4615,7 +4616,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>[1]Roster!A37</f>
         <v>Katherine Mcgarrey</v>
@@ -4637,7 +4638,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>[1]Roster!A38</f>
         <v>Jim Manning</v>
@@ -4659,7 +4660,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>[1]Roster!A39</f>
         <v>Kimberly Kaloz</v>
@@ -4681,7 +4682,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>[1]Roster!A40</f>
         <v>Joseph Kewley</v>
@@ -4703,7 +4704,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>[1]Roster!A41</f>
         <v>Anne Zenzer</v>
@@ -4725,7 +4726,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>[1]Roster!A42</f>
         <v>Michael Neelon</v>
@@ -4747,7 +4748,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>[1]Roster!A43</f>
         <v>Richard Angeli</v>
@@ -4769,7 +4770,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>[1]Roster!A44</f>
         <v>Kari Schulsinger</v>
@@ -4791,7 +4792,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>[1]Roster!A45</f>
         <v>Scott Ebersol</v>
@@ -4967,7 +4968,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>[1]Roster!A53</f>
         <v>Robert Avis</v>
@@ -4989,7 +4990,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>[1]Roster!A54</f>
         <v>Gina Esposito</v>
@@ -5011,7 +5012,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>[1]Roster!A55</f>
         <v>Stefanie Schmitz</v>
@@ -5033,7 +5034,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>[1]Roster!A56</f>
         <v>Geffrey Bergh</v>
@@ -5055,7 +5056,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>[1]Roster!A57</f>
         <v>Joe Reed</v>
@@ -5077,7 +5078,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>[1]Roster!A58</f>
         <v>Jennifer Smith</v>
@@ -5099,7 +5100,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>[1]Roster!A59</f>
         <v>Robert Cantu</v>
@@ -5121,7 +5122,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>[1]Roster!A60</f>
         <v>Melanie Gobourne</v>
@@ -5143,7 +5144,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>[1]Roster!A61</f>
         <v>Andrew Metzinger</v>
@@ -5165,7 +5166,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>[1]Roster!A62</f>
         <v>Brianj Frisone</v>
@@ -5187,7 +5188,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>[1]Roster!A63</f>
         <v>David Rose</v>
@@ -5209,7 +5210,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>[1]Roster!A64</f>
         <v>John Comonitski</v>
@@ -5231,7 +5232,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>[1]Roster!A65</f>
         <v>Alicia Margoles</v>
@@ -5253,7 +5254,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>[1]Roster!A66</f>
         <v>John Durand</v>
@@ -5275,7 +5276,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>[1]Roster!A67</f>
         <v>Taylor Martin</v>
@@ -5297,7 +5298,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>[1]Roster!A68</f>
         <v>Paul Carpenter</v>
@@ -5319,7 +5320,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>[1]Roster!A69</f>
         <v>G Wigginton</v>
@@ -5341,7 +5342,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>[1]Roster!A70</f>
         <v>Todd Herman</v>
@@ -5363,7 +5364,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>[1]Roster!A71</f>
         <v>Heather Page</v>
@@ -5385,7 +5386,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>[1]Roster!A72</f>
         <v>Kristin Edwards</v>
@@ -5407,7 +5408,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>[1]Roster!A73</f>
         <v>Stan Merriken</v>
@@ -5429,7 +5430,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>[1]Roster!A74</f>
         <v>Nannette Alton-Labus</v>
@@ -5451,7 +5452,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>[1]Roster!A75</f>
         <v>Grove Bolger</v>
@@ -5473,7 +5474,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>[1]Roster!A76</f>
         <v>Edward Sot</v>
@@ -5514,10 +5515,10 @@
       </c>
       <c r="E77" t="str">
         <f>IF([1]Roster!H77=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>[1]Roster!A78</f>
         <v>Corinne Piazza</v>
@@ -5539,7 +5540,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>[1]Roster!A79</f>
         <v>Glenn Belemjian</v>
@@ -5561,7 +5562,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>[1]Roster!A80</f>
         <v>Anoop Mansukhani</v>
@@ -5583,7 +5584,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>[1]Roster!A81</f>
         <v>Jonathan Ijaz</v>
@@ -5605,7 +5606,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>[1]Roster!A82</f>
         <v>Kathryn Mckeon</v>
@@ -5627,7 +5628,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>[1]Roster!A83</f>
         <v>Keith Ingstad</v>
@@ -5649,7 +5650,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>[1]Roster!A84</f>
         <v>Joette Munoz</v>
@@ -5671,7 +5672,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>[1]Roster!A85</f>
         <v>Fran Roberts</v>
@@ -5693,7 +5694,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>[1]Roster!A86</f>
         <v>Douglas Gelatti</v>
@@ -5715,7 +5716,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>[1]Roster!A87</f>
         <v>Carrie Britton</v>
@@ -5737,7 +5738,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>[1]Roster!A88</f>
         <v>Louis Carbajal</v>
@@ -5759,7 +5760,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>[1]Roster!A89</f>
         <v>Tara Barton</v>
@@ -5781,7 +5782,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>[1]Roster!A90</f>
         <v>Jay Shen</v>
@@ -5818,7 +5819,7 @@
       </c>
       <c r="D91" t="str">
         <f>IF([1]Roster!G91=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E91" t="str">
         <f>IF([1]Roster!H91=1,"complete","not-started")</f>
@@ -6177,7 +6178,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>[1]Roster!A108</f>
         <v>Laura Ruiz-Martinez</v>
@@ -6199,7 +6200,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>[1]Roster!A109</f>
         <v>Leslie Brunette</v>
@@ -6221,7 +6222,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>[1]Roster!A110</f>
         <v>Chris Golden</v>
@@ -6243,7 +6244,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>[1]Roster!A111</f>
         <v>Michelle Moylanelder</v>
@@ -6265,7 +6266,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>[1]Roster!A112</f>
         <v>Lynn Mckinley</v>
@@ -6287,7 +6288,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>[1]Roster!A113</f>
         <v>Sarah Sawyer</v>
@@ -6419,7 +6420,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>[1]Roster!A119</f>
         <v>Theodore Scheff</v>
@@ -6441,7 +6442,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>[1]Roster!A120</f>
         <v>Michelle Reeder</v>
@@ -6463,7 +6464,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>[1]Roster!A121</f>
         <v>Annie Laporta</v>
@@ -6485,7 +6486,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>[1]Roster!A122</f>
         <v>Leslie Nodler</v>
@@ -6507,7 +6508,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>[1]Roster!A123</f>
         <v>James Kemp</v>
@@ -6529,7 +6530,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>[1]Roster!A124</f>
         <v>James Devins</v>
@@ -6551,7 +6552,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>[1]Roster!A125</f>
         <v>Lisa Hohman</v>
@@ -6573,7 +6574,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>[1]Roster!A126</f>
         <v>Jennifer Bentley</v>
@@ -6595,7 +6596,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>[1]Roster!A127</f>
         <v>Peter Hayek</v>
@@ -6617,7 +6618,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>[1]Roster!A128</f>
         <v>Jane Dantinne</v>
@@ -6639,7 +6640,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>[1]Roster!A129</f>
         <v>Kerry Yamat</v>
@@ -6661,7 +6662,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
         <f>[1]Roster!A130</f>
         <v>Kyle Spencer</v>
@@ -6683,7 +6684,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
         <f>[1]Roster!A131</f>
         <v>Shilpa Kalawadia</v>
@@ -6705,7 +6706,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="str">
         <f>[1]Roster!A132</f>
         <v>Steven Gardner</v>
@@ -6727,7 +6728,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
         <f>[1]Roster!A133</f>
         <v>Dawn Conrad</v>
@@ -6749,7 +6750,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f>[1]Roster!A134</f>
         <v>Paula Novabilski</v>
@@ -6771,7 +6772,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f>[1]Roster!A135</f>
         <v>Lynnette Nestor</v>
@@ -6793,7 +6794,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f>[1]Roster!A136</f>
         <v>Melissa Rieflin</v>
@@ -6815,7 +6816,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
         <f>[1]Roster!A137</f>
         <v>Bill Germond</v>
@@ -6837,7 +6838,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
         <f>[1]Roster!A138</f>
         <v>Andrea Hobbs</v>
@@ -6859,7 +6860,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="str">
         <f>[1]Roster!A139</f>
         <v>Tobey Hoambrecker</v>
@@ -6881,7 +6882,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
         <f>[1]Roster!A140</f>
         <v>Kimberly Kunkleman</v>
@@ -6903,7 +6904,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="str">
         <f>[1]Roster!A141</f>
         <v>Jennifer Neumer</v>
@@ -6925,7 +6926,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="str">
         <f>[1]Roster!A142</f>
         <v>Joseph Yurt</v>
@@ -6947,7 +6948,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="str">
         <f>[1]Roster!A143</f>
         <v>Christopher Gosselin</v>
@@ -6969,7 +6970,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
         <f>[1]Roster!A144</f>
         <v>Jason Monk</v>
@@ -6991,7 +6992,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="str">
         <f>[1]Roster!A145</f>
         <v>Dawn Hansen</v>
@@ -7013,7 +7014,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="str">
         <f>[1]Roster!A146</f>
         <v>Karyn Tomlin</v>
@@ -7028,14 +7029,14 @@
       </c>
       <c r="D146" t="str">
         <f>IF([1]Roster!G146=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E146" t="str">
         <f>IF([1]Roster!H146=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="str">
         <f>[1]Roster!A147</f>
         <v>Troy Siragusa</v>
@@ -7057,7 +7058,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f>[1]Roster!A148</f>
         <v>Sylvia Jacobs</v>
@@ -7079,7 +7080,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="str">
         <f>[1]Roster!A149</f>
         <v>Brandon Black</v>
@@ -7101,7 +7102,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="str">
         <f>[1]Roster!A150</f>
         <v>Michelleb Mitchell</v>
@@ -7123,7 +7124,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="str">
         <f>[1]Roster!A151</f>
         <v>Deborah Bergman</v>
@@ -7145,7 +7146,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="str">
         <f>[1]Roster!A152</f>
         <v>Robby Robinson</v>
@@ -7167,7 +7168,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="str">
         <f>[1]Roster!A153</f>
         <v>Nikole Austrup-Jones</v>
@@ -7189,7 +7190,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="str">
         <f>[1]Roster!A154</f>
         <v>Jasmina Boruta</v>
@@ -7211,7 +7212,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="str">
         <f>[1]Roster!A155</f>
         <v>Larry Balone</v>
@@ -7233,7 +7234,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="str">
         <f>[1]Roster!A156</f>
         <v>John Foster</v>
@@ -7255,7 +7256,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="str">
         <f>[1]Roster!A157</f>
         <v>Alexis Amici</v>
@@ -7277,7 +7278,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
         <f>[1]Roster!A158</f>
         <v>Michele Torelli</v>
@@ -7299,7 +7300,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="str">
         <f>[1]Roster!A159</f>
         <v>Steve Fowler</v>
@@ -7321,7 +7322,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="str">
         <f>[1]Roster!A160</f>
         <v>Tiffany Grand</v>
@@ -7343,7 +7344,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="str">
         <f>[1]Roster!A161</f>
         <v>Thomas Berte</v>
@@ -7365,7 +7366,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
         <f>[1]Roster!A162</f>
         <v>Tara Fleming</v>
@@ -7387,7 +7388,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="str">
         <f>[1]Roster!A163</f>
         <v>Ann Wagner</v>
@@ -7409,7 +7410,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="str">
         <f>[1]Roster!A164</f>
         <v>David Williams</v>
@@ -7431,7 +7432,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
         <f>[1]Roster!A165</f>
         <v>Douglas Slape</v>
@@ -7453,7 +7454,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="str">
         <f>[1]Roster!A166</f>
         <v>Shandra Harvey Stewart</v>
@@ -7475,7 +7476,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="str">
         <f>[1]Roster!A167</f>
         <v>Hayley Ludwig</v>
@@ -7497,7 +7498,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="str">
         <f>[1]Roster!A168</f>
         <v>Maureen Hall</v>
@@ -7519,7 +7520,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="str">
         <f>[1]Roster!A169</f>
         <v>Randy Benson</v>
@@ -7541,7 +7542,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="str">
         <f>[1]Roster!A170</f>
         <v>Mark Campbell</v>
@@ -7563,7 +7564,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="str">
         <f>[1]Roster!A171</f>
         <v>Bree Carlin</v>
@@ -7585,7 +7586,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="str">
         <f>[1]Roster!A172</f>
         <v>Cecelia Daly</v>
@@ -7607,7 +7608,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="str">
         <f>[1]Roster!A173</f>
         <v>Christopher Billmann</v>
@@ -7629,7 +7630,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="str">
         <f>[1]Roster!A174</f>
         <v>Kent Hutchens</v>
@@ -7651,7 +7652,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="str">
         <f>[1]Roster!A175</f>
         <v>Amy Finn</v>
@@ -7673,7 +7674,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="str">
         <f>[1]Roster!A176</f>
         <v>Jodi Pergolis</v>
@@ -7695,7 +7696,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="str">
         <f>[1]Roster!A177</f>
         <v>Mark Barrett</v>
@@ -7717,7 +7718,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="str">
         <f>[1]Roster!A178</f>
         <v>John Towle</v>
@@ -7739,7 +7740,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="str">
         <f>[1]Roster!A179</f>
         <v>Andrew Oneil</v>
@@ -7761,7 +7762,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="str">
         <f>[1]Roster!A180</f>
         <v>Jeff Kounter</v>
@@ -7783,7 +7784,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="str">
         <f>[1]Roster!A181</f>
         <v>Kristin Ngchee</v>
@@ -7805,7 +7806,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="str">
         <f>[1]Roster!A182</f>
         <v>Carl Meister</v>
@@ -7827,7 +7828,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="str">
         <f>[1]Roster!A183</f>
         <v>Adam Martin</v>
@@ -7849,7 +7850,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="str">
         <f>[1]Roster!A184</f>
         <v>John Costello</v>
@@ -7871,7 +7872,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="str">
         <f>[1]Roster!A185</f>
         <v>Joseph Giuliano</v>
@@ -7893,7 +7894,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="str">
         <f>[1]Roster!A186</f>
         <v>Marilyn Gonzalez</v>
@@ -7915,7 +7916,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="str">
         <f>[1]Roster!A187</f>
         <v>Johnsie Ortiz</v>
@@ -7937,7 +7938,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="str">
         <f>[1]Roster!A188</f>
         <v>Lillian Colon</v>
@@ -7959,7 +7960,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="str">
         <f>[1]Roster!A189</f>
         <v>Ricardo Rojas</v>
@@ -7981,7 +7982,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="str">
         <f>[1]Roster!A190</f>
         <v>Juan Pablo Rosado</v>
@@ -8003,7 +8004,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="str">
         <f>[1]Roster!A191</f>
         <v>Alma Guadalupe</v>
@@ -8025,7 +8026,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="str">
         <f>[1]Roster!A192</f>
         <v>Mark Montello</v>
@@ -8047,7 +8048,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="str">
         <f>[1]Roster!A193</f>
         <v>Claire McSorley</v>
@@ -8069,7 +8070,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="str">
         <f>[1]Roster!A194</f>
         <v>Michael Nicolucci</v>
@@ -8091,7 +8092,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="str">
         <f>[1]Roster!A195</f>
         <v>Craig R Haubach</v>
@@ -8113,7 +8114,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="str">
         <f>[1]Roster!A196</f>
         <v>Kimberley Olmstedkreag</v>
@@ -8135,7 +8136,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="str">
         <f>[1]Roster!A197</f>
         <v>Robert Wiley</v>
@@ -8157,7 +8158,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="str">
         <f>[1]Roster!A198</f>
         <v>John Bousum</v>
@@ -8180,6 +8181,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E198" xr:uid="{4396AF0D-29EB-4808-A8A6-4ED66D1EEC6C}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="complete"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4B804C-924A-461E-8436-82F6A216B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{573FA910-E825-41BD-850B-F5566B575C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A72B2DD2-881F-44C2-B37A-97E8D8A9B077}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06B413F4-CE64-4362-8F98-A1F1EE7C58A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,6 +129,7 @@
     <sheetNames>
       <sheetName val="Mapping"/>
       <sheetName val="Roster"/>
+      <sheetName val="Sheet3"/>
       <sheetName val="Sheet1"/>
       <sheetName val="Backend"/>
       <sheetName val="Sheet2"/>
@@ -233,7 +234,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G7">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H7">
             <v>1</v>
@@ -301,7 +302,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G11">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H11">
             <v>0</v>
@@ -437,7 +438,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G19">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H19">
             <v>0</v>
@@ -471,7 +472,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G21">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H21">
             <v>0</v>
@@ -542,7 +543,7 @@
             <v>1</v>
           </cell>
           <cell r="H25">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="26">
@@ -559,7 +560,7 @@
             <v>0</v>
           </cell>
           <cell r="H26">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="27">
@@ -624,7 +625,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G30">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H30">
             <v>1</v>
@@ -644,7 +645,7 @@
             <v>0</v>
           </cell>
           <cell r="H31">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="32">
@@ -661,7 +662,7 @@
             <v>1</v>
           </cell>
           <cell r="H32">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="33">
@@ -675,10 +676,10 @@
             <v>IAM</v>
           </cell>
           <cell r="G33">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H33">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="34">
@@ -695,7 +696,7 @@
             <v>0</v>
           </cell>
           <cell r="H34">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="35">
@@ -712,7 +713,7 @@
             <v>1</v>
           </cell>
           <cell r="H35">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="36">
@@ -729,7 +730,7 @@
             <v>1</v>
           </cell>
           <cell r="H36">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="37">
@@ -746,7 +747,7 @@
             <v>1</v>
           </cell>
           <cell r="H37">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="38">
@@ -947,7 +948,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G49">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H49">
             <v>1</v>
@@ -1032,7 +1033,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G54">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H54">
             <v>0</v>
@@ -1066,7 +1067,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G56">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H56">
             <v>0</v>
@@ -1083,7 +1084,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G57">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H57">
             <v>0</v>
@@ -1253,7 +1254,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G67">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H67">
             <v>0</v>
@@ -1545,7 +1546,7 @@
             <v>0</v>
           </cell>
           <cell r="H84">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="85">
@@ -1562,7 +1563,7 @@
             <v>0</v>
           </cell>
           <cell r="H85">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="86">
@@ -1579,7 +1580,7 @@
             <v>1</v>
           </cell>
           <cell r="H86">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="87">
@@ -1596,7 +1597,7 @@
             <v>1</v>
           </cell>
           <cell r="H87">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="88">
@@ -1610,10 +1611,10 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G88">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H88">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="89">
@@ -1630,7 +1631,7 @@
             <v>1</v>
           </cell>
           <cell r="H89">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="90">
@@ -1644,10 +1645,10 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G90">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H90">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="91">
@@ -1712,7 +1713,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G94">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H94">
             <v>1</v>
@@ -1797,7 +1798,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G99">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H99">
             <v>1</v>
@@ -1848,7 +1849,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G102">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H102">
             <v>1</v>
@@ -1933,7 +1934,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G107">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H107">
             <v>1</v>
@@ -1967,7 +1968,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G109">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H109">
             <v>0</v>
@@ -1984,7 +1985,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G110">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H110">
             <v>0</v>
@@ -2001,7 +2002,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G111">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H111">
             <v>0</v>
@@ -2052,7 +2053,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G114">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H114">
             <v>1</v>
@@ -2188,7 +2189,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G122">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H122">
             <v>0</v>
@@ -2256,7 +2257,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G126">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H126">
             <v>0</v>
@@ -2273,7 +2274,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G127">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H127">
             <v>0</v>
@@ -2324,7 +2325,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G130">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H130">
             <v>0</v>
@@ -2358,7 +2359,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G132">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H132">
             <v>0</v>
@@ -2375,7 +2376,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G133">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H133">
             <v>0</v>
@@ -2409,7 +2410,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G135">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H135">
             <v>0</v>
@@ -2477,7 +2478,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G139">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H139">
             <v>0</v>
@@ -2494,7 +2495,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G140">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H140">
             <v>0</v>
@@ -2715,7 +2716,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G153">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H153">
             <v>0</v>
@@ -2749,10 +2750,10 @@
             <v>Oncology</v>
           </cell>
           <cell r="G155">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H155">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="156">
@@ -2769,7 +2770,7 @@
             <v>1</v>
           </cell>
           <cell r="H156">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="157">
@@ -2786,7 +2787,7 @@
             <v>0</v>
           </cell>
           <cell r="H157">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="158">
@@ -2803,7 +2804,7 @@
             <v>1</v>
           </cell>
           <cell r="H158">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="159">
@@ -2820,7 +2821,7 @@
             <v>0</v>
           </cell>
           <cell r="H159">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="160">
@@ -2834,10 +2835,10 @@
             <v>Oncology</v>
           </cell>
           <cell r="G160">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H160">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="161">
@@ -2854,7 +2855,7 @@
             <v>0</v>
           </cell>
           <cell r="H161">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="162">
@@ -2871,7 +2872,7 @@
             <v>0</v>
           </cell>
           <cell r="H162">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="163">
@@ -2888,7 +2889,7 @@
             <v>1</v>
           </cell>
           <cell r="H163">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="164">
@@ -2905,7 +2906,7 @@
             <v>1</v>
           </cell>
           <cell r="H164">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="165">
@@ -2922,7 +2923,7 @@
             <v>1</v>
           </cell>
           <cell r="H165">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="166">
@@ -2953,7 +2954,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G167">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H167">
             <v>0</v>
@@ -2990,7 +2991,7 @@
             <v>0</v>
           </cell>
           <cell r="H169">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="170">
@@ -3058,7 +3059,7 @@
             <v>1</v>
           </cell>
           <cell r="H173">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="174">
@@ -3174,7 +3175,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G180">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H180">
             <v>0</v>
@@ -3225,7 +3226,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G183">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H183">
             <v>0</v>
@@ -3491,6 +3492,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3812,12 +3814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A2ACAC-F0EF-45C3-B2B0-4BC54D8B49A5}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF234A6C-5B6C-48F8-9718-F114CB78FEAA}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3971,7 +3972,7 @@
       </c>
       <c r="D7" t="str">
         <f>IF([1]Roster!G7=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E7" t="str">
         <f>IF([1]Roster!H7=1,"complete","not-started")</f>
@@ -4000,7 +4001,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]Roster!A9</f>
         <v>Laura Chisman</v>
@@ -4022,7 +4023,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>[1]Roster!A10</f>
         <v>John Stone</v>
@@ -4044,7 +4045,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]Roster!A11</f>
         <v>Marcus Crawford</v>
@@ -4059,14 +4060,14 @@
       </c>
       <c r="D11" t="str">
         <f>IF([1]Roster!G11=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E11" t="str">
         <f>IF([1]Roster!H11=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>[1]Roster!A12</f>
         <v>Jerry Lubben</v>
@@ -4088,7 +4089,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>[1]Roster!A13</f>
         <v>Karen Kodanko</v>
@@ -4110,7 +4111,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>[1]Roster!A14</f>
         <v>Randall Roth</v>
@@ -4132,7 +4133,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[1]Roster!A15</f>
         <v>Ann Marie Mcauliffe</v>
@@ -4154,7 +4155,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>[1]Roster!A16</f>
         <v>Callie Zampetis</v>
@@ -4176,7 +4177,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>[1]Roster!A17</f>
         <v>Darlene Halverson</v>
@@ -4198,7 +4199,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[1]Roster!A18</f>
         <v>Annemarie Pedersen</v>
@@ -4220,7 +4221,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>[1]Roster!A19</f>
         <v>Harry Herar</v>
@@ -4235,14 +4236,14 @@
       </c>
       <c r="D19" t="str">
         <f>IF([1]Roster!G19=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E19" t="str">
         <f>IF([1]Roster!H19=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>[1]Roster!A20</f>
         <v>Kristin Smith</v>
@@ -4264,7 +4265,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>[1]Roster!A21</f>
         <v>Melanie Lamarche</v>
@@ -4279,14 +4280,14 @@
       </c>
       <c r="D21" t="str">
         <f>IF([1]Roster!G21=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E21" t="str">
         <f>IF([1]Roster!H21=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>[1]Roster!A22</f>
         <v>Mysti Horwath</v>
@@ -4308,7 +4309,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>[1]Roster!A23</f>
         <v>Bridget Sullivan</v>
@@ -4352,7 +4353,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>[1]Roster!A25</f>
         <v>John Dover</v>
@@ -4371,10 +4372,10 @@
       </c>
       <c r="E25" t="str">
         <f>IF([1]Roster!H25=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>[1]Roster!A26</f>
         <v>Cathy Prine</v>
@@ -4393,7 +4394,7 @@
       </c>
       <c r="E26" t="str">
         <f>IF([1]Roster!H26=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -4477,14 +4478,14 @@
       </c>
       <c r="D30" t="str">
         <f>IF([1]Roster!G30=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E30" t="str">
         <f>IF([1]Roster!H30=1,"complete","not-started")</f>
         <v>complete</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>[1]Roster!A31</f>
         <v>Tamara Quarles</v>
@@ -4503,10 +4504,10 @@
       </c>
       <c r="E31" t="str">
         <f>IF([1]Roster!H31=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>[1]Roster!A32</f>
         <v>Jennifer Forstner</v>
@@ -4525,10 +4526,10 @@
       </c>
       <c r="E32" t="str">
         <f>IF([1]Roster!H32=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>[1]Roster!A33</f>
         <v>Jean Barnett</v>
@@ -4543,14 +4544,14 @@
       </c>
       <c r="D33" t="str">
         <f>IF([1]Roster!G33=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E33" t="str">
         <f>IF([1]Roster!H33=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>[1]Roster!A34</f>
         <v>Thomas Rossi</v>
@@ -4569,10 +4570,10 @@
       </c>
       <c r="E34" t="str">
         <f>IF([1]Roster!H34=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>[1]Roster!A35</f>
         <v>Steven Wilber</v>
@@ -4591,10 +4592,10 @@
       </c>
       <c r="E35" t="str">
         <f>IF([1]Roster!H35=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>[1]Roster!A36</f>
         <v>Jason Delk</v>
@@ -4613,10 +4614,10 @@
       </c>
       <c r="E36" t="str">
         <f>IF([1]Roster!H36=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>[1]Roster!A37</f>
         <v>Katherine Mcgarrey</v>
@@ -4635,10 +4636,10 @@
       </c>
       <c r="E37" t="str">
         <f>IF([1]Roster!H37=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>[1]Roster!A38</f>
         <v>Jim Manning</v>
@@ -4660,7 +4661,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>[1]Roster!A39</f>
         <v>Kimberly Kaloz</v>
@@ -4682,7 +4683,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>[1]Roster!A40</f>
         <v>Joseph Kewley</v>
@@ -4704,7 +4705,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>[1]Roster!A41</f>
         <v>Anne Zenzer</v>
@@ -4726,7 +4727,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>[1]Roster!A42</f>
         <v>Michael Neelon</v>
@@ -4748,7 +4749,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>[1]Roster!A43</f>
         <v>Richard Angeli</v>
@@ -4770,7 +4771,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>[1]Roster!A44</f>
         <v>Kari Schulsinger</v>
@@ -4792,7 +4793,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>[1]Roster!A45</f>
         <v>Scott Ebersol</v>
@@ -4895,7 +4896,7 @@
       </c>
       <c r="D49" t="str">
         <f>IF([1]Roster!G49=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E49" t="str">
         <f>IF([1]Roster!H49=1,"complete","not-started")</f>
@@ -4968,7 +4969,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>[1]Roster!A53</f>
         <v>Robert Avis</v>
@@ -4990,7 +4991,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>[1]Roster!A54</f>
         <v>Gina Esposito</v>
@@ -5005,14 +5006,14 @@
       </c>
       <c r="D54" t="str">
         <f>IF([1]Roster!G54=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E54" t="str">
         <f>IF([1]Roster!H54=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>[1]Roster!A55</f>
         <v>Stefanie Schmitz</v>
@@ -5034,7 +5035,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>[1]Roster!A56</f>
         <v>Geffrey Bergh</v>
@@ -5049,14 +5050,14 @@
       </c>
       <c r="D56" t="str">
         <f>IF([1]Roster!G56=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E56" t="str">
         <f>IF([1]Roster!H56=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>[1]Roster!A57</f>
         <v>Joe Reed</v>
@@ -5071,14 +5072,14 @@
       </c>
       <c r="D57" t="str">
         <f>IF([1]Roster!G57=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E57" t="str">
         <f>IF([1]Roster!H57=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>[1]Roster!A58</f>
         <v>Jennifer Smith</v>
@@ -5100,7 +5101,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>[1]Roster!A59</f>
         <v>Robert Cantu</v>
@@ -5122,7 +5123,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>[1]Roster!A60</f>
         <v>Melanie Gobourne</v>
@@ -5144,7 +5145,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>[1]Roster!A61</f>
         <v>Andrew Metzinger</v>
@@ -5166,7 +5167,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>[1]Roster!A62</f>
         <v>Brianj Frisone</v>
@@ -5188,7 +5189,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>[1]Roster!A63</f>
         <v>David Rose</v>
@@ -5210,7 +5211,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>[1]Roster!A64</f>
         <v>John Comonitski</v>
@@ -5232,7 +5233,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>[1]Roster!A65</f>
         <v>Alicia Margoles</v>
@@ -5254,7 +5255,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>[1]Roster!A66</f>
         <v>John Durand</v>
@@ -5276,7 +5277,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>[1]Roster!A67</f>
         <v>Taylor Martin</v>
@@ -5291,14 +5292,14 @@
       </c>
       <c r="D67" t="str">
         <f>IF([1]Roster!G67=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E67" t="str">
         <f>IF([1]Roster!H67=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>[1]Roster!A68</f>
         <v>Paul Carpenter</v>
@@ -5320,7 +5321,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>[1]Roster!A69</f>
         <v>G Wigginton</v>
@@ -5342,7 +5343,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>[1]Roster!A70</f>
         <v>Todd Herman</v>
@@ -5364,7 +5365,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>[1]Roster!A71</f>
         <v>Heather Page</v>
@@ -5386,7 +5387,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>[1]Roster!A72</f>
         <v>Kristin Edwards</v>
@@ -5408,7 +5409,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>[1]Roster!A73</f>
         <v>Stan Merriken</v>
@@ -5430,7 +5431,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>[1]Roster!A74</f>
         <v>Nannette Alton-Labus</v>
@@ -5452,7 +5453,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>[1]Roster!A75</f>
         <v>Grove Bolger</v>
@@ -5474,7 +5475,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>[1]Roster!A76</f>
         <v>Edward Sot</v>
@@ -5518,7 +5519,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>[1]Roster!A78</f>
         <v>Corinne Piazza</v>
@@ -5540,7 +5541,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>[1]Roster!A79</f>
         <v>Glenn Belemjian</v>
@@ -5562,7 +5563,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>[1]Roster!A80</f>
         <v>Anoop Mansukhani</v>
@@ -5584,7 +5585,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>[1]Roster!A81</f>
         <v>Jonathan Ijaz</v>
@@ -5606,7 +5607,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>[1]Roster!A82</f>
         <v>Kathryn Mckeon</v>
@@ -5628,7 +5629,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>[1]Roster!A83</f>
         <v>Keith Ingstad</v>
@@ -5650,7 +5651,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>[1]Roster!A84</f>
         <v>Joette Munoz</v>
@@ -5669,10 +5670,10 @@
       </c>
       <c r="E84" t="str">
         <f>IF([1]Roster!H84=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>[1]Roster!A85</f>
         <v>Fran Roberts</v>
@@ -5691,10 +5692,10 @@
       </c>
       <c r="E85" t="str">
         <f>IF([1]Roster!H85=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>[1]Roster!A86</f>
         <v>Douglas Gelatti</v>
@@ -5713,10 +5714,10 @@
       </c>
       <c r="E86" t="str">
         <f>IF([1]Roster!H86=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>[1]Roster!A87</f>
         <v>Carrie Britton</v>
@@ -5735,10 +5736,10 @@
       </c>
       <c r="E87" t="str">
         <f>IF([1]Roster!H87=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>[1]Roster!A88</f>
         <v>Louis Carbajal</v>
@@ -5753,14 +5754,14 @@
       </c>
       <c r="D88" t="str">
         <f>IF([1]Roster!G88=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E88" t="str">
         <f>IF([1]Roster!H88=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>[1]Roster!A89</f>
         <v>Tara Barton</v>
@@ -5779,10 +5780,10 @@
       </c>
       <c r="E89" t="str">
         <f>IF([1]Roster!H89=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>[1]Roster!A90</f>
         <v>Jay Shen</v>
@@ -5797,11 +5798,11 @@
       </c>
       <c r="D90" t="str">
         <f>IF([1]Roster!G90=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E90" t="str">
         <f>IF([1]Roster!H90=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -5885,7 +5886,7 @@
       </c>
       <c r="D94" t="str">
         <f>IF([1]Roster!G94=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E94" t="str">
         <f>IF([1]Roster!H94=1,"complete","not-started")</f>
@@ -5995,7 +5996,7 @@
       </c>
       <c r="D99" t="str">
         <f>IF([1]Roster!G99=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E99" t="str">
         <f>IF([1]Roster!H99=1,"complete","not-started")</f>
@@ -6061,7 +6062,7 @@
       </c>
       <c r="D102" t="str">
         <f>IF([1]Roster!G102=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E102" t="str">
         <f>IF([1]Roster!H102=1,"complete","not-started")</f>
@@ -6171,14 +6172,14 @@
       </c>
       <c r="D107" t="str">
         <f>IF([1]Roster!G107=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E107" t="str">
         <f>IF([1]Roster!H107=1,"complete","not-started")</f>
         <v>complete</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>[1]Roster!A108</f>
         <v>Laura Ruiz-Martinez</v>
@@ -6200,7 +6201,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>[1]Roster!A109</f>
         <v>Leslie Brunette</v>
@@ -6215,14 +6216,14 @@
       </c>
       <c r="D109" t="str">
         <f>IF([1]Roster!G109=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E109" t="str">
         <f>IF([1]Roster!H109=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>[1]Roster!A110</f>
         <v>Chris Golden</v>
@@ -6237,14 +6238,14 @@
       </c>
       <c r="D110" t="str">
         <f>IF([1]Roster!G110=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E110" t="str">
         <f>IF([1]Roster!H110=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>[1]Roster!A111</f>
         <v>Michelle Moylanelder</v>
@@ -6259,14 +6260,14 @@
       </c>
       <c r="D111" t="str">
         <f>IF([1]Roster!G111=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E111" t="str">
         <f>IF([1]Roster!H111=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>[1]Roster!A112</f>
         <v>Lynn Mckinley</v>
@@ -6288,7 +6289,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>[1]Roster!A113</f>
         <v>Sarah Sawyer</v>
@@ -6325,7 +6326,7 @@
       </c>
       <c r="D114" t="str">
         <f>IF([1]Roster!G114=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E114" t="str">
         <f>IF([1]Roster!H114=1,"complete","not-started")</f>
@@ -6420,7 +6421,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>[1]Roster!A119</f>
         <v>Theodore Scheff</v>
@@ -6442,7 +6443,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>[1]Roster!A120</f>
         <v>Michelle Reeder</v>
@@ -6464,7 +6465,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>[1]Roster!A121</f>
         <v>Annie Laporta</v>
@@ -6486,7 +6487,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>[1]Roster!A122</f>
         <v>Leslie Nodler</v>
@@ -6501,14 +6502,14 @@
       </c>
       <c r="D122" t="str">
         <f>IF([1]Roster!G122=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E122" t="str">
         <f>IF([1]Roster!H122=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>[1]Roster!A123</f>
         <v>James Kemp</v>
@@ -6530,7 +6531,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>[1]Roster!A124</f>
         <v>James Devins</v>
@@ -6552,7 +6553,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>[1]Roster!A125</f>
         <v>Lisa Hohman</v>
@@ -6574,7 +6575,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>[1]Roster!A126</f>
         <v>Jennifer Bentley</v>
@@ -6589,14 +6590,14 @@
       </c>
       <c r="D126" t="str">
         <f>IF([1]Roster!G126=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E126" t="str">
         <f>IF([1]Roster!H126=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>[1]Roster!A127</f>
         <v>Peter Hayek</v>
@@ -6611,14 +6612,14 @@
       </c>
       <c r="D127" t="str">
         <f>IF([1]Roster!G127=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E127" t="str">
         <f>IF([1]Roster!H127=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>[1]Roster!A128</f>
         <v>Jane Dantinne</v>
@@ -6640,7 +6641,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>[1]Roster!A129</f>
         <v>Kerry Yamat</v>
@@ -6662,7 +6663,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
         <f>[1]Roster!A130</f>
         <v>Kyle Spencer</v>
@@ -6677,14 +6678,14 @@
       </c>
       <c r="D130" t="str">
         <f>IF([1]Roster!G130=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E130" t="str">
         <f>IF([1]Roster!H130=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
         <f>[1]Roster!A131</f>
         <v>Shilpa Kalawadia</v>
@@ -6706,7 +6707,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="str">
         <f>[1]Roster!A132</f>
         <v>Steven Gardner</v>
@@ -6721,14 +6722,14 @@
       </c>
       <c r="D132" t="str">
         <f>IF([1]Roster!G132=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E132" t="str">
         <f>IF([1]Roster!H132=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
         <f>[1]Roster!A133</f>
         <v>Dawn Conrad</v>
@@ -6743,14 +6744,14 @@
       </c>
       <c r="D133" t="str">
         <f>IF([1]Roster!G133=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E133" t="str">
         <f>IF([1]Roster!H133=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f>[1]Roster!A134</f>
         <v>Paula Novabilski</v>
@@ -6772,7 +6773,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f>[1]Roster!A135</f>
         <v>Lynnette Nestor</v>
@@ -6787,14 +6788,14 @@
       </c>
       <c r="D135" t="str">
         <f>IF([1]Roster!G135=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E135" t="str">
         <f>IF([1]Roster!H135=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f>[1]Roster!A136</f>
         <v>Melissa Rieflin</v>
@@ -6816,7 +6817,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
         <f>[1]Roster!A137</f>
         <v>Bill Germond</v>
@@ -6838,7 +6839,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
         <f>[1]Roster!A138</f>
         <v>Andrea Hobbs</v>
@@ -6860,7 +6861,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="str">
         <f>[1]Roster!A139</f>
         <v>Tobey Hoambrecker</v>
@@ -6875,14 +6876,14 @@
       </c>
       <c r="D139" t="str">
         <f>IF([1]Roster!G139=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E139" t="str">
         <f>IF([1]Roster!H139=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
         <f>[1]Roster!A140</f>
         <v>Kimberly Kunkleman</v>
@@ -6897,14 +6898,14 @@
       </c>
       <c r="D140" t="str">
         <f>IF([1]Roster!G140=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E140" t="str">
         <f>IF([1]Roster!H140=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="str">
         <f>[1]Roster!A141</f>
         <v>Jennifer Neumer</v>
@@ -6926,7 +6927,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="str">
         <f>[1]Roster!A142</f>
         <v>Joseph Yurt</v>
@@ -6948,7 +6949,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="str">
         <f>[1]Roster!A143</f>
         <v>Christopher Gosselin</v>
@@ -6970,7 +6971,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
         <f>[1]Roster!A144</f>
         <v>Jason Monk</v>
@@ -6992,7 +6993,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="str">
         <f>[1]Roster!A145</f>
         <v>Dawn Hansen</v>
@@ -7014,7 +7015,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="str">
         <f>[1]Roster!A146</f>
         <v>Karyn Tomlin</v>
@@ -7036,7 +7037,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="str">
         <f>[1]Roster!A147</f>
         <v>Troy Siragusa</v>
@@ -7058,7 +7059,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f>[1]Roster!A148</f>
         <v>Sylvia Jacobs</v>
@@ -7080,7 +7081,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="str">
         <f>[1]Roster!A149</f>
         <v>Brandon Black</v>
@@ -7102,7 +7103,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="str">
         <f>[1]Roster!A150</f>
         <v>Michelleb Mitchell</v>
@@ -7124,7 +7125,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="str">
         <f>[1]Roster!A151</f>
         <v>Deborah Bergman</v>
@@ -7146,7 +7147,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="str">
         <f>[1]Roster!A152</f>
         <v>Robby Robinson</v>
@@ -7168,7 +7169,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="str">
         <f>[1]Roster!A153</f>
         <v>Nikole Austrup-Jones</v>
@@ -7183,14 +7184,14 @@
       </c>
       <c r="D153" t="str">
         <f>IF([1]Roster!G153=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E153" t="str">
         <f>IF([1]Roster!H153=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="str">
         <f>[1]Roster!A154</f>
         <v>Jasmina Boruta</v>
@@ -7212,7 +7213,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="str">
         <f>[1]Roster!A155</f>
         <v>Larry Balone</v>
@@ -7227,14 +7228,14 @@
       </c>
       <c r="D155" t="str">
         <f>IF([1]Roster!G155=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E155" t="str">
         <f>IF([1]Roster!H155=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="str">
         <f>[1]Roster!A156</f>
         <v>John Foster</v>
@@ -7253,10 +7254,10 @@
       </c>
       <c r="E156" t="str">
         <f>IF([1]Roster!H156=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="str">
         <f>[1]Roster!A157</f>
         <v>Alexis Amici</v>
@@ -7275,10 +7276,10 @@
       </c>
       <c r="E157" t="str">
         <f>IF([1]Roster!H157=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
         <f>[1]Roster!A158</f>
         <v>Michele Torelli</v>
@@ -7297,10 +7298,10 @@
       </c>
       <c r="E158" t="str">
         <f>IF([1]Roster!H158=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="str">
         <f>[1]Roster!A159</f>
         <v>Steve Fowler</v>
@@ -7319,10 +7320,10 @@
       </c>
       <c r="E159" t="str">
         <f>IF([1]Roster!H159=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="str">
         <f>[1]Roster!A160</f>
         <v>Tiffany Grand</v>
@@ -7337,14 +7338,14 @@
       </c>
       <c r="D160" t="str">
         <f>IF([1]Roster!G160=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E160" t="str">
         <f>IF([1]Roster!H160=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="str">
         <f>[1]Roster!A161</f>
         <v>Thomas Berte</v>
@@ -7363,10 +7364,10 @@
       </c>
       <c r="E161" t="str">
         <f>IF([1]Roster!H161=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
         <f>[1]Roster!A162</f>
         <v>Tara Fleming</v>
@@ -7385,10 +7386,10 @@
       </c>
       <c r="E162" t="str">
         <f>IF([1]Roster!H162=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="str">
         <f>[1]Roster!A163</f>
         <v>Ann Wagner</v>
@@ -7407,10 +7408,10 @@
       </c>
       <c r="E163" t="str">
         <f>IF([1]Roster!H163=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="str">
         <f>[1]Roster!A164</f>
         <v>David Williams</v>
@@ -7429,10 +7430,10 @@
       </c>
       <c r="E164" t="str">
         <f>IF([1]Roster!H164=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
         <f>[1]Roster!A165</f>
         <v>Douglas Slape</v>
@@ -7451,10 +7452,10 @@
       </c>
       <c r="E165" t="str">
         <f>IF([1]Roster!H165=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="str">
         <f>[1]Roster!A166</f>
         <v>Shandra Harvey Stewart</v>
@@ -7476,7 +7477,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="str">
         <f>[1]Roster!A167</f>
         <v>Hayley Ludwig</v>
@@ -7491,14 +7492,14 @@
       </c>
       <c r="D167" t="str">
         <f>IF([1]Roster!G167=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E167" t="str">
         <f>IF([1]Roster!H167=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="str">
         <f>[1]Roster!A168</f>
         <v>Maureen Hall</v>
@@ -7520,7 +7521,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="str">
         <f>[1]Roster!A169</f>
         <v>Randy Benson</v>
@@ -7539,10 +7540,10 @@
       </c>
       <c r="E169" t="str">
         <f>IF([1]Roster!H169=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="str">
         <f>[1]Roster!A170</f>
         <v>Mark Campbell</v>
@@ -7564,7 +7565,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="str">
         <f>[1]Roster!A171</f>
         <v>Bree Carlin</v>
@@ -7586,7 +7587,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="str">
         <f>[1]Roster!A172</f>
         <v>Cecelia Daly</v>
@@ -7608,7 +7609,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="str">
         <f>[1]Roster!A173</f>
         <v>Christopher Billmann</v>
@@ -7627,10 +7628,10 @@
       </c>
       <c r="E173" t="str">
         <f>IF([1]Roster!H173=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="str">
         <f>[1]Roster!A174</f>
         <v>Kent Hutchens</v>
@@ -7652,7 +7653,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="str">
         <f>[1]Roster!A175</f>
         <v>Amy Finn</v>
@@ -7674,7 +7675,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="str">
         <f>[1]Roster!A176</f>
         <v>Jodi Pergolis</v>
@@ -7696,7 +7697,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="str">
         <f>[1]Roster!A177</f>
         <v>Mark Barrett</v>
@@ -7718,7 +7719,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="str">
         <f>[1]Roster!A178</f>
         <v>John Towle</v>
@@ -7740,7 +7741,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="str">
         <f>[1]Roster!A179</f>
         <v>Andrew Oneil</v>
@@ -7762,7 +7763,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="str">
         <f>[1]Roster!A180</f>
         <v>Jeff Kounter</v>
@@ -7777,14 +7778,14 @@
       </c>
       <c r="D180" t="str">
         <f>IF([1]Roster!G180=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E180" t="str">
         <f>IF([1]Roster!H180=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="str">
         <f>[1]Roster!A181</f>
         <v>Kristin Ngchee</v>
@@ -7806,7 +7807,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="str">
         <f>[1]Roster!A182</f>
         <v>Carl Meister</v>
@@ -7828,7 +7829,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="str">
         <f>[1]Roster!A183</f>
         <v>Adam Martin</v>
@@ -7843,14 +7844,14 @@
       </c>
       <c r="D183" t="str">
         <f>IF([1]Roster!G183=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E183" t="str">
         <f>IF([1]Roster!H183=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="str">
         <f>[1]Roster!A184</f>
         <v>John Costello</v>
@@ -7872,7 +7873,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="str">
         <f>[1]Roster!A185</f>
         <v>Joseph Giuliano</v>
@@ -7894,7 +7895,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="str">
         <f>[1]Roster!A186</f>
         <v>Marilyn Gonzalez</v>
@@ -7916,7 +7917,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="str">
         <f>[1]Roster!A187</f>
         <v>Johnsie Ortiz</v>
@@ -7938,7 +7939,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="str">
         <f>[1]Roster!A188</f>
         <v>Lillian Colon</v>
@@ -7960,7 +7961,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="str">
         <f>[1]Roster!A189</f>
         <v>Ricardo Rojas</v>
@@ -7982,7 +7983,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="str">
         <f>[1]Roster!A190</f>
         <v>Juan Pablo Rosado</v>
@@ -8004,7 +8005,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="str">
         <f>[1]Roster!A191</f>
         <v>Alma Guadalupe</v>
@@ -8026,7 +8027,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="str">
         <f>[1]Roster!A192</f>
         <v>Mark Montello</v>
@@ -8048,7 +8049,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="str">
         <f>[1]Roster!A193</f>
         <v>Claire McSorley</v>
@@ -8070,7 +8071,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="str">
         <f>[1]Roster!A194</f>
         <v>Michael Nicolucci</v>
@@ -8092,7 +8093,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="str">
         <f>[1]Roster!A195</f>
         <v>Craig R Haubach</v>
@@ -8114,7 +8115,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="str">
         <f>[1]Roster!A196</f>
         <v>Kimberley Olmstedkreag</v>
@@ -8136,7 +8137,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="str">
         <f>[1]Roster!A197</f>
         <v>Robert Wiley</v>
@@ -8158,7 +8159,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="str">
         <f>[1]Roster!A198</f>
         <v>John Bousum</v>
@@ -8181,13 +8182,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E198" xr:uid="{4396AF0D-29EB-4808-A8A6-4ED66D1EEC6C}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="complete"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{573FA910-E825-41BD-850B-F5566B575C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D06B622-54C4-4F6F-B6DD-E54EBA6849A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06B413F4-CE64-4362-8F98-A1F1EE7C58A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{77923088-F63A-4C9C-9309-38450BF1615A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$195</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3285,7 +3285,7 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>Johnsie Ortiz</v>
+            <v>Lillian Colon</v>
           </cell>
           <cell r="C187" t="str">
             <v>Carlos Eduardo Munoz Borrero</v>
@@ -3294,7 +3294,7 @@
             <v>Puerto Rico Team</v>
           </cell>
           <cell r="G187">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H187">
             <v>0</v>
@@ -3302,7 +3302,7 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>Lillian Colon</v>
+            <v>Juan Pablo Rosado</v>
           </cell>
           <cell r="C188" t="str">
             <v>Carlos Eduardo Munoz Borrero</v>
@@ -3311,7 +3311,7 @@
             <v>Puerto Rico Team</v>
           </cell>
           <cell r="G188">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="H188">
             <v>0</v>
@@ -3319,16 +3319,16 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>Ricardo Rojas</v>
+            <v>Mark Montello</v>
           </cell>
           <cell r="C189" t="str">
-            <v>Carlos Eduardo Munoz Borrero</v>
+            <v>Hari Ravindranathan</v>
           </cell>
           <cell r="E189" t="str">
-            <v>Puerto Rico Team</v>
+            <v>Oncology</v>
           </cell>
           <cell r="G189">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="H189">
             <v>0</v>
@@ -3336,13 +3336,13 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Juan Pablo Rosado</v>
+            <v>Claire McSorley</v>
           </cell>
           <cell r="C190" t="str">
-            <v>Carlos Eduardo Munoz Borrero</v>
+            <v>Hari Ravindranathan</v>
           </cell>
           <cell r="E190" t="str">
-            <v>Puerto Rico Team</v>
+            <v>Oncology</v>
           </cell>
           <cell r="G190">
             <v>0</v>
@@ -3353,16 +3353,16 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Alma Guadalupe</v>
+            <v>Michael Nicolucci</v>
           </cell>
           <cell r="C191" t="str">
-            <v>Carlos Eduardo Munoz Borrero</v>
+            <v>Hari Ravindranathan</v>
           </cell>
           <cell r="E191" t="str">
-            <v>Puerto Rico Team</v>
+            <v>Oncology</v>
           </cell>
           <cell r="G191">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H191">
             <v>0</v>
@@ -3370,7 +3370,7 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Mark Montello</v>
+            <v>Craig R Haubach</v>
           </cell>
           <cell r="C192" t="str">
             <v>Hari Ravindranathan</v>
@@ -3379,7 +3379,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G192">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H192">
             <v>0</v>
@@ -3387,7 +3387,7 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Claire McSorley</v>
+            <v>Kimberley Olmstedkreag</v>
           </cell>
           <cell r="C193" t="str">
             <v>Hari Ravindranathan</v>
@@ -3396,7 +3396,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G193">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H193">
             <v>0</v>
@@ -3404,7 +3404,7 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Michael Nicolucci</v>
+            <v>Robert Wiley</v>
           </cell>
           <cell r="C194" t="str">
             <v>Hari Ravindranathan</v>
@@ -3421,7 +3421,7 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Craig R Haubach</v>
+            <v>John Bousum</v>
           </cell>
           <cell r="C195" t="str">
             <v>Hari Ravindranathan</v>
@@ -3438,16 +3438,16 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Kimberley Olmstedkreag</v>
+            <v>Daniel Paul Casterline</v>
           </cell>
           <cell r="C196" t="str">
-            <v>Hari Ravindranathan</v>
+            <v>Dave Hull</v>
           </cell>
           <cell r="E196" t="str">
-            <v>Oncology</v>
+            <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G196">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="H196">
             <v>0</v>
@@ -3455,16 +3455,16 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Robert Wiley</v>
+            <v>Luke Woods</v>
           </cell>
           <cell r="C197" t="str">
-            <v>Hari Ravindranathan</v>
+            <v>Dave Hull</v>
           </cell>
           <cell r="E197" t="str">
-            <v>Oncology</v>
+            <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G197">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="H197">
             <v>0</v>
@@ -3472,18 +3472,69 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>John Bousum</v>
+            <v>Kim Cothran Elmore</v>
           </cell>
           <cell r="C198" t="str">
-            <v>Hari Ravindranathan</v>
+            <v>Dave Hull</v>
           </cell>
           <cell r="E198" t="str">
-            <v>Oncology</v>
+            <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G198">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="H198">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>Robert Yates</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>Dave Hull</v>
+          </cell>
+          <cell r="E199" t="str">
+            <v xml:space="preserve">Vaccines </v>
+          </cell>
+          <cell r="G199">
+            <v>0</v>
+          </cell>
+          <cell r="H199">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>Michele Stewart</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>Dave Hull</v>
+          </cell>
+          <cell r="E200" t="str">
+            <v xml:space="preserve">Vaccines </v>
+          </cell>
+          <cell r="G200">
+            <v>0</v>
+          </cell>
+          <cell r="H200">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>Chris Lee</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>Kate Fennell</v>
+          </cell>
+          <cell r="E201" t="str">
+            <v xml:space="preserve">Vaccines </v>
+          </cell>
+          <cell r="G201">
+            <v>0</v>
+          </cell>
+          <cell r="H201">
             <v>0</v>
           </cell>
         </row>
@@ -3814,11 +3865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF234A6C-5B6C-48F8-9718-F114CB78FEAA}">
-  <dimension ref="A1:E198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EA536C-8846-469A-9038-3395DD930350}">
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+      <selection activeCell="E2" sqref="E2:E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7920,7 +7971,7 @@
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="str">
         <f>[1]Roster!A187</f>
-        <v>Johnsie Ortiz</v>
+        <v>Lillian Colon</v>
       </c>
       <c r="B187" t="str">
         <f>[1]Roster!C187</f>
@@ -7932,7 +7983,7 @@
       </c>
       <c r="D187" t="str">
         <f>IF([1]Roster!G187=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E187" t="str">
         <f>IF([1]Roster!H187=1,"complete","not-started")</f>
@@ -7942,7 +7993,7 @@
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="str">
         <f>[1]Roster!A188</f>
-        <v>Lillian Colon</v>
+        <v>Juan Pablo Rosado</v>
       </c>
       <c r="B188" t="str">
         <f>[1]Roster!C188</f>
@@ -7954,7 +8005,7 @@
       </c>
       <c r="D188" t="str">
         <f>IF([1]Roster!G188=1,"complete","not-started")</f>
-        <v>complete</v>
+        <v>not-started</v>
       </c>
       <c r="E188" t="str">
         <f>IF([1]Roster!H188=1,"complete","not-started")</f>
@@ -7964,19 +8015,19 @@
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="str">
         <f>[1]Roster!A189</f>
-        <v>Ricardo Rojas</v>
+        <v>Mark Montello</v>
       </c>
       <c r="B189" t="str">
         <f>[1]Roster!C189</f>
-        <v>Carlos Eduardo Munoz Borrero</v>
+        <v>Hari Ravindranathan</v>
       </c>
       <c r="C189" t="str">
         <f>[1]Roster!E189</f>
-        <v>Puerto Rico Team</v>
+        <v>Oncology</v>
       </c>
       <c r="D189" t="str">
         <f>IF([1]Roster!G189=1,"complete","not-started")</f>
-        <v>complete</v>
+        <v>not-started</v>
       </c>
       <c r="E189" t="str">
         <f>IF([1]Roster!H189=1,"complete","not-started")</f>
@@ -7986,15 +8037,15 @@
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="str">
         <f>[1]Roster!A190</f>
-        <v>Juan Pablo Rosado</v>
+        <v>Claire McSorley</v>
       </c>
       <c r="B190" t="str">
         <f>[1]Roster!C190</f>
-        <v>Carlos Eduardo Munoz Borrero</v>
+        <v>Hari Ravindranathan</v>
       </c>
       <c r="C190" t="str">
         <f>[1]Roster!E190</f>
-        <v>Puerto Rico Team</v>
+        <v>Oncology</v>
       </c>
       <c r="D190" t="str">
         <f>IF([1]Roster!G190=1,"complete","not-started")</f>
@@ -8008,19 +8059,19 @@
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="str">
         <f>[1]Roster!A191</f>
-        <v>Alma Guadalupe</v>
+        <v>Michael Nicolucci</v>
       </c>
       <c r="B191" t="str">
         <f>[1]Roster!C191</f>
-        <v>Carlos Eduardo Munoz Borrero</v>
+        <v>Hari Ravindranathan</v>
       </c>
       <c r="C191" t="str">
         <f>[1]Roster!E191</f>
-        <v>Puerto Rico Team</v>
+        <v>Oncology</v>
       </c>
       <c r="D191" t="str">
         <f>IF([1]Roster!G191=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E191" t="str">
         <f>IF([1]Roster!H191=1,"complete","not-started")</f>
@@ -8030,7 +8081,7 @@
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="str">
         <f>[1]Roster!A192</f>
-        <v>Mark Montello</v>
+        <v>Craig R Haubach</v>
       </c>
       <c r="B192" t="str">
         <f>[1]Roster!C192</f>
@@ -8042,7 +8093,7 @@
       </c>
       <c r="D192" t="str">
         <f>IF([1]Roster!G192=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E192" t="str">
         <f>IF([1]Roster!H192=1,"complete","not-started")</f>
@@ -8052,7 +8103,7 @@
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="str">
         <f>[1]Roster!A193</f>
-        <v>Claire McSorley</v>
+        <v>Kimberley Olmstedkreag</v>
       </c>
       <c r="B193" t="str">
         <f>[1]Roster!C193</f>
@@ -8064,7 +8115,7 @@
       </c>
       <c r="D193" t="str">
         <f>IF([1]Roster!G193=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E193" t="str">
         <f>IF([1]Roster!H193=1,"complete","not-started")</f>
@@ -8074,7 +8125,7 @@
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="str">
         <f>[1]Roster!A194</f>
-        <v>Michael Nicolucci</v>
+        <v>Robert Wiley</v>
       </c>
       <c r="B194" t="str">
         <f>[1]Roster!C194</f>
@@ -8096,7 +8147,7 @@
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="str">
         <f>[1]Roster!A195</f>
-        <v>Craig R Haubach</v>
+        <v>John Bousum</v>
       </c>
       <c r="B195" t="str">
         <f>[1]Roster!C195</f>
@@ -8118,19 +8169,19 @@
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="str">
         <f>[1]Roster!A196</f>
-        <v>Kimberley Olmstedkreag</v>
+        <v>Daniel Paul Casterline</v>
       </c>
       <c r="B196" t="str">
         <f>[1]Roster!C196</f>
-        <v>Hari Ravindranathan</v>
+        <v>Dave Hull</v>
       </c>
       <c r="C196" t="str">
         <f>[1]Roster!E196</f>
-        <v>Oncology</v>
+        <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D196" t="str">
         <f>IF([1]Roster!G196=1,"complete","not-started")</f>
-        <v>complete</v>
+        <v>not-started</v>
       </c>
       <c r="E196" t="str">
         <f>IF([1]Roster!H196=1,"complete","not-started")</f>
@@ -8140,19 +8191,19 @@
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="str">
         <f>[1]Roster!A197</f>
-        <v>Robert Wiley</v>
+        <v>Luke Woods</v>
       </c>
       <c r="B197" t="str">
         <f>[1]Roster!C197</f>
-        <v>Hari Ravindranathan</v>
+        <v>Dave Hull</v>
       </c>
       <c r="C197" t="str">
         <f>[1]Roster!E197</f>
-        <v>Oncology</v>
+        <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D197" t="str">
         <f>IF([1]Roster!G197=1,"complete","not-started")</f>
-        <v>complete</v>
+        <v>not-started</v>
       </c>
       <c r="E197" t="str">
         <f>IF([1]Roster!H197=1,"complete","not-started")</f>
@@ -8162,22 +8213,88 @@
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="str">
         <f>[1]Roster!A198</f>
-        <v>John Bousum</v>
+        <v>Kim Cothran Elmore</v>
       </c>
       <c r="B198" t="str">
         <f>[1]Roster!C198</f>
-        <v>Hari Ravindranathan</v>
+        <v>Dave Hull</v>
       </c>
       <c r="C198" t="str">
         <f>[1]Roster!E198</f>
-        <v>Oncology</v>
+        <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D198" t="str">
         <f>IF([1]Roster!G198=1,"complete","not-started")</f>
-        <v>complete</v>
+        <v>not-started</v>
       </c>
       <c r="E198" t="str">
         <f>IF([1]Roster!H198=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" t="str">
+        <f>[1]Roster!A199</f>
+        <v>Robert Yates</v>
+      </c>
+      <c r="B199" t="str">
+        <f>[1]Roster!C199</f>
+        <v>Dave Hull</v>
+      </c>
+      <c r="C199" t="str">
+        <f>[1]Roster!E199</f>
+        <v xml:space="preserve">Vaccines </v>
+      </c>
+      <c r="D199" t="str">
+        <f>IF([1]Roster!G199=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E199" t="str">
+        <f>IF([1]Roster!H199=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" t="str">
+        <f>[1]Roster!A200</f>
+        <v>Michele Stewart</v>
+      </c>
+      <c r="B200" t="str">
+        <f>[1]Roster!C200</f>
+        <v>Dave Hull</v>
+      </c>
+      <c r="C200" t="str">
+        <f>[1]Roster!E200</f>
+        <v xml:space="preserve">Vaccines </v>
+      </c>
+      <c r="D200" t="str">
+        <f>IF([1]Roster!G200=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E200" t="str">
+        <f>IF([1]Roster!H200=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" t="str">
+        <f>[1]Roster!A201</f>
+        <v>Chris Lee</v>
+      </c>
+      <c r="B201" t="str">
+        <f>[1]Roster!C201</f>
+        <v>Kate Fennell</v>
+      </c>
+      <c r="C201" t="str">
+        <f>[1]Roster!E201</f>
+        <v xml:space="preserve">Vaccines </v>
+      </c>
+      <c r="D201" t="str">
+        <f>IF([1]Roster!G201=1,"complete","not-started")</f>
+        <v>not-started</v>
+      </c>
+      <c r="E201" t="str">
+        <f>IF([1]Roster!H201=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D06B622-54C4-4F6F-B6DD-E54EBA6849A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC3CC3E-207D-4650-9D60-AE5D7733A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{77923088-F63A-4C9C-9309-38450BF1615A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{917D774A-5AC2-4E46-A64E-544EEF1BF7C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$195</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +47,7 @@
     <t>Director</t>
   </si>
   <si>
-    <t>Business_Unit</t>
+    <t>Busuness_Unit</t>
   </si>
   <si>
     <t>selfAssessment</t>
@@ -63,16 +60,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -100,9 +89,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,16 +116,19 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Mapping"/>
+      <sheetName val="Added"/>
       <sheetName val="Roster"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Removed"/>
+      <sheetName val="Backend"/>
+      <sheetName val="Directors"/>
+      <sheetName val="Details to set up account"/>
       <sheetName val="Sheet3"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Backend"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Details to set up account"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="2">
           <cell r="A2" t="str">
             <v>Bryan Martinez</v>
@@ -200,7 +191,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G5">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H5">
             <v>1</v>
@@ -217,7 +208,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G6">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H6">
             <v>1</v>
@@ -251,7 +242,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G8">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H8">
             <v>1</v>
@@ -693,7 +684,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G34">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H34">
             <v>1</v>
@@ -795,7 +786,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G40">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H40">
             <v>0</v>
@@ -1016,7 +1007,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G53">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H53">
             <v>0</v>
@@ -1135,7 +1126,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G60">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H60">
             <v>0</v>
@@ -1288,7 +1279,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G69">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H69">
             <v>0</v>
@@ -1441,7 +1432,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G78">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H78">
             <v>0</v>
@@ -1492,7 +1483,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G81">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H81">
             <v>0</v>
@@ -1543,7 +1534,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G84">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H84">
             <v>1</v>
@@ -2070,7 +2061,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G115">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H115">
             <v>1</v>
@@ -2427,7 +2418,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G136">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H136">
             <v>0</v>
@@ -2784,7 +2775,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G157">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H157">
             <v>1</v>
@@ -2818,7 +2809,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G159">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H159">
             <v>1</v>
@@ -2852,7 +2843,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G161">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H161">
             <v>1</v>
@@ -2869,7 +2860,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G162">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H162">
             <v>1</v>
@@ -3464,7 +3455,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G197">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H197">
             <v>0</v>
@@ -3481,7 +3472,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G198">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H198">
             <v>0</v>
@@ -3515,7 +3506,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G200">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H200">
             <v>0</v>
@@ -3532,18 +3523,19 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G201">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H201">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3865,11 +3857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EA536C-8846-469A-9038-3395DD930350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A60607-35E6-4038-A74D-AE6F6A04A7EF}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E201"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3882,19 +3874,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3979,7 +3971,7 @@
       </c>
       <c r="D5" t="str">
         <f>IF([1]Roster!G5=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E5" t="str">
         <f>IF([1]Roster!H5=1,"complete","not-started")</f>
@@ -4001,7 +3993,7 @@
       </c>
       <c r="D6" t="str">
         <f>IF([1]Roster!G6=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E6" t="str">
         <f>IF([1]Roster!H6=1,"complete","not-started")</f>
@@ -4045,7 +4037,7 @@
       </c>
       <c r="D8" t="str">
         <f>IF([1]Roster!G8=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E8" t="str">
         <f>IF([1]Roster!H8=1,"complete","not-started")</f>
@@ -4617,7 +4609,7 @@
       </c>
       <c r="D34" t="str">
         <f>IF([1]Roster!G34=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E34" t="str">
         <f>IF([1]Roster!H34=1,"complete","not-started")</f>
@@ -4749,7 +4741,7 @@
       </c>
       <c r="D40" t="str">
         <f>IF([1]Roster!G40=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E40" t="str">
         <f>IF([1]Roster!H40=1,"complete","not-started")</f>
@@ -5035,7 +5027,7 @@
       </c>
       <c r="D53" t="str">
         <f>IF([1]Roster!G53=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E53" t="str">
         <f>IF([1]Roster!H53=1,"complete","not-started")</f>
@@ -5189,7 +5181,7 @@
       </c>
       <c r="D60" t="str">
         <f>IF([1]Roster!G60=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E60" t="str">
         <f>IF([1]Roster!H60=1,"complete","not-started")</f>
@@ -5387,7 +5379,7 @@
       </c>
       <c r="D69" t="str">
         <f>IF([1]Roster!G69=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E69" t="str">
         <f>IF([1]Roster!H69=1,"complete","not-started")</f>
@@ -5585,7 +5577,7 @@
       </c>
       <c r="D78" t="str">
         <f>IF([1]Roster!G78=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E78" t="str">
         <f>IF([1]Roster!H78=1,"complete","not-started")</f>
@@ -5651,7 +5643,7 @@
       </c>
       <c r="D81" t="str">
         <f>IF([1]Roster!G81=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E81" t="str">
         <f>IF([1]Roster!H81=1,"complete","not-started")</f>
@@ -5717,7 +5709,7 @@
       </c>
       <c r="D84" t="str">
         <f>IF([1]Roster!G84=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E84" t="str">
         <f>IF([1]Roster!H84=1,"complete","not-started")</f>
@@ -6399,7 +6391,7 @@
       </c>
       <c r="D115" t="str">
         <f>IF([1]Roster!G115=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E115" t="str">
         <f>IF([1]Roster!H115=1,"complete","not-started")</f>
@@ -6861,7 +6853,7 @@
       </c>
       <c r="D136" t="str">
         <f>IF([1]Roster!G136=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E136" t="str">
         <f>IF([1]Roster!H136=1,"complete","not-started")</f>
@@ -7323,7 +7315,7 @@
       </c>
       <c r="D157" t="str">
         <f>IF([1]Roster!G157=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E157" t="str">
         <f>IF([1]Roster!H157=1,"complete","not-started")</f>
@@ -7367,7 +7359,7 @@
       </c>
       <c r="D159" t="str">
         <f>IF([1]Roster!G159=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E159" t="str">
         <f>IF([1]Roster!H159=1,"complete","not-started")</f>
@@ -7411,7 +7403,7 @@
       </c>
       <c r="D161" t="str">
         <f>IF([1]Roster!G161=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E161" t="str">
         <f>IF([1]Roster!H161=1,"complete","not-started")</f>
@@ -7433,7 +7425,7 @@
       </c>
       <c r="D162" t="str">
         <f>IF([1]Roster!G162=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E162" t="str">
         <f>IF([1]Roster!H162=1,"complete","not-started")</f>
@@ -8203,7 +8195,7 @@
       </c>
       <c r="D197" t="str">
         <f>IF([1]Roster!G197=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E197" t="str">
         <f>IF([1]Roster!H197=1,"complete","not-started")</f>
@@ -8225,7 +8217,7 @@
       </c>
       <c r="D198" t="str">
         <f>IF([1]Roster!G198=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E198" t="str">
         <f>IF([1]Roster!H198=1,"complete","not-started")</f>
@@ -8269,7 +8261,7 @@
       </c>
       <c r="D200" t="str">
         <f>IF([1]Roster!G200=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E200" t="str">
         <f>IF([1]Roster!H200=1,"complete","not-started")</f>
@@ -8291,16 +8283,15 @@
       </c>
       <c r="D201" t="str">
         <f>IF([1]Roster!G201=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E201" t="str">
         <f>IF([1]Roster!H201=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC3CC3E-207D-4650-9D60-AE5D7733A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C48012-9BBE-43ED-9BA0-30524488DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{917D774A-5AC2-4E46-A64E-544EEF1BF7C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2B83DA6-8356-40DF-B414-4645394357FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G42">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H42">
             <v>0</v>
@@ -871,7 +871,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G45">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H45">
             <v>0</v>
@@ -956,7 +956,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G50">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H50">
             <v>1</v>
@@ -1194,7 +1194,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G64">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H64">
             <v>0</v>
@@ -1330,7 +1330,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G72">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H72">
             <v>0</v>
@@ -1381,7 +1381,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G75">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H75">
             <v>0</v>
@@ -1398,7 +1398,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G76">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H76">
             <v>0</v>
@@ -1823,7 +1823,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G101">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H101">
             <v>1</v>
@@ -2333,7 +2333,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G131">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H131">
             <v>0</v>
@@ -2979,7 +2979,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G169">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H169">
             <v>1</v>
@@ -3438,7 +3438,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G196">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H196">
             <v>0</v>
@@ -3857,10 +3857,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A60607-35E6-4038-A74D-AE6F6A04A7EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC2F176-90EB-4F50-BD62-A52753659CB1}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D42" t="str">
         <f>IF([1]Roster!G42=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E42" t="str">
         <f>IF([1]Roster!H42=1,"complete","not-started")</f>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D45" t="str">
         <f>IF([1]Roster!G45=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E45" t="str">
         <f>IF([1]Roster!H45=1,"complete","not-started")</f>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D50" t="str">
         <f>IF([1]Roster!G50=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E50" t="str">
         <f>IF([1]Roster!H50=1,"complete","not-started")</f>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D64" t="str">
         <f>IF([1]Roster!G64=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E64" t="str">
         <f>IF([1]Roster!H64=1,"complete","not-started")</f>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D72" t="str">
         <f>IF([1]Roster!G72=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E72" t="str">
         <f>IF([1]Roster!H72=1,"complete","not-started")</f>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D75" t="str">
         <f>IF([1]Roster!G75=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E75" t="str">
         <f>IF([1]Roster!H75=1,"complete","not-started")</f>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D76" t="str">
         <f>IF([1]Roster!G76=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E76" t="str">
         <f>IF([1]Roster!H76=1,"complete","not-started")</f>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="D101" t="str">
         <f>IF([1]Roster!G101=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E101" t="str">
         <f>IF([1]Roster!H101=1,"complete","not-started")</f>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="D131" t="str">
         <f>IF([1]Roster!G131=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E131" t="str">
         <f>IF([1]Roster!H131=1,"complete","not-started")</f>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D169" t="str">
         <f>IF([1]Roster!G169=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E169" t="str">
         <f>IF([1]Roster!H169=1,"complete","not-started")</f>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="D196" t="str">
         <f>IF([1]Roster!G196=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E196" t="str">
         <f>IF([1]Roster!H196=1,"complete","not-started")</f>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C48012-9BBE-43ED-9BA0-30524488DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4B9D07-5EA2-4832-ABF8-FF870221C5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2B83DA6-8356-40DF-B414-4645394357FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{33298BC3-9A09-4573-AD88-882962F59133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$201</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -310,7 +313,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G12">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H12">
             <v>0</v>
@@ -327,7 +330,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H13">
             <v>0</v>
@@ -344,7 +347,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G14">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H14">
             <v>0</v>
@@ -497,7 +500,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G23">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H23">
             <v>0</v>
@@ -582,7 +585,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G28">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H28">
             <v>1</v>
@@ -752,7 +755,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G38">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H38">
             <v>0</v>
@@ -803,7 +806,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G41">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H41">
             <v>0</v>
@@ -854,7 +857,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G44">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H44">
             <v>0</v>
@@ -922,7 +925,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G48">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H48">
             <v>1</v>
@@ -1010,7 +1013,7 @@
             <v>1</v>
           </cell>
           <cell r="H53">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="54">
@@ -1027,7 +1030,7 @@
             <v>1</v>
           </cell>
           <cell r="H54">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="55">
@@ -1044,7 +1047,7 @@
             <v>1</v>
           </cell>
           <cell r="H55">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="56">
@@ -1061,7 +1064,7 @@
             <v>1</v>
           </cell>
           <cell r="H56">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="57">
@@ -1078,7 +1081,7 @@
             <v>1</v>
           </cell>
           <cell r="H57">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="58">
@@ -1095,7 +1098,7 @@
             <v>1</v>
           </cell>
           <cell r="H58">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="59">
@@ -1112,7 +1115,7 @@
             <v>1</v>
           </cell>
           <cell r="H59">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="60">
@@ -1129,7 +1132,7 @@
             <v>1</v>
           </cell>
           <cell r="H60">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="61">
@@ -1143,10 +1146,10 @@
             <v>IAM</v>
           </cell>
           <cell r="G61">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H61">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="62">
@@ -1163,7 +1166,7 @@
             <v>1</v>
           </cell>
           <cell r="H62">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="63">
@@ -1177,10 +1180,10 @@
             <v>IAM</v>
           </cell>
           <cell r="G63">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H63">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="64">
@@ -1197,7 +1200,7 @@
             <v>1</v>
           </cell>
           <cell r="H64">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="65">
@@ -1214,7 +1217,7 @@
             <v>1</v>
           </cell>
           <cell r="H65">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="66">
@@ -1231,7 +1234,7 @@
             <v>0</v>
           </cell>
           <cell r="H66">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="67">
@@ -1248,7 +1251,7 @@
             <v>1</v>
           </cell>
           <cell r="H67">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="68">
@@ -1265,7 +1268,7 @@
             <v>0</v>
           </cell>
           <cell r="H68">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="69">
@@ -1282,7 +1285,7 @@
             <v>1</v>
           </cell>
           <cell r="H69">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="70">
@@ -1299,7 +1302,7 @@
             <v>1</v>
           </cell>
           <cell r="H70">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="71">
@@ -1333,7 +1336,7 @@
             <v>1</v>
           </cell>
           <cell r="H72">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="73">
@@ -1350,7 +1353,7 @@
             <v>0</v>
           </cell>
           <cell r="H73">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="74">
@@ -1367,7 +1370,7 @@
             <v>1</v>
           </cell>
           <cell r="H74">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="75">
@@ -1384,7 +1387,7 @@
             <v>1</v>
           </cell>
           <cell r="H75">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="76">
@@ -1401,7 +1404,7 @@
             <v>1</v>
           </cell>
           <cell r="H76">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="77">
@@ -1435,7 +1438,7 @@
             <v>1</v>
           </cell>
           <cell r="H78">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="79">
@@ -1452,7 +1455,7 @@
             <v>1</v>
           </cell>
           <cell r="H79">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="80">
@@ -1469,7 +1472,7 @@
             <v>1</v>
           </cell>
           <cell r="H80">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="81">
@@ -1486,7 +1489,7 @@
             <v>1</v>
           </cell>
           <cell r="H81">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="82">
@@ -1503,7 +1506,7 @@
             <v>1</v>
           </cell>
           <cell r="H82">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="83">
@@ -1520,7 +1523,7 @@
             <v>1</v>
           </cell>
           <cell r="H83">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="84">
@@ -1551,7 +1554,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G85">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H85">
             <v>1</v>
@@ -1962,7 +1965,7 @@
             <v>1</v>
           </cell>
           <cell r="H109">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="110">
@@ -1979,7 +1982,7 @@
             <v>1</v>
           </cell>
           <cell r="H110">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="111">
@@ -1996,7 +1999,7 @@
             <v>1</v>
           </cell>
           <cell r="H111">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="112">
@@ -2013,7 +2016,7 @@
             <v>1</v>
           </cell>
           <cell r="H112">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="113">
@@ -2027,10 +2030,10 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G113">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H113">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="114">
@@ -2132,7 +2135,7 @@
             <v>1</v>
           </cell>
           <cell r="H119">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="120">
@@ -2149,7 +2152,7 @@
             <v>1</v>
           </cell>
           <cell r="H120">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="121">
@@ -2166,7 +2169,7 @@
             <v>1</v>
           </cell>
           <cell r="H121">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="122">
@@ -2183,7 +2186,7 @@
             <v>1</v>
           </cell>
           <cell r="H122">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="123">
@@ -2200,7 +2203,7 @@
             <v>1</v>
           </cell>
           <cell r="H123">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="124">
@@ -2217,7 +2220,7 @@
             <v>1</v>
           </cell>
           <cell r="H124">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="125">
@@ -2234,7 +2237,7 @@
             <v>1</v>
           </cell>
           <cell r="H125">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="126">
@@ -2251,7 +2254,7 @@
             <v>1</v>
           </cell>
           <cell r="H126">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="127">
@@ -2268,7 +2271,7 @@
             <v>1</v>
           </cell>
           <cell r="H127">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="128">
@@ -2285,7 +2288,7 @@
             <v>1</v>
           </cell>
           <cell r="H128">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="129">
@@ -2302,7 +2305,7 @@
             <v>1</v>
           </cell>
           <cell r="H129">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="130">
@@ -2319,7 +2322,7 @@
             <v>1</v>
           </cell>
           <cell r="H130">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="131">
@@ -2336,7 +2339,7 @@
             <v>1</v>
           </cell>
           <cell r="H131">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="132">
@@ -2353,7 +2356,7 @@
             <v>1</v>
           </cell>
           <cell r="H132">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="133">
@@ -2370,7 +2373,7 @@
             <v>1</v>
           </cell>
           <cell r="H133">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="134">
@@ -2387,7 +2390,7 @@
             <v>0</v>
           </cell>
           <cell r="H134">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="135">
@@ -2404,7 +2407,7 @@
             <v>1</v>
           </cell>
           <cell r="H135">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="136">
@@ -2421,7 +2424,7 @@
             <v>1</v>
           </cell>
           <cell r="H136">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="137">
@@ -2452,7 +2455,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G138">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H138">
             <v>0</v>
@@ -2520,7 +2523,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G142">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H142">
             <v>0</v>
@@ -2571,7 +2574,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G145">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H145">
             <v>0</v>
@@ -2591,7 +2594,7 @@
             <v>1</v>
           </cell>
           <cell r="H146">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="147">
@@ -2608,7 +2611,7 @@
             <v>1</v>
           </cell>
           <cell r="H147">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="148">
@@ -2625,7 +2628,7 @@
             <v>0</v>
           </cell>
           <cell r="H148">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="149">
@@ -2639,10 +2642,10 @@
             <v>Oncology</v>
           </cell>
           <cell r="G149">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H149">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="150">
@@ -2659,7 +2662,7 @@
             <v>0</v>
           </cell>
           <cell r="H150">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="151">
@@ -2676,7 +2679,7 @@
             <v>1</v>
           </cell>
           <cell r="H151">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="152">
@@ -2693,7 +2696,7 @@
             <v>1</v>
           </cell>
           <cell r="H152">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="153">
@@ -2710,7 +2713,7 @@
             <v>1</v>
           </cell>
           <cell r="H153">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="154">
@@ -2724,10 +2727,10 @@
             <v>Oncology</v>
           </cell>
           <cell r="G154">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H154">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="155">
@@ -2928,7 +2931,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G166">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H166">
             <v>0</v>
@@ -2996,7 +2999,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G170">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H170">
             <v>0</v>
@@ -3030,7 +3033,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G172">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H172">
             <v>0</v>
@@ -3064,7 +3067,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G174">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H174">
             <v>0</v>
@@ -3081,7 +3084,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G175">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H175">
             <v>0</v>
@@ -3115,7 +3118,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G177">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H177">
             <v>0</v>
@@ -3183,7 +3186,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G181">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H181">
             <v>0</v>
@@ -3268,7 +3271,7 @@
             <v>Puerto Rico Team</v>
           </cell>
           <cell r="G186">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H186">
             <v>0</v>
@@ -3302,7 +3305,7 @@
             <v>Puerto Rico Team</v>
           </cell>
           <cell r="G188">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H188">
             <v>0</v>
@@ -3322,7 +3325,7 @@
             <v>0</v>
           </cell>
           <cell r="H189">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="190">
@@ -3336,10 +3339,10 @@
             <v>Oncology</v>
           </cell>
           <cell r="G190">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H190">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="191">
@@ -3356,7 +3359,7 @@
             <v>1</v>
           </cell>
           <cell r="H191">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="192">
@@ -3373,7 +3376,7 @@
             <v>1</v>
           </cell>
           <cell r="H192">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="193">
@@ -3390,7 +3393,7 @@
             <v>1</v>
           </cell>
           <cell r="H193">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="194">
@@ -3407,7 +3410,7 @@
             <v>1</v>
           </cell>
           <cell r="H194">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="195">
@@ -3424,7 +3427,7 @@
             <v>1</v>
           </cell>
           <cell r="H195">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="196">
@@ -3489,7 +3492,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G199">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H199">
             <v>0</v>
@@ -3857,11 +3860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC2F176-90EB-4F50-BD62-A52753659CB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D20AF15-DE6E-4985-9BD3-4AD081F9EED8}">
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4125,7 +4128,7 @@
       </c>
       <c r="D12" t="str">
         <f>IF([1]Roster!G12=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E12" t="str">
         <f>IF([1]Roster!H12=1,"complete","not-started")</f>
@@ -4147,7 +4150,7 @@
       </c>
       <c r="D13" t="str">
         <f>IF([1]Roster!G13=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E13" t="str">
         <f>IF([1]Roster!H13=1,"complete","not-started")</f>
@@ -4169,7 +4172,7 @@
       </c>
       <c r="D14" t="str">
         <f>IF([1]Roster!G14=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E14" t="str">
         <f>IF([1]Roster!H14=1,"complete","not-started")</f>
@@ -4367,7 +4370,7 @@
       </c>
       <c r="D23" t="str">
         <f>IF([1]Roster!G23=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E23" t="str">
         <f>IF([1]Roster!H23=1,"complete","not-started")</f>
@@ -4477,7 +4480,7 @@
       </c>
       <c r="D28" t="str">
         <f>IF([1]Roster!G28=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E28" t="str">
         <f>IF([1]Roster!H28=1,"complete","not-started")</f>
@@ -4697,7 +4700,7 @@
       </c>
       <c r="D38" t="str">
         <f>IF([1]Roster!G38=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E38" t="str">
         <f>IF([1]Roster!H38=1,"complete","not-started")</f>
@@ -4763,7 +4766,7 @@
       </c>
       <c r="D41" t="str">
         <f>IF([1]Roster!G41=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E41" t="str">
         <f>IF([1]Roster!H41=1,"complete","not-started")</f>
@@ -4829,7 +4832,7 @@
       </c>
       <c r="D44" t="str">
         <f>IF([1]Roster!G44=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E44" t="str">
         <f>IF([1]Roster!H44=1,"complete","not-started")</f>
@@ -4917,7 +4920,7 @@
       </c>
       <c r="D48" t="str">
         <f>IF([1]Roster!G48=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E48" t="str">
         <f>IF([1]Roster!H48=1,"complete","not-started")</f>
@@ -5031,7 +5034,7 @@
       </c>
       <c r="E53" t="str">
         <f>IF([1]Roster!H53=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -5053,7 +5056,7 @@
       </c>
       <c r="E54" t="str">
         <f>IF([1]Roster!H54=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -5075,7 +5078,7 @@
       </c>
       <c r="E55" t="str">
         <f>IF([1]Roster!H55=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -5097,7 +5100,7 @@
       </c>
       <c r="E56" t="str">
         <f>IF([1]Roster!H56=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -5119,7 +5122,7 @@
       </c>
       <c r="E57" t="str">
         <f>IF([1]Roster!H57=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -5141,7 +5144,7 @@
       </c>
       <c r="E58" t="str">
         <f>IF([1]Roster!H58=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -5163,7 +5166,7 @@
       </c>
       <c r="E59" t="str">
         <f>IF([1]Roster!H59=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -5185,7 +5188,7 @@
       </c>
       <c r="E60" t="str">
         <f>IF([1]Roster!H60=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -5203,11 +5206,11 @@
       </c>
       <c r="D61" t="str">
         <f>IF([1]Roster!G61=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E61" t="str">
         <f>IF([1]Roster!H61=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -5229,7 +5232,7 @@
       </c>
       <c r="E62" t="str">
         <f>IF([1]Roster!H62=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -5247,11 +5250,11 @@
       </c>
       <c r="D63" t="str">
         <f>IF([1]Roster!G63=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E63" t="str">
         <f>IF([1]Roster!H63=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -5273,7 +5276,7 @@
       </c>
       <c r="E64" t="str">
         <f>IF([1]Roster!H64=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -5295,7 +5298,7 @@
       </c>
       <c r="E65" t="str">
         <f>IF([1]Roster!H65=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -5317,7 +5320,7 @@
       </c>
       <c r="E66" t="str">
         <f>IF([1]Roster!H66=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -5339,7 +5342,7 @@
       </c>
       <c r="E67" t="str">
         <f>IF([1]Roster!H67=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -5361,7 +5364,7 @@
       </c>
       <c r="E68" t="str">
         <f>IF([1]Roster!H68=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -5383,7 +5386,7 @@
       </c>
       <c r="E69" t="str">
         <f>IF([1]Roster!H69=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -5405,7 +5408,7 @@
       </c>
       <c r="E70" t="str">
         <f>IF([1]Roster!H70=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -5449,7 +5452,7 @@
       </c>
       <c r="E72" t="str">
         <f>IF([1]Roster!H72=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -5471,7 +5474,7 @@
       </c>
       <c r="E73" t="str">
         <f>IF([1]Roster!H73=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -5493,7 +5496,7 @@
       </c>
       <c r="E74" t="str">
         <f>IF([1]Roster!H74=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -5515,7 +5518,7 @@
       </c>
       <c r="E75" t="str">
         <f>IF([1]Roster!H75=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -5537,7 +5540,7 @@
       </c>
       <c r="E76" t="str">
         <f>IF([1]Roster!H76=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -5581,7 +5584,7 @@
       </c>
       <c r="E78" t="str">
         <f>IF([1]Roster!H78=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -5603,7 +5606,7 @@
       </c>
       <c r="E79" t="str">
         <f>IF([1]Roster!H79=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -5625,7 +5628,7 @@
       </c>
       <c r="E80" t="str">
         <f>IF([1]Roster!H80=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -5647,7 +5650,7 @@
       </c>
       <c r="E81" t="str">
         <f>IF([1]Roster!H81=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -5669,7 +5672,7 @@
       </c>
       <c r="E82" t="str">
         <f>IF([1]Roster!H82=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -5691,7 +5694,7 @@
       </c>
       <c r="E83" t="str">
         <f>IF([1]Roster!H83=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -5731,7 +5734,7 @@
       </c>
       <c r="D85" t="str">
         <f>IF([1]Roster!G85=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E85" t="str">
         <f>IF([1]Roster!H85=1,"complete","not-started")</f>
@@ -6263,7 +6266,7 @@
       </c>
       <c r="E109" t="str">
         <f>IF([1]Roster!H109=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -6285,7 +6288,7 @@
       </c>
       <c r="E110" t="str">
         <f>IF([1]Roster!H110=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -6307,7 +6310,7 @@
       </c>
       <c r="E111" t="str">
         <f>IF([1]Roster!H111=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -6329,7 +6332,7 @@
       </c>
       <c r="E112" t="str">
         <f>IF([1]Roster!H112=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -6347,11 +6350,11 @@
       </c>
       <c r="D113" t="str">
         <f>IF([1]Roster!G113=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E113" t="str">
         <f>IF([1]Roster!H113=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -6483,7 +6486,7 @@
       </c>
       <c r="E119" t="str">
         <f>IF([1]Roster!H119=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -6505,7 +6508,7 @@
       </c>
       <c r="E120" t="str">
         <f>IF([1]Roster!H120=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -6527,7 +6530,7 @@
       </c>
       <c r="E121" t="str">
         <f>IF([1]Roster!H121=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -6549,7 +6552,7 @@
       </c>
       <c r="E122" t="str">
         <f>IF([1]Roster!H122=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -6571,7 +6574,7 @@
       </c>
       <c r="E123" t="str">
         <f>IF([1]Roster!H123=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -6593,7 +6596,7 @@
       </c>
       <c r="E124" t="str">
         <f>IF([1]Roster!H124=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -6615,7 +6618,7 @@
       </c>
       <c r="E125" t="str">
         <f>IF([1]Roster!H125=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -6637,7 +6640,7 @@
       </c>
       <c r="E126" t="str">
         <f>IF([1]Roster!H126=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -6659,7 +6662,7 @@
       </c>
       <c r="E127" t="str">
         <f>IF([1]Roster!H127=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -6681,7 +6684,7 @@
       </c>
       <c r="E128" t="str">
         <f>IF([1]Roster!H128=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -6703,7 +6706,7 @@
       </c>
       <c r="E129" t="str">
         <f>IF([1]Roster!H129=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -6725,7 +6728,7 @@
       </c>
       <c r="E130" t="str">
         <f>IF([1]Roster!H130=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -6747,7 +6750,7 @@
       </c>
       <c r="E131" t="str">
         <f>IF([1]Roster!H131=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -6769,7 +6772,7 @@
       </c>
       <c r="E132" t="str">
         <f>IF([1]Roster!H132=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -6791,7 +6794,7 @@
       </c>
       <c r="E133" t="str">
         <f>IF([1]Roster!H133=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -6813,7 +6816,7 @@
       </c>
       <c r="E134" t="str">
         <f>IF([1]Roster!H134=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -6835,7 +6838,7 @@
       </c>
       <c r="E135" t="str">
         <f>IF([1]Roster!H135=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -6857,7 +6860,7 @@
       </c>
       <c r="E136" t="str">
         <f>IF([1]Roster!H136=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -6897,7 +6900,7 @@
       </c>
       <c r="D138" t="str">
         <f>IF([1]Roster!G138=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E138" t="str">
         <f>IF([1]Roster!H138=1,"complete","not-started")</f>
@@ -6985,7 +6988,7 @@
       </c>
       <c r="D142" t="str">
         <f>IF([1]Roster!G142=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E142" t="str">
         <f>IF([1]Roster!H142=1,"complete","not-started")</f>
@@ -7051,7 +7054,7 @@
       </c>
       <c r="D145" t="str">
         <f>IF([1]Roster!G145=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E145" t="str">
         <f>IF([1]Roster!H145=1,"complete","not-started")</f>
@@ -7077,7 +7080,7 @@
       </c>
       <c r="E146" t="str">
         <f>IF([1]Roster!H146=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -7099,7 +7102,7 @@
       </c>
       <c r="E147" t="str">
         <f>IF([1]Roster!H147=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -7121,7 +7124,7 @@
       </c>
       <c r="E148" t="str">
         <f>IF([1]Roster!H148=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -7139,11 +7142,11 @@
       </c>
       <c r="D149" t="str">
         <f>IF([1]Roster!G149=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E149" t="str">
         <f>IF([1]Roster!H149=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -7165,7 +7168,7 @@
       </c>
       <c r="E150" t="str">
         <f>IF([1]Roster!H150=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -7187,7 +7190,7 @@
       </c>
       <c r="E151" t="str">
         <f>IF([1]Roster!H151=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -7209,7 +7212,7 @@
       </c>
       <c r="E152" t="str">
         <f>IF([1]Roster!H152=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -7231,7 +7234,7 @@
       </c>
       <c r="E153" t="str">
         <f>IF([1]Roster!H153=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -7249,11 +7252,11 @@
       </c>
       <c r="D154" t="str">
         <f>IF([1]Roster!G154=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E154" t="str">
         <f>IF([1]Roster!H154=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -7513,7 +7516,7 @@
       </c>
       <c r="D166" t="str">
         <f>IF([1]Roster!G166=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E166" t="str">
         <f>IF([1]Roster!H166=1,"complete","not-started")</f>
@@ -7601,7 +7604,7 @@
       </c>
       <c r="D170" t="str">
         <f>IF([1]Roster!G170=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E170" t="str">
         <f>IF([1]Roster!H170=1,"complete","not-started")</f>
@@ -7645,7 +7648,7 @@
       </c>
       <c r="D172" t="str">
         <f>IF([1]Roster!G172=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E172" t="str">
         <f>IF([1]Roster!H172=1,"complete","not-started")</f>
@@ -7689,7 +7692,7 @@
       </c>
       <c r="D174" t="str">
         <f>IF([1]Roster!G174=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E174" t="str">
         <f>IF([1]Roster!H174=1,"complete","not-started")</f>
@@ -7711,7 +7714,7 @@
       </c>
       <c r="D175" t="str">
         <f>IF([1]Roster!G175=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E175" t="str">
         <f>IF([1]Roster!H175=1,"complete","not-started")</f>
@@ -7755,7 +7758,7 @@
       </c>
       <c r="D177" t="str">
         <f>IF([1]Roster!G177=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E177" t="str">
         <f>IF([1]Roster!H177=1,"complete","not-started")</f>
@@ -7843,7 +7846,7 @@
       </c>
       <c r="D181" t="str">
         <f>IF([1]Roster!G181=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E181" t="str">
         <f>IF([1]Roster!H181=1,"complete","not-started")</f>
@@ -7953,7 +7956,7 @@
       </c>
       <c r="D186" t="str">
         <f>IF([1]Roster!G186=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E186" t="str">
         <f>IF([1]Roster!H186=1,"complete","not-started")</f>
@@ -7997,7 +8000,7 @@
       </c>
       <c r="D188" t="str">
         <f>IF([1]Roster!G188=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E188" t="str">
         <f>IF([1]Roster!H188=1,"complete","not-started")</f>
@@ -8023,7 +8026,7 @@
       </c>
       <c r="E189" t="str">
         <f>IF([1]Roster!H189=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
@@ -8041,11 +8044,11 @@
       </c>
       <c r="D190" t="str">
         <f>IF([1]Roster!G190=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E190" t="str">
         <f>IF([1]Roster!H190=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
@@ -8067,7 +8070,7 @@
       </c>
       <c r="E191" t="str">
         <f>IF([1]Roster!H191=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
@@ -8089,7 +8092,7 @@
       </c>
       <c r="E192" t="str">
         <f>IF([1]Roster!H192=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
@@ -8111,7 +8114,7 @@
       </c>
       <c r="E193" t="str">
         <f>IF([1]Roster!H193=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
@@ -8133,7 +8136,7 @@
       </c>
       <c r="E194" t="str">
         <f>IF([1]Roster!H194=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
@@ -8155,7 +8158,7 @@
       </c>
       <c r="E195" t="str">
         <f>IF([1]Roster!H195=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
@@ -8239,7 +8242,7 @@
       </c>
       <c r="D199" t="str">
         <f>IF([1]Roster!G199=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E199" t="str">
         <f>IF([1]Roster!H199=1,"complete","not-started")</f>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4B9D07-5EA2-4832-ABF8-FF870221C5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{092A3BA3-448E-4084-901B-B6364C30B9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{33298BC3-9A09-4573-AD88-882962F59133}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65E35EBD-A415-4116-9830-E4B0A8022960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$D$1:$D$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -265,7 +265,7 @@
             <v>1</v>
           </cell>
           <cell r="H9">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="10">
@@ -282,7 +282,7 @@
             <v>0</v>
           </cell>
           <cell r="H10">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="11">
@@ -299,7 +299,7 @@
             <v>1</v>
           </cell>
           <cell r="H11">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="12">
@@ -316,7 +316,7 @@
             <v>1</v>
           </cell>
           <cell r="H12">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="13">
@@ -333,7 +333,7 @@
             <v>1</v>
           </cell>
           <cell r="H13">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="14">
@@ -350,7 +350,7 @@
             <v>1</v>
           </cell>
           <cell r="H14">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="15">
@@ -367,7 +367,7 @@
             <v>0</v>
           </cell>
           <cell r="H15">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="16">
@@ -384,7 +384,7 @@
             <v>1</v>
           </cell>
           <cell r="H16">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="17">
@@ -551,7 +551,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G26">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H26">
             <v>1</v>
@@ -568,7 +568,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G27">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H27">
             <v>1</v>
@@ -636,7 +636,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G31">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H31">
             <v>1</v>
@@ -758,7 +758,7 @@
             <v>1</v>
           </cell>
           <cell r="H38">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="39">
@@ -772,10 +772,10 @@
             <v>IAM</v>
           </cell>
           <cell r="G39">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H39">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="40">
@@ -792,7 +792,7 @@
             <v>1</v>
           </cell>
           <cell r="H40">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="41">
@@ -809,7 +809,7 @@
             <v>1</v>
           </cell>
           <cell r="H41">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="42">
@@ -826,7 +826,7 @@
             <v>1</v>
           </cell>
           <cell r="H42">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="43">
@@ -843,7 +843,7 @@
             <v>0</v>
           </cell>
           <cell r="H43">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="44">
@@ -860,7 +860,7 @@
             <v>1</v>
           </cell>
           <cell r="H44">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="45">
@@ -877,7 +877,7 @@
             <v>1</v>
           </cell>
           <cell r="H45">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="46">
@@ -908,7 +908,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G47">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H47">
             <v>1</v>
@@ -1231,7 +1231,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G66">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H66">
             <v>1</v>
@@ -1948,7 +1948,7 @@
             <v>1</v>
           </cell>
           <cell r="H108">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="109">
@@ -2387,7 +2387,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G134">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H134">
             <v>1</v>
@@ -2458,7 +2458,7 @@
             <v>1</v>
           </cell>
           <cell r="H138">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="139">
@@ -2492,7 +2492,7 @@
             <v>1</v>
           </cell>
           <cell r="H140">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="141">
@@ -2509,7 +2509,7 @@
             <v>0</v>
           </cell>
           <cell r="H141">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="142">
@@ -2526,7 +2526,7 @@
             <v>1</v>
           </cell>
           <cell r="H142">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="143">
@@ -2543,7 +2543,7 @@
             <v>1</v>
           </cell>
           <cell r="H143">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="144">
@@ -2577,7 +2577,7 @@
             <v>1</v>
           </cell>
           <cell r="H145">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="146">
@@ -2659,7 +2659,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G150">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H150">
             <v>1</v>
@@ -2934,7 +2934,7 @@
             <v>1</v>
           </cell>
           <cell r="H166">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="167">
@@ -2951,7 +2951,7 @@
             <v>1</v>
           </cell>
           <cell r="H167">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="168">
@@ -2965,10 +2965,10 @@
             <v>Oncology</v>
           </cell>
           <cell r="G168">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H168">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="169">
@@ -3002,7 +3002,7 @@
             <v>1</v>
           </cell>
           <cell r="H170">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="171">
@@ -3019,7 +3019,7 @@
             <v>0</v>
           </cell>
           <cell r="H171">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="172">
@@ -3036,7 +3036,7 @@
             <v>1</v>
           </cell>
           <cell r="H172">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="173">
@@ -3070,7 +3070,7 @@
             <v>1</v>
           </cell>
           <cell r="H174">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="175">
@@ -3087,7 +3087,7 @@
             <v>1</v>
           </cell>
           <cell r="H175">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="176">
@@ -3104,7 +3104,7 @@
             <v>1</v>
           </cell>
           <cell r="H176">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="177">
@@ -3860,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D20AF15-DE6E-4985-9BD3-4AD081F9EED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C2FC71-7858-452D-B6DB-D3ABADB2E09F}">
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="E9" t="str">
         <f>IF([1]Roster!H9=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E10" t="str">
         <f>IF([1]Roster!H10=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="E11" t="str">
         <f>IF([1]Roster!H11=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E12" t="str">
         <f>IF([1]Roster!H12=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="E13" t="str">
         <f>IF([1]Roster!H13=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="E14" t="str">
         <f>IF([1]Roster!H14=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="E15" t="str">
         <f>IF([1]Roster!H15=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="E16" t="str">
         <f>IF([1]Roster!H16=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="D26" t="str">
         <f>IF([1]Roster!G26=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E26" t="str">
         <f>IF([1]Roster!H26=1,"complete","not-started")</f>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="D27" t="str">
         <f>IF([1]Roster!G27=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E27" t="str">
         <f>IF([1]Roster!H27=1,"complete","not-started")</f>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D31" t="str">
         <f>IF([1]Roster!G31=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E31" t="str">
         <f>IF([1]Roster!H31=1,"complete","not-started")</f>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="E38" t="str">
         <f>IF([1]Roster!H38=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -4722,11 +4722,11 @@
       </c>
       <c r="D39" t="str">
         <f>IF([1]Roster!G39=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E39" t="str">
         <f>IF([1]Roster!H39=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="E40" t="str">
         <f>IF([1]Roster!H40=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="E41" t="str">
         <f>IF([1]Roster!H41=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="E42" t="str">
         <f>IF([1]Roster!H42=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="E43" t="str">
         <f>IF([1]Roster!H43=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E44" t="str">
         <f>IF([1]Roster!H44=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="E45" t="str">
         <f>IF([1]Roster!H45=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="D47" t="str">
         <f>IF([1]Roster!G47=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E47" t="str">
         <f>IF([1]Roster!H47=1,"complete","not-started")</f>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="D66" t="str">
         <f>IF([1]Roster!G66=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E66" t="str">
         <f>IF([1]Roster!H66=1,"complete","not-started")</f>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="E108" t="str">
         <f>IF([1]Roster!H108=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="D134" t="str">
         <f>IF([1]Roster!G134=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E134" t="str">
         <f>IF([1]Roster!H134=1,"complete","not-started")</f>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="E138" t="str">
         <f>IF([1]Roster!H138=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="E140" t="str">
         <f>IF([1]Roster!H140=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="E141" t="str">
         <f>IF([1]Roster!H141=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="E142" t="str">
         <f>IF([1]Roster!H142=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="E143" t="str">
         <f>IF([1]Roster!H143=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="E145" t="str">
         <f>IF([1]Roster!H145=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="D150" t="str">
         <f>IF([1]Roster!G150=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E150" t="str">
         <f>IF([1]Roster!H150=1,"complete","not-started")</f>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="E166" t="str">
         <f>IF([1]Roster!H166=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="E167" t="str">
         <f>IF([1]Roster!H167=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
@@ -7560,11 +7560,11 @@
       </c>
       <c r="D168" t="str">
         <f>IF([1]Roster!G168=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E168" t="str">
         <f>IF([1]Roster!H168=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="E170" t="str">
         <f>IF([1]Roster!H170=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="E171" t="str">
         <f>IF([1]Roster!H171=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="E172" t="str">
         <f>IF([1]Roster!H172=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="E174" t="str">
         <f>IF([1]Roster!H174=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="E175" t="str">
         <f>IF([1]Roster!H175=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="E176" t="str">
         <f>IF([1]Roster!H176=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{092A3BA3-448E-4084-901B-B6364C30B9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26713B6F-ED9C-468F-A6BF-5C70D41E6F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65E35EBD-A415-4116-9830-E4B0A8022960}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3196DCC1-F815-4959-908C-AFF5FDD15283}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G43">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H43">
             <v>1</v>
@@ -1265,7 +1265,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G68">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H68">
             <v>1</v>
@@ -1319,7 +1319,7 @@
             <v>1</v>
           </cell>
           <cell r="H71">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="72">
@@ -2115,7 +2115,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G118">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H118">
             <v>1</v>
@@ -2441,7 +2441,7 @@
             <v>1</v>
           </cell>
           <cell r="H137">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="138">
@@ -2475,7 +2475,7 @@
             <v>1</v>
           </cell>
           <cell r="H139">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="140">
@@ -2506,7 +2506,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G141">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H141">
             <v>1</v>
@@ -2557,10 +2557,10 @@
             <v>Oncology</v>
           </cell>
           <cell r="G144">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H144">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="145">
@@ -2625,7 +2625,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G148">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H148">
             <v>1</v>
@@ -3016,7 +3016,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G171">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H171">
             <v>1</v>
@@ -3121,7 +3121,7 @@
             <v>1</v>
           </cell>
           <cell r="H177">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="178">
@@ -3138,7 +3138,7 @@
             <v>1</v>
           </cell>
           <cell r="H178">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="179">
@@ -3155,7 +3155,7 @@
             <v>0</v>
           </cell>
           <cell r="H179">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="180">
@@ -3172,7 +3172,7 @@
             <v>1</v>
           </cell>
           <cell r="H180">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="181">
@@ -3189,7 +3189,7 @@
             <v>1</v>
           </cell>
           <cell r="H181">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="182">
@@ -3206,7 +3206,7 @@
             <v>1</v>
           </cell>
           <cell r="H182">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="183">
@@ -3223,7 +3223,7 @@
             <v>1</v>
           </cell>
           <cell r="H183">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="184">
@@ -3240,7 +3240,7 @@
             <v>1</v>
           </cell>
           <cell r="H184">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="185">
@@ -3257,7 +3257,7 @@
             <v>1</v>
           </cell>
           <cell r="H185">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="186">
@@ -3274,7 +3274,7 @@
             <v>1</v>
           </cell>
           <cell r="H186">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="187">
@@ -3291,7 +3291,7 @@
             <v>1</v>
           </cell>
           <cell r="H187">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="188">
@@ -3308,7 +3308,7 @@
             <v>1</v>
           </cell>
           <cell r="H188">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="189">
@@ -3860,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C2FC71-7858-452D-B6DB-D3ABADB2E09F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1041E0F4-5275-405E-8D3D-B43EB6E82FDF}">
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="D43" t="str">
         <f>IF([1]Roster!G43=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E43" t="str">
         <f>IF([1]Roster!H43=1,"complete","not-started")</f>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="D68" t="str">
         <f>IF([1]Roster!G68=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E68" t="str">
         <f>IF([1]Roster!H68=1,"complete","not-started")</f>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="E71" t="str">
         <f>IF([1]Roster!H71=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="D118" t="str">
         <f>IF([1]Roster!G118=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E118" t="str">
         <f>IF([1]Roster!H118=1,"complete","not-started")</f>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="E137" t="str">
         <f>IF([1]Roster!H137=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E139" t="str">
         <f>IF([1]Roster!H139=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="D141" t="str">
         <f>IF([1]Roster!G141=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E141" t="str">
         <f>IF([1]Roster!H141=1,"complete","not-started")</f>
@@ -7032,11 +7032,11 @@
       </c>
       <c r="D144" t="str">
         <f>IF([1]Roster!G144=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E144" t="str">
         <f>IF([1]Roster!H144=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="D148" t="str">
         <f>IF([1]Roster!G148=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E148" t="str">
         <f>IF([1]Roster!H148=1,"complete","not-started")</f>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="D171" t="str">
         <f>IF([1]Roster!G171=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E171" t="str">
         <f>IF([1]Roster!H171=1,"complete","not-started")</f>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="E177" t="str">
         <f>IF([1]Roster!H177=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="E178" t="str">
         <f>IF([1]Roster!H178=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="E179" t="str">
         <f>IF([1]Roster!H179=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="E180" t="str">
         <f>IF([1]Roster!H180=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="E181" t="str">
         <f>IF([1]Roster!H181=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="E182" t="str">
         <f>IF([1]Roster!H182=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="E183" t="str">
         <f>IF([1]Roster!H183=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="E184" t="str">
         <f>IF([1]Roster!H184=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="E185" t="str">
         <f>IF([1]Roster!H185=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="E186" t="str">
         <f>IF([1]Roster!H186=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="E187" t="str">
         <f>IF([1]Roster!H187=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="E188" t="str">
         <f>IF([1]Roster!H188=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26713B6F-ED9C-468F-A6BF-5C70D41E6F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3080A9B6-1670-4DEA-9442-7276C8BDFBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3196DCC1-F815-4959-908C-AFF5FDD15283}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6AA05F1-AABB-4567-ADCB-BF95A138E37F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G15">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H15">
             <v>1</v>
@@ -3152,7 +3152,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G179">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H179">
             <v>1</v>
@@ -3860,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1041E0F4-5275-405E-8D3D-B43EB6E82FDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293E68B8-5F41-4242-84FC-AE03A08092EE}">
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="D15" t="str">
         <f>IF([1]Roster!G15=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E15" t="str">
         <f>IF([1]Roster!H15=1,"complete","not-started")</f>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="D179" t="str">
         <f>IF([1]Roster!G179=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E179" t="str">
         <f>IF([1]Roster!H179=1,"complete","not-started")</f>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3080A9B6-1670-4DEA-9442-7276C8BDFBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED422FA-CD4C-4B90-AB4E-044D598B946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6AA05F1-AABB-4567-ADCB-BF95A138E37F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9FE6FD09-5784-4E2E-B668-61054BF62BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$D$1:$D$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1154,7 +1154,7 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>Brianj Frisone</v>
+            <v>Brian Frisone</v>
           </cell>
           <cell r="C62" t="str">
             <v>Warren Tayes</v>
@@ -1868,7 +1868,7 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Andrew Neno</v>
+            <v>Alice Lydon</v>
           </cell>
           <cell r="C104" t="str">
             <v>Kate Fennell</v>
@@ -1877,7 +1877,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G104">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H104">
             <v>1</v>
@@ -1885,7 +1885,7 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Alice Lydon</v>
+            <v>Gaetano Calafati Jr</v>
           </cell>
           <cell r="C105" t="str">
             <v>Kate Fennell</v>
@@ -1902,7 +1902,7 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>Gaetano Calafati Jr</v>
+            <v>Sue Rose</v>
           </cell>
           <cell r="C106" t="str">
             <v>Kate Fennell</v>
@@ -1919,10 +1919,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>Sue Rose</v>
+            <v>Laura Ruiz-Martinez</v>
           </cell>
           <cell r="C107" t="str">
-            <v>Kate Fennell</v>
+            <v>Michael Gavlak</v>
           </cell>
           <cell r="E107" t="str">
             <v xml:space="preserve">Vaccines </v>
@@ -1936,7 +1936,7 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>Laura Ruiz-Martinez</v>
+            <v>Leslie Brunette</v>
           </cell>
           <cell r="C108" t="str">
             <v>Michael Gavlak</v>
@@ -1953,7 +1953,7 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>Leslie Brunette</v>
+            <v>Chris Golden</v>
           </cell>
           <cell r="C109" t="str">
             <v>Michael Gavlak</v>
@@ -1970,7 +1970,7 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>Chris Golden</v>
+            <v>Michelle Moylanelder</v>
           </cell>
           <cell r="C110" t="str">
             <v>Michael Gavlak</v>
@@ -1987,7 +1987,7 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>Michelle Moylanelder</v>
+            <v>Lynn Mckinley</v>
           </cell>
           <cell r="C111" t="str">
             <v>Michael Gavlak</v>
@@ -2004,7 +2004,7 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>Lynn Mckinley</v>
+            <v>Sarah Sawyer</v>
           </cell>
           <cell r="C112" t="str">
             <v>Michael Gavlak</v>
@@ -2021,10 +2021,10 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>Sarah Sawyer</v>
+            <v>Kenneth Simon</v>
           </cell>
           <cell r="C113" t="str">
-            <v>Michael Gavlak</v>
+            <v>Brian Hawkins</v>
           </cell>
           <cell r="E113" t="str">
             <v xml:space="preserve">Vaccines </v>
@@ -2038,7 +2038,7 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>Kenneth Simon</v>
+            <v>Patrick Neither</v>
           </cell>
           <cell r="C114" t="str">
             <v>Brian Hawkins</v>
@@ -2055,7 +2055,7 @@
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>Patrick Neither</v>
+            <v>Dino Villa</v>
           </cell>
           <cell r="C115" t="str">
             <v>Brian Hawkins</v>
@@ -2072,7 +2072,7 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>Dino Villa</v>
+            <v>Ali Broxson</v>
           </cell>
           <cell r="C116" t="str">
             <v>Brian Hawkins</v>
@@ -2089,7 +2089,7 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>Ali Broxson</v>
+            <v>Jeffrey Hadley</v>
           </cell>
           <cell r="C117" t="str">
             <v>Brian Hawkins</v>
@@ -2106,10 +2106,10 @@
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>Jeffrey Hadley</v>
+            <v>Theodore Scheff</v>
           </cell>
           <cell r="C118" t="str">
-            <v>Brian Hawkins</v>
+            <v>Thomas Lyon</v>
           </cell>
           <cell r="E118" t="str">
             <v xml:space="preserve">Vaccines </v>
@@ -2123,7 +2123,7 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>Theodore Scheff</v>
+            <v>Michelle Reeder</v>
           </cell>
           <cell r="C119" t="str">
             <v>Thomas Lyon</v>
@@ -2140,7 +2140,7 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>Michelle Reeder</v>
+            <v>Annie Laporta</v>
           </cell>
           <cell r="C120" t="str">
             <v>Thomas Lyon</v>
@@ -2157,7 +2157,7 @@
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>Annie Laporta</v>
+            <v>Leslie Nodler</v>
           </cell>
           <cell r="C121" t="str">
             <v>Thomas Lyon</v>
@@ -2174,7 +2174,7 @@
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>Leslie Nodler</v>
+            <v>James Kemp</v>
           </cell>
           <cell r="C122" t="str">
             <v>Thomas Lyon</v>
@@ -2191,7 +2191,7 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>James Kemp</v>
+            <v>James Devins</v>
           </cell>
           <cell r="C123" t="str">
             <v>Thomas Lyon</v>
@@ -2208,7 +2208,7 @@
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>James Devins</v>
+            <v>Lisa Hohman</v>
           </cell>
           <cell r="C124" t="str">
             <v>Thomas Lyon</v>
@@ -2225,7 +2225,7 @@
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>Lisa Hohman</v>
+            <v>Jennifer Bentley</v>
           </cell>
           <cell r="C125" t="str">
             <v>Thomas Lyon</v>
@@ -2242,7 +2242,7 @@
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>Jennifer Bentley</v>
+            <v>Peter Hayek</v>
           </cell>
           <cell r="C126" t="str">
             <v>Thomas Lyon</v>
@@ -2259,7 +2259,7 @@
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>Peter Hayek</v>
+            <v>Jane Dantinne</v>
           </cell>
           <cell r="C127" t="str">
             <v>Thomas Lyon</v>
@@ -2276,7 +2276,7 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>Jane Dantinne</v>
+            <v>Kerry Yamat</v>
           </cell>
           <cell r="C128" t="str">
             <v>Thomas Lyon</v>
@@ -2293,10 +2293,10 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>Kerry Yamat</v>
+            <v>Kyle Spencer</v>
           </cell>
           <cell r="C129" t="str">
-            <v>Thomas Lyon</v>
+            <v>Andrew Finkelstein</v>
           </cell>
           <cell r="E129" t="str">
             <v xml:space="preserve">Vaccines </v>
@@ -2310,7 +2310,7 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>Kyle Spencer</v>
+            <v>Shilpa Kalawadia</v>
           </cell>
           <cell r="C130" t="str">
             <v>Andrew Finkelstein</v>
@@ -2327,7 +2327,7 @@
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>Shilpa Kalawadia</v>
+            <v>Steven Gardner</v>
           </cell>
           <cell r="C131" t="str">
             <v>Andrew Finkelstein</v>
@@ -2344,7 +2344,7 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>Steven Gardner</v>
+            <v>Dawn Conrad</v>
           </cell>
           <cell r="C132" t="str">
             <v>Andrew Finkelstein</v>
@@ -2361,7 +2361,7 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>Dawn Conrad</v>
+            <v>Paula Novabilski</v>
           </cell>
           <cell r="C133" t="str">
             <v>Andrew Finkelstein</v>
@@ -2378,7 +2378,7 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>Paula Novabilski</v>
+            <v>Lynnette Nestor</v>
           </cell>
           <cell r="C134" t="str">
             <v>Andrew Finkelstein</v>
@@ -2395,7 +2395,7 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>Lynnette Nestor</v>
+            <v>Melissa Rieflin</v>
           </cell>
           <cell r="C135" t="str">
             <v>Andrew Finkelstein</v>
@@ -2412,13 +2412,13 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>Melissa Rieflin</v>
+            <v>Bill Germond</v>
           </cell>
           <cell r="C136" t="str">
-            <v>Andrew Finkelstein</v>
+            <v>Mark Karwowski</v>
           </cell>
           <cell r="E136" t="str">
-            <v xml:space="preserve">Vaccines </v>
+            <v>Oncology</v>
           </cell>
           <cell r="G136">
             <v>1</v>
@@ -2429,7 +2429,7 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>Bill Germond</v>
+            <v>Andrea Hobbs</v>
           </cell>
           <cell r="C137" t="str">
             <v>Mark Karwowski</v>
@@ -2446,7 +2446,7 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>Andrea Hobbs</v>
+            <v>Tobey Hoambrecker</v>
           </cell>
           <cell r="C138" t="str">
             <v>Mark Karwowski</v>
@@ -2463,7 +2463,7 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>Tobey Hoambrecker</v>
+            <v>Kimberly Kunkleman</v>
           </cell>
           <cell r="C139" t="str">
             <v>Mark Karwowski</v>
@@ -2480,7 +2480,7 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>Kimberly Kunkleman</v>
+            <v>Jennifer Neumer</v>
           </cell>
           <cell r="C140" t="str">
             <v>Mark Karwowski</v>
@@ -2497,7 +2497,7 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>Jennifer Neumer</v>
+            <v>Joseph Yurt</v>
           </cell>
           <cell r="C141" t="str">
             <v>Mark Karwowski</v>
@@ -2514,7 +2514,7 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>Joseph Yurt</v>
+            <v>Christopher Gosselin</v>
           </cell>
           <cell r="C142" t="str">
             <v>Mark Karwowski</v>
@@ -2531,7 +2531,7 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>Christopher Gosselin</v>
+            <v>Jason Monk</v>
           </cell>
           <cell r="C143" t="str">
             <v>Mark Karwowski</v>
@@ -2548,7 +2548,7 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>Jason Monk</v>
+            <v>Dawn Hansen</v>
           </cell>
           <cell r="C144" t="str">
             <v>Mark Karwowski</v>
@@ -2565,10 +2565,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>Dawn Hansen</v>
+            <v>Karyn Tomlin</v>
           </cell>
           <cell r="C145" t="str">
-            <v>Mark Karwowski</v>
+            <v>Robert Murphy</v>
           </cell>
           <cell r="E145" t="str">
             <v>Oncology</v>
@@ -2582,7 +2582,7 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>Karyn Tomlin</v>
+            <v>Troy Siragusa</v>
           </cell>
           <cell r="C146" t="str">
             <v>Robert Murphy</v>
@@ -2599,7 +2599,7 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>Troy Siragusa</v>
+            <v>Sylvia Jacobs</v>
           </cell>
           <cell r="C147" t="str">
             <v>Robert Murphy</v>
@@ -2616,7 +2616,7 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>Sylvia Jacobs</v>
+            <v>Brandon Black</v>
           </cell>
           <cell r="C148" t="str">
             <v>Robert Murphy</v>
@@ -2633,7 +2633,7 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>Brandon Black</v>
+            <v>Michelle Mitchell</v>
           </cell>
           <cell r="C149" t="str">
             <v>Robert Murphy</v>
@@ -2650,7 +2650,7 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>Michelleb Mitchell</v>
+            <v>Deborah Bergman</v>
           </cell>
           <cell r="C150" t="str">
             <v>Robert Murphy</v>
@@ -2667,7 +2667,7 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>Deborah Bergman</v>
+            <v>Robby Robinson</v>
           </cell>
           <cell r="C151" t="str">
             <v>Robert Murphy</v>
@@ -2684,7 +2684,7 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>Robby Robinson</v>
+            <v>Nikole Austrup-Jones</v>
           </cell>
           <cell r="C152" t="str">
             <v>Robert Murphy</v>
@@ -2701,7 +2701,7 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>Nikole Austrup-Jones</v>
+            <v>Jasmina Boruta</v>
           </cell>
           <cell r="C153" t="str">
             <v>Robert Murphy</v>
@@ -2718,10 +2718,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>Jasmina Boruta</v>
+            <v>Larry Balone</v>
           </cell>
           <cell r="C154" t="str">
-            <v>Robert Murphy</v>
+            <v>Theresa Cohen</v>
           </cell>
           <cell r="E154" t="str">
             <v>Oncology</v>
@@ -2735,7 +2735,7 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>Larry Balone</v>
+            <v>John Foster</v>
           </cell>
           <cell r="C155" t="str">
             <v>Theresa Cohen</v>
@@ -2752,7 +2752,7 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>John Foster</v>
+            <v>Alexis Amici</v>
           </cell>
           <cell r="C156" t="str">
             <v>Theresa Cohen</v>
@@ -2769,7 +2769,7 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>Alexis Amici</v>
+            <v>Michele Torelli</v>
           </cell>
           <cell r="C157" t="str">
             <v>Theresa Cohen</v>
@@ -2786,7 +2786,7 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>Michele Torelli</v>
+            <v>Steve Fowler</v>
           </cell>
           <cell r="C158" t="str">
             <v>Theresa Cohen</v>
@@ -2803,7 +2803,7 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>Steve Fowler</v>
+            <v>Tiffany Grand</v>
           </cell>
           <cell r="C159" t="str">
             <v>Theresa Cohen</v>
@@ -2820,7 +2820,7 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>Tiffany Grand</v>
+            <v>Thomas Berte</v>
           </cell>
           <cell r="C160" t="str">
             <v>Theresa Cohen</v>
@@ -2837,7 +2837,7 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>Thomas Berte</v>
+            <v>Tara Fleming</v>
           </cell>
           <cell r="C161" t="str">
             <v>Theresa Cohen</v>
@@ -2854,7 +2854,7 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>Tara Fleming</v>
+            <v>Ann Wagner</v>
           </cell>
           <cell r="C162" t="str">
             <v>Theresa Cohen</v>
@@ -2871,7 +2871,7 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>Ann Wagner</v>
+            <v>David Williams</v>
           </cell>
           <cell r="C163" t="str">
             <v>Theresa Cohen</v>
@@ -2888,7 +2888,7 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>David Williams</v>
+            <v>Douglas Slape</v>
           </cell>
           <cell r="C164" t="str">
             <v>Theresa Cohen</v>
@@ -2905,10 +2905,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>Douglas Slape</v>
+            <v>Shandra Harvey Stewart</v>
           </cell>
           <cell r="C165" t="str">
-            <v>Theresa Cohen</v>
+            <v>Judith Leenguyen</v>
           </cell>
           <cell r="E165" t="str">
             <v>Oncology</v>
@@ -2922,7 +2922,7 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>Shandra Harvey Stewart</v>
+            <v>Hayley Ludwig</v>
           </cell>
           <cell r="C166" t="str">
             <v>Judith Leenguyen</v>
@@ -2939,7 +2939,7 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>Hayley Ludwig</v>
+            <v>Maureen Hall</v>
           </cell>
           <cell r="C167" t="str">
             <v>Judith Leenguyen</v>
@@ -2956,7 +2956,7 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>Maureen Hall</v>
+            <v>Randy Benson</v>
           </cell>
           <cell r="C168" t="str">
             <v>Judith Leenguyen</v>
@@ -2973,7 +2973,7 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>Randy Benson</v>
+            <v>Mark Campbell</v>
           </cell>
           <cell r="C169" t="str">
             <v>Judith Leenguyen</v>
@@ -2990,7 +2990,7 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>Mark Campbell</v>
+            <v>Bree Carlin</v>
           </cell>
           <cell r="C170" t="str">
             <v>Judith Leenguyen</v>
@@ -3007,7 +3007,7 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>Bree Carlin</v>
+            <v>Cecelia Daly</v>
           </cell>
           <cell r="C171" t="str">
             <v>Judith Leenguyen</v>
@@ -3024,7 +3024,7 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>Cecelia Daly</v>
+            <v>Christopher Billmann</v>
           </cell>
           <cell r="C172" t="str">
             <v>Judith Leenguyen</v>
@@ -3041,7 +3041,7 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>Christopher Billmann</v>
+            <v>Kent Hutchens</v>
           </cell>
           <cell r="C173" t="str">
             <v>Judith Leenguyen</v>
@@ -3058,7 +3058,7 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>Kent Hutchens</v>
+            <v>Amy Finn</v>
           </cell>
           <cell r="C174" t="str">
             <v>Judith Leenguyen</v>
@@ -3075,7 +3075,7 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>Amy Finn</v>
+            <v>Jodi Pergolis</v>
           </cell>
           <cell r="C175" t="str">
             <v>Judith Leenguyen</v>
@@ -3092,10 +3092,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>Jodi Pergolis</v>
+            <v>Mark Barrett</v>
           </cell>
           <cell r="C176" t="str">
-            <v>Judith Leenguyen</v>
+            <v>Latrice Williams</v>
           </cell>
           <cell r="E176" t="str">
             <v>Oncology</v>
@@ -3109,7 +3109,7 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>Mark Barrett</v>
+            <v>John Towle</v>
           </cell>
           <cell r="C177" t="str">
             <v>Latrice Williams</v>
@@ -3126,7 +3126,7 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>John Towle</v>
+            <v>Andrew Oneil</v>
           </cell>
           <cell r="C178" t="str">
             <v>Latrice Williams</v>
@@ -3143,7 +3143,7 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>Andrew Oneil</v>
+            <v>Jeff Kounter</v>
           </cell>
           <cell r="C179" t="str">
             <v>Latrice Williams</v>
@@ -3160,7 +3160,7 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>Jeff Kounter</v>
+            <v>Kristin Ngchee</v>
           </cell>
           <cell r="C180" t="str">
             <v>Latrice Williams</v>
@@ -3177,7 +3177,7 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>Kristin Ngchee</v>
+            <v>Carl Meister</v>
           </cell>
           <cell r="C181" t="str">
             <v>Latrice Williams</v>
@@ -3194,7 +3194,7 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>Carl Meister</v>
+            <v>Adam Martin</v>
           </cell>
           <cell r="C182" t="str">
             <v>Latrice Williams</v>
@@ -3211,7 +3211,7 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>Adam Martin</v>
+            <v>John Costello</v>
           </cell>
           <cell r="C183" t="str">
             <v>Latrice Williams</v>
@@ -3228,7 +3228,7 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>John Costello</v>
+            <v>Joseph Giuliano</v>
           </cell>
           <cell r="C184" t="str">
             <v>Latrice Williams</v>
@@ -3245,13 +3245,13 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>Joseph Giuliano</v>
+            <v>Marilyn Gonzalez</v>
           </cell>
           <cell r="C185" t="str">
-            <v>Latrice Williams</v>
+            <v>Carlos Eduardo Munoz Borrero</v>
           </cell>
           <cell r="E185" t="str">
-            <v>Oncology</v>
+            <v>Puerto Rico Team</v>
           </cell>
           <cell r="G185">
             <v>1</v>
@@ -3262,7 +3262,7 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>Marilyn Gonzalez</v>
+            <v>Lillian Colon</v>
           </cell>
           <cell r="C186" t="str">
             <v>Carlos Eduardo Munoz Borrero</v>
@@ -3279,7 +3279,7 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>Lillian Colon</v>
+            <v>Juan Pablo Rosado</v>
           </cell>
           <cell r="C187" t="str">
             <v>Carlos Eduardo Munoz Borrero</v>
@@ -3296,13 +3296,13 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>Juan Pablo Rosado</v>
+            <v>Claire McSorley</v>
           </cell>
           <cell r="C188" t="str">
-            <v>Carlos Eduardo Munoz Borrero</v>
+            <v>Hari Ravindranathan</v>
           </cell>
           <cell r="E188" t="str">
-            <v>Puerto Rico Team</v>
+            <v>Oncology</v>
           </cell>
           <cell r="G188">
             <v>1</v>
@@ -3313,7 +3313,7 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>Mark Montello</v>
+            <v>Michael Nicolucci</v>
           </cell>
           <cell r="C189" t="str">
             <v>Hari Ravindranathan</v>
@@ -3322,7 +3322,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G189">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H189">
             <v>1</v>
@@ -3330,7 +3330,7 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Claire McSorley</v>
+            <v>Craig R Haubach</v>
           </cell>
           <cell r="C190" t="str">
             <v>Hari Ravindranathan</v>
@@ -3347,7 +3347,7 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Michael Nicolucci</v>
+            <v>Kimberley Olmstedkreag</v>
           </cell>
           <cell r="C191" t="str">
             <v>Hari Ravindranathan</v>
@@ -3364,7 +3364,7 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Craig R Haubach</v>
+            <v>Robert Wiley</v>
           </cell>
           <cell r="C192" t="str">
             <v>Hari Ravindranathan</v>
@@ -3381,7 +3381,7 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Kimberley Olmstedkreag</v>
+            <v>John Bousum</v>
           </cell>
           <cell r="C193" t="str">
             <v>Hari Ravindranathan</v>
@@ -3398,41 +3398,41 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Robert Wiley</v>
+            <v>Daniel Paul Casterline</v>
           </cell>
           <cell r="C194" t="str">
-            <v>Hari Ravindranathan</v>
+            <v>Dave Hull</v>
           </cell>
           <cell r="E194" t="str">
-            <v>Oncology</v>
+            <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G194">
             <v>1</v>
           </cell>
           <cell r="H194">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>John Bousum</v>
+            <v>Luke Woods</v>
           </cell>
           <cell r="C195" t="str">
-            <v>Hari Ravindranathan</v>
+            <v>Dave Hull</v>
           </cell>
           <cell r="E195" t="str">
-            <v>Oncology</v>
+            <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G195">
             <v>1</v>
           </cell>
           <cell r="H195">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Daniel Paul Casterline</v>
+            <v>Kim Cothran Elmore</v>
           </cell>
           <cell r="C196" t="str">
             <v>Dave Hull</v>
@@ -3449,7 +3449,7 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Luke Woods</v>
+            <v>Robert Yates</v>
           </cell>
           <cell r="C197" t="str">
             <v>Dave Hull</v>
@@ -3466,7 +3466,7 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Kim Cothran Elmore</v>
+            <v>Michele Stewart</v>
           </cell>
           <cell r="C198" t="str">
             <v>Dave Hull</v>
@@ -3483,10 +3483,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Robert Yates</v>
+            <v>Chris Lee</v>
           </cell>
           <cell r="C199" t="str">
-            <v>Dave Hull</v>
+            <v>Kate Fennell</v>
           </cell>
           <cell r="E199" t="str">
             <v xml:space="preserve">Vaccines </v>
@@ -3495,40 +3495,6 @@
             <v>1</v>
           </cell>
           <cell r="H199">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200" t="str">
-            <v>Michele Stewart</v>
-          </cell>
-          <cell r="C200" t="str">
-            <v>Dave Hull</v>
-          </cell>
-          <cell r="E200" t="str">
-            <v xml:space="preserve">Vaccines </v>
-          </cell>
-          <cell r="G200">
-            <v>1</v>
-          </cell>
-          <cell r="H200">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201" t="str">
-            <v>Chris Lee</v>
-          </cell>
-          <cell r="C201" t="str">
-            <v>Kate Fennell</v>
-          </cell>
-          <cell r="E201" t="str">
-            <v xml:space="preserve">Vaccines </v>
-          </cell>
-          <cell r="G201">
-            <v>1</v>
-          </cell>
-          <cell r="H201">
             <v>1</v>
           </cell>
         </row>
@@ -3860,11 +3826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293E68B8-5F41-4242-84FC-AE03A08092EE}">
-  <dimension ref="A1:E201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B459D908-1DC5-4ECA-9463-C6AD0607A7A1}">
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5216,7 +5182,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>[1]Roster!A62</f>
-        <v>Brianj Frisone</v>
+        <v>Brian Frisone</v>
       </c>
       <c r="B62" t="str">
         <f>[1]Roster!C62</f>
@@ -6140,7 +6106,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>[1]Roster!A104</f>
-        <v>Andrew Neno</v>
+        <v>Alice Lydon</v>
       </c>
       <c r="B104" t="str">
         <f>[1]Roster!C104</f>
@@ -6152,7 +6118,7 @@
       </c>
       <c r="D104" t="str">
         <f>IF([1]Roster!G104=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E104" t="str">
         <f>IF([1]Roster!H104=1,"complete","not-started")</f>
@@ -6162,7 +6128,7 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>[1]Roster!A105</f>
-        <v>Alice Lydon</v>
+        <v>Gaetano Calafati Jr</v>
       </c>
       <c r="B105" t="str">
         <f>[1]Roster!C105</f>
@@ -6184,7 +6150,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>[1]Roster!A106</f>
-        <v>Gaetano Calafati Jr</v>
+        <v>Sue Rose</v>
       </c>
       <c r="B106" t="str">
         <f>[1]Roster!C106</f>
@@ -6206,11 +6172,11 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>[1]Roster!A107</f>
-        <v>Sue Rose</v>
+        <v>Laura Ruiz-Martinez</v>
       </c>
       <c r="B107" t="str">
         <f>[1]Roster!C107</f>
-        <v>Kate Fennell</v>
+        <v>Michael Gavlak</v>
       </c>
       <c r="C107" t="str">
         <f>[1]Roster!E107</f>
@@ -6228,7 +6194,7 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>[1]Roster!A108</f>
-        <v>Laura Ruiz-Martinez</v>
+        <v>Leslie Brunette</v>
       </c>
       <c r="B108" t="str">
         <f>[1]Roster!C108</f>
@@ -6250,7 +6216,7 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>[1]Roster!A109</f>
-        <v>Leslie Brunette</v>
+        <v>Chris Golden</v>
       </c>
       <c r="B109" t="str">
         <f>[1]Roster!C109</f>
@@ -6272,7 +6238,7 @@
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>[1]Roster!A110</f>
-        <v>Chris Golden</v>
+        <v>Michelle Moylanelder</v>
       </c>
       <c r="B110" t="str">
         <f>[1]Roster!C110</f>
@@ -6294,7 +6260,7 @@
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>[1]Roster!A111</f>
-        <v>Michelle Moylanelder</v>
+        <v>Lynn Mckinley</v>
       </c>
       <c r="B111" t="str">
         <f>[1]Roster!C111</f>
@@ -6316,7 +6282,7 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>[1]Roster!A112</f>
-        <v>Lynn Mckinley</v>
+        <v>Sarah Sawyer</v>
       </c>
       <c r="B112" t="str">
         <f>[1]Roster!C112</f>
@@ -6338,11 +6304,11 @@
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>[1]Roster!A113</f>
-        <v>Sarah Sawyer</v>
+        <v>Kenneth Simon</v>
       </c>
       <c r="B113" t="str">
         <f>[1]Roster!C113</f>
-        <v>Michael Gavlak</v>
+        <v>Brian Hawkins</v>
       </c>
       <c r="C113" t="str">
         <f>[1]Roster!E113</f>
@@ -6360,7 +6326,7 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>[1]Roster!A114</f>
-        <v>Kenneth Simon</v>
+        <v>Patrick Neither</v>
       </c>
       <c r="B114" t="str">
         <f>[1]Roster!C114</f>
@@ -6382,7 +6348,7 @@
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>[1]Roster!A115</f>
-        <v>Patrick Neither</v>
+        <v>Dino Villa</v>
       </c>
       <c r="B115" t="str">
         <f>[1]Roster!C115</f>
@@ -6404,7 +6370,7 @@
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>[1]Roster!A116</f>
-        <v>Dino Villa</v>
+        <v>Ali Broxson</v>
       </c>
       <c r="B116" t="str">
         <f>[1]Roster!C116</f>
@@ -6426,7 +6392,7 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>[1]Roster!A117</f>
-        <v>Ali Broxson</v>
+        <v>Jeffrey Hadley</v>
       </c>
       <c r="B117" t="str">
         <f>[1]Roster!C117</f>
@@ -6448,11 +6414,11 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>[1]Roster!A118</f>
-        <v>Jeffrey Hadley</v>
+        <v>Theodore Scheff</v>
       </c>
       <c r="B118" t="str">
         <f>[1]Roster!C118</f>
-        <v>Brian Hawkins</v>
+        <v>Thomas Lyon</v>
       </c>
       <c r="C118" t="str">
         <f>[1]Roster!E118</f>
@@ -6470,7 +6436,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>[1]Roster!A119</f>
-        <v>Theodore Scheff</v>
+        <v>Michelle Reeder</v>
       </c>
       <c r="B119" t="str">
         <f>[1]Roster!C119</f>
@@ -6492,7 +6458,7 @@
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>[1]Roster!A120</f>
-        <v>Michelle Reeder</v>
+        <v>Annie Laporta</v>
       </c>
       <c r="B120" t="str">
         <f>[1]Roster!C120</f>
@@ -6514,7 +6480,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>[1]Roster!A121</f>
-        <v>Annie Laporta</v>
+        <v>Leslie Nodler</v>
       </c>
       <c r="B121" t="str">
         <f>[1]Roster!C121</f>
@@ -6536,7 +6502,7 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>[1]Roster!A122</f>
-        <v>Leslie Nodler</v>
+        <v>James Kemp</v>
       </c>
       <c r="B122" t="str">
         <f>[1]Roster!C122</f>
@@ -6558,7 +6524,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>[1]Roster!A123</f>
-        <v>James Kemp</v>
+        <v>James Devins</v>
       </c>
       <c r="B123" t="str">
         <f>[1]Roster!C123</f>
@@ -6580,7 +6546,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>[1]Roster!A124</f>
-        <v>James Devins</v>
+        <v>Lisa Hohman</v>
       </c>
       <c r="B124" t="str">
         <f>[1]Roster!C124</f>
@@ -6602,7 +6568,7 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>[1]Roster!A125</f>
-        <v>Lisa Hohman</v>
+        <v>Jennifer Bentley</v>
       </c>
       <c r="B125" t="str">
         <f>[1]Roster!C125</f>
@@ -6624,7 +6590,7 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>[1]Roster!A126</f>
-        <v>Jennifer Bentley</v>
+        <v>Peter Hayek</v>
       </c>
       <c r="B126" t="str">
         <f>[1]Roster!C126</f>
@@ -6646,7 +6612,7 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>[1]Roster!A127</f>
-        <v>Peter Hayek</v>
+        <v>Jane Dantinne</v>
       </c>
       <c r="B127" t="str">
         <f>[1]Roster!C127</f>
@@ -6668,7 +6634,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>[1]Roster!A128</f>
-        <v>Jane Dantinne</v>
+        <v>Kerry Yamat</v>
       </c>
       <c r="B128" t="str">
         <f>[1]Roster!C128</f>
@@ -6690,11 +6656,11 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>[1]Roster!A129</f>
-        <v>Kerry Yamat</v>
+        <v>Kyle Spencer</v>
       </c>
       <c r="B129" t="str">
         <f>[1]Roster!C129</f>
-        <v>Thomas Lyon</v>
+        <v>Andrew Finkelstein</v>
       </c>
       <c r="C129" t="str">
         <f>[1]Roster!E129</f>
@@ -6712,7 +6678,7 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
         <f>[1]Roster!A130</f>
-        <v>Kyle Spencer</v>
+        <v>Shilpa Kalawadia</v>
       </c>
       <c r="B130" t="str">
         <f>[1]Roster!C130</f>
@@ -6734,7 +6700,7 @@
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
         <f>[1]Roster!A131</f>
-        <v>Shilpa Kalawadia</v>
+        <v>Steven Gardner</v>
       </c>
       <c r="B131" t="str">
         <f>[1]Roster!C131</f>
@@ -6756,7 +6722,7 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="str">
         <f>[1]Roster!A132</f>
-        <v>Steven Gardner</v>
+        <v>Dawn Conrad</v>
       </c>
       <c r="B132" t="str">
         <f>[1]Roster!C132</f>
@@ -6778,7 +6744,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
         <f>[1]Roster!A133</f>
-        <v>Dawn Conrad</v>
+        <v>Paula Novabilski</v>
       </c>
       <c r="B133" t="str">
         <f>[1]Roster!C133</f>
@@ -6800,7 +6766,7 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f>[1]Roster!A134</f>
-        <v>Paula Novabilski</v>
+        <v>Lynnette Nestor</v>
       </c>
       <c r="B134" t="str">
         <f>[1]Roster!C134</f>
@@ -6822,7 +6788,7 @@
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f>[1]Roster!A135</f>
-        <v>Lynnette Nestor</v>
+        <v>Melissa Rieflin</v>
       </c>
       <c r="B135" t="str">
         <f>[1]Roster!C135</f>
@@ -6844,15 +6810,15 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f>[1]Roster!A136</f>
-        <v>Melissa Rieflin</v>
+        <v>Bill Germond</v>
       </c>
       <c r="B136" t="str">
         <f>[1]Roster!C136</f>
-        <v>Andrew Finkelstein</v>
+        <v>Mark Karwowski</v>
       </c>
       <c r="C136" t="str">
         <f>[1]Roster!E136</f>
-        <v xml:space="preserve">Vaccines </v>
+        <v>Oncology</v>
       </c>
       <c r="D136" t="str">
         <f>IF([1]Roster!G136=1,"complete","not-started")</f>
@@ -6866,7 +6832,7 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
         <f>[1]Roster!A137</f>
-        <v>Bill Germond</v>
+        <v>Andrea Hobbs</v>
       </c>
       <c r="B137" t="str">
         <f>[1]Roster!C137</f>
@@ -6888,7 +6854,7 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
         <f>[1]Roster!A138</f>
-        <v>Andrea Hobbs</v>
+        <v>Tobey Hoambrecker</v>
       </c>
       <c r="B138" t="str">
         <f>[1]Roster!C138</f>
@@ -6910,7 +6876,7 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="str">
         <f>[1]Roster!A139</f>
-        <v>Tobey Hoambrecker</v>
+        <v>Kimberly Kunkleman</v>
       </c>
       <c r="B139" t="str">
         <f>[1]Roster!C139</f>
@@ -6932,7 +6898,7 @@
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
         <f>[1]Roster!A140</f>
-        <v>Kimberly Kunkleman</v>
+        <v>Jennifer Neumer</v>
       </c>
       <c r="B140" t="str">
         <f>[1]Roster!C140</f>
@@ -6954,7 +6920,7 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="str">
         <f>[1]Roster!A141</f>
-        <v>Jennifer Neumer</v>
+        <v>Joseph Yurt</v>
       </c>
       <c r="B141" t="str">
         <f>[1]Roster!C141</f>
@@ -6976,7 +6942,7 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="str">
         <f>[1]Roster!A142</f>
-        <v>Joseph Yurt</v>
+        <v>Christopher Gosselin</v>
       </c>
       <c r="B142" t="str">
         <f>[1]Roster!C142</f>
@@ -6998,7 +6964,7 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="str">
         <f>[1]Roster!A143</f>
-        <v>Christopher Gosselin</v>
+        <v>Jason Monk</v>
       </c>
       <c r="B143" t="str">
         <f>[1]Roster!C143</f>
@@ -7020,7 +6986,7 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
         <f>[1]Roster!A144</f>
-        <v>Jason Monk</v>
+        <v>Dawn Hansen</v>
       </c>
       <c r="B144" t="str">
         <f>[1]Roster!C144</f>
@@ -7042,11 +7008,11 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="str">
         <f>[1]Roster!A145</f>
-        <v>Dawn Hansen</v>
+        <v>Karyn Tomlin</v>
       </c>
       <c r="B145" t="str">
         <f>[1]Roster!C145</f>
-        <v>Mark Karwowski</v>
+        <v>Robert Murphy</v>
       </c>
       <c r="C145" t="str">
         <f>[1]Roster!E145</f>
@@ -7064,7 +7030,7 @@
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="str">
         <f>[1]Roster!A146</f>
-        <v>Karyn Tomlin</v>
+        <v>Troy Siragusa</v>
       </c>
       <c r="B146" t="str">
         <f>[1]Roster!C146</f>
@@ -7086,7 +7052,7 @@
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="str">
         <f>[1]Roster!A147</f>
-        <v>Troy Siragusa</v>
+        <v>Sylvia Jacobs</v>
       </c>
       <c r="B147" t="str">
         <f>[1]Roster!C147</f>
@@ -7108,7 +7074,7 @@
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f>[1]Roster!A148</f>
-        <v>Sylvia Jacobs</v>
+        <v>Brandon Black</v>
       </c>
       <c r="B148" t="str">
         <f>[1]Roster!C148</f>
@@ -7130,7 +7096,7 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="str">
         <f>[1]Roster!A149</f>
-        <v>Brandon Black</v>
+        <v>Michelle Mitchell</v>
       </c>
       <c r="B149" t="str">
         <f>[1]Roster!C149</f>
@@ -7152,7 +7118,7 @@
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="str">
         <f>[1]Roster!A150</f>
-        <v>Michelleb Mitchell</v>
+        <v>Deborah Bergman</v>
       </c>
       <c r="B150" t="str">
         <f>[1]Roster!C150</f>
@@ -7174,7 +7140,7 @@
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="str">
         <f>[1]Roster!A151</f>
-        <v>Deborah Bergman</v>
+        <v>Robby Robinson</v>
       </c>
       <c r="B151" t="str">
         <f>[1]Roster!C151</f>
@@ -7196,7 +7162,7 @@
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="str">
         <f>[1]Roster!A152</f>
-        <v>Robby Robinson</v>
+        <v>Nikole Austrup-Jones</v>
       </c>
       <c r="B152" t="str">
         <f>[1]Roster!C152</f>
@@ -7218,7 +7184,7 @@
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="str">
         <f>[1]Roster!A153</f>
-        <v>Nikole Austrup-Jones</v>
+        <v>Jasmina Boruta</v>
       </c>
       <c r="B153" t="str">
         <f>[1]Roster!C153</f>
@@ -7240,11 +7206,11 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="str">
         <f>[1]Roster!A154</f>
-        <v>Jasmina Boruta</v>
+        <v>Larry Balone</v>
       </c>
       <c r="B154" t="str">
         <f>[1]Roster!C154</f>
-        <v>Robert Murphy</v>
+        <v>Theresa Cohen</v>
       </c>
       <c r="C154" t="str">
         <f>[1]Roster!E154</f>
@@ -7262,7 +7228,7 @@
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="str">
         <f>[1]Roster!A155</f>
-        <v>Larry Balone</v>
+        <v>John Foster</v>
       </c>
       <c r="B155" t="str">
         <f>[1]Roster!C155</f>
@@ -7284,7 +7250,7 @@
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="str">
         <f>[1]Roster!A156</f>
-        <v>John Foster</v>
+        <v>Alexis Amici</v>
       </c>
       <c r="B156" t="str">
         <f>[1]Roster!C156</f>
@@ -7306,7 +7272,7 @@
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="str">
         <f>[1]Roster!A157</f>
-        <v>Alexis Amici</v>
+        <v>Michele Torelli</v>
       </c>
       <c r="B157" t="str">
         <f>[1]Roster!C157</f>
@@ -7328,7 +7294,7 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
         <f>[1]Roster!A158</f>
-        <v>Michele Torelli</v>
+        <v>Steve Fowler</v>
       </c>
       <c r="B158" t="str">
         <f>[1]Roster!C158</f>
@@ -7350,7 +7316,7 @@
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="str">
         <f>[1]Roster!A159</f>
-        <v>Steve Fowler</v>
+        <v>Tiffany Grand</v>
       </c>
       <c r="B159" t="str">
         <f>[1]Roster!C159</f>
@@ -7372,7 +7338,7 @@
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="str">
         <f>[1]Roster!A160</f>
-        <v>Tiffany Grand</v>
+        <v>Thomas Berte</v>
       </c>
       <c r="B160" t="str">
         <f>[1]Roster!C160</f>
@@ -7394,7 +7360,7 @@
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="str">
         <f>[1]Roster!A161</f>
-        <v>Thomas Berte</v>
+        <v>Tara Fleming</v>
       </c>
       <c r="B161" t="str">
         <f>[1]Roster!C161</f>
@@ -7416,7 +7382,7 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
         <f>[1]Roster!A162</f>
-        <v>Tara Fleming</v>
+        <v>Ann Wagner</v>
       </c>
       <c r="B162" t="str">
         <f>[1]Roster!C162</f>
@@ -7438,7 +7404,7 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="str">
         <f>[1]Roster!A163</f>
-        <v>Ann Wagner</v>
+        <v>David Williams</v>
       </c>
       <c r="B163" t="str">
         <f>[1]Roster!C163</f>
@@ -7460,7 +7426,7 @@
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="str">
         <f>[1]Roster!A164</f>
-        <v>David Williams</v>
+        <v>Douglas Slape</v>
       </c>
       <c r="B164" t="str">
         <f>[1]Roster!C164</f>
@@ -7482,11 +7448,11 @@
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
         <f>[1]Roster!A165</f>
-        <v>Douglas Slape</v>
+        <v>Shandra Harvey Stewart</v>
       </c>
       <c r="B165" t="str">
         <f>[1]Roster!C165</f>
-        <v>Theresa Cohen</v>
+        <v>Judith Leenguyen</v>
       </c>
       <c r="C165" t="str">
         <f>[1]Roster!E165</f>
@@ -7504,7 +7470,7 @@
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="str">
         <f>[1]Roster!A166</f>
-        <v>Shandra Harvey Stewart</v>
+        <v>Hayley Ludwig</v>
       </c>
       <c r="B166" t="str">
         <f>[1]Roster!C166</f>
@@ -7526,7 +7492,7 @@
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="str">
         <f>[1]Roster!A167</f>
-        <v>Hayley Ludwig</v>
+        <v>Maureen Hall</v>
       </c>
       <c r="B167" t="str">
         <f>[1]Roster!C167</f>
@@ -7548,7 +7514,7 @@
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="str">
         <f>[1]Roster!A168</f>
-        <v>Maureen Hall</v>
+        <v>Randy Benson</v>
       </c>
       <c r="B168" t="str">
         <f>[1]Roster!C168</f>
@@ -7570,7 +7536,7 @@
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="str">
         <f>[1]Roster!A169</f>
-        <v>Randy Benson</v>
+        <v>Mark Campbell</v>
       </c>
       <c r="B169" t="str">
         <f>[1]Roster!C169</f>
@@ -7592,7 +7558,7 @@
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="str">
         <f>[1]Roster!A170</f>
-        <v>Mark Campbell</v>
+        <v>Bree Carlin</v>
       </c>
       <c r="B170" t="str">
         <f>[1]Roster!C170</f>
@@ -7614,7 +7580,7 @@
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="str">
         <f>[1]Roster!A171</f>
-        <v>Bree Carlin</v>
+        <v>Cecelia Daly</v>
       </c>
       <c r="B171" t="str">
         <f>[1]Roster!C171</f>
@@ -7636,7 +7602,7 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="str">
         <f>[1]Roster!A172</f>
-        <v>Cecelia Daly</v>
+        <v>Christopher Billmann</v>
       </c>
       <c r="B172" t="str">
         <f>[1]Roster!C172</f>
@@ -7658,7 +7624,7 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="str">
         <f>[1]Roster!A173</f>
-        <v>Christopher Billmann</v>
+        <v>Kent Hutchens</v>
       </c>
       <c r="B173" t="str">
         <f>[1]Roster!C173</f>
@@ -7680,7 +7646,7 @@
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="str">
         <f>[1]Roster!A174</f>
-        <v>Kent Hutchens</v>
+        <v>Amy Finn</v>
       </c>
       <c r="B174" t="str">
         <f>[1]Roster!C174</f>
@@ -7702,7 +7668,7 @@
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="str">
         <f>[1]Roster!A175</f>
-        <v>Amy Finn</v>
+        <v>Jodi Pergolis</v>
       </c>
       <c r="B175" t="str">
         <f>[1]Roster!C175</f>
@@ -7724,11 +7690,11 @@
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="str">
         <f>[1]Roster!A176</f>
-        <v>Jodi Pergolis</v>
+        <v>Mark Barrett</v>
       </c>
       <c r="B176" t="str">
         <f>[1]Roster!C176</f>
-        <v>Judith Leenguyen</v>
+        <v>Latrice Williams</v>
       </c>
       <c r="C176" t="str">
         <f>[1]Roster!E176</f>
@@ -7746,7 +7712,7 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="str">
         <f>[1]Roster!A177</f>
-        <v>Mark Barrett</v>
+        <v>John Towle</v>
       </c>
       <c r="B177" t="str">
         <f>[1]Roster!C177</f>
@@ -7768,7 +7734,7 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="str">
         <f>[1]Roster!A178</f>
-        <v>John Towle</v>
+        <v>Andrew Oneil</v>
       </c>
       <c r="B178" t="str">
         <f>[1]Roster!C178</f>
@@ -7790,7 +7756,7 @@
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="str">
         <f>[1]Roster!A179</f>
-        <v>Andrew Oneil</v>
+        <v>Jeff Kounter</v>
       </c>
       <c r="B179" t="str">
         <f>[1]Roster!C179</f>
@@ -7812,7 +7778,7 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="str">
         <f>[1]Roster!A180</f>
-        <v>Jeff Kounter</v>
+        <v>Kristin Ngchee</v>
       </c>
       <c r="B180" t="str">
         <f>[1]Roster!C180</f>
@@ -7834,7 +7800,7 @@
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="str">
         <f>[1]Roster!A181</f>
-        <v>Kristin Ngchee</v>
+        <v>Carl Meister</v>
       </c>
       <c r="B181" t="str">
         <f>[1]Roster!C181</f>
@@ -7856,7 +7822,7 @@
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="str">
         <f>[1]Roster!A182</f>
-        <v>Carl Meister</v>
+        <v>Adam Martin</v>
       </c>
       <c r="B182" t="str">
         <f>[1]Roster!C182</f>
@@ -7878,7 +7844,7 @@
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="str">
         <f>[1]Roster!A183</f>
-        <v>Adam Martin</v>
+        <v>John Costello</v>
       </c>
       <c r="B183" t="str">
         <f>[1]Roster!C183</f>
@@ -7900,7 +7866,7 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="str">
         <f>[1]Roster!A184</f>
-        <v>John Costello</v>
+        <v>Joseph Giuliano</v>
       </c>
       <c r="B184" t="str">
         <f>[1]Roster!C184</f>
@@ -7922,15 +7888,15 @@
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="str">
         <f>[1]Roster!A185</f>
-        <v>Joseph Giuliano</v>
+        <v>Marilyn Gonzalez</v>
       </c>
       <c r="B185" t="str">
         <f>[1]Roster!C185</f>
-        <v>Latrice Williams</v>
+        <v>Carlos Eduardo Munoz Borrero</v>
       </c>
       <c r="C185" t="str">
         <f>[1]Roster!E185</f>
-        <v>Oncology</v>
+        <v>Puerto Rico Team</v>
       </c>
       <c r="D185" t="str">
         <f>IF([1]Roster!G185=1,"complete","not-started")</f>
@@ -7944,7 +7910,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="str">
         <f>[1]Roster!A186</f>
-        <v>Marilyn Gonzalez</v>
+        <v>Lillian Colon</v>
       </c>
       <c r="B186" t="str">
         <f>[1]Roster!C186</f>
@@ -7966,7 +7932,7 @@
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="str">
         <f>[1]Roster!A187</f>
-        <v>Lillian Colon</v>
+        <v>Juan Pablo Rosado</v>
       </c>
       <c r="B187" t="str">
         <f>[1]Roster!C187</f>
@@ -7988,15 +7954,15 @@
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="str">
         <f>[1]Roster!A188</f>
-        <v>Juan Pablo Rosado</v>
+        <v>Claire McSorley</v>
       </c>
       <c r="B188" t="str">
         <f>[1]Roster!C188</f>
-        <v>Carlos Eduardo Munoz Borrero</v>
+        <v>Hari Ravindranathan</v>
       </c>
       <c r="C188" t="str">
         <f>[1]Roster!E188</f>
-        <v>Puerto Rico Team</v>
+        <v>Oncology</v>
       </c>
       <c r="D188" t="str">
         <f>IF([1]Roster!G188=1,"complete","not-started")</f>
@@ -8010,7 +7976,7 @@
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="str">
         <f>[1]Roster!A189</f>
-        <v>Mark Montello</v>
+        <v>Michael Nicolucci</v>
       </c>
       <c r="B189" t="str">
         <f>[1]Roster!C189</f>
@@ -8022,7 +7988,7 @@
       </c>
       <c r="D189" t="str">
         <f>IF([1]Roster!G189=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E189" t="str">
         <f>IF([1]Roster!H189=1,"complete","not-started")</f>
@@ -8032,7 +7998,7 @@
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="str">
         <f>[1]Roster!A190</f>
-        <v>Claire McSorley</v>
+        <v>Craig R Haubach</v>
       </c>
       <c r="B190" t="str">
         <f>[1]Roster!C190</f>
@@ -8054,7 +8020,7 @@
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="str">
         <f>[1]Roster!A191</f>
-        <v>Michael Nicolucci</v>
+        <v>Kimberley Olmstedkreag</v>
       </c>
       <c r="B191" t="str">
         <f>[1]Roster!C191</f>
@@ -8076,7 +8042,7 @@
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="str">
         <f>[1]Roster!A192</f>
-        <v>Craig R Haubach</v>
+        <v>Robert Wiley</v>
       </c>
       <c r="B192" t="str">
         <f>[1]Roster!C192</f>
@@ -8098,7 +8064,7 @@
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="str">
         <f>[1]Roster!A193</f>
-        <v>Kimberley Olmstedkreag</v>
+        <v>John Bousum</v>
       </c>
       <c r="B193" t="str">
         <f>[1]Roster!C193</f>
@@ -8120,15 +8086,15 @@
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="str">
         <f>[1]Roster!A194</f>
-        <v>Robert Wiley</v>
+        <v>Daniel Paul Casterline</v>
       </c>
       <c r="B194" t="str">
         <f>[1]Roster!C194</f>
-        <v>Hari Ravindranathan</v>
+        <v>Dave Hull</v>
       </c>
       <c r="C194" t="str">
         <f>[1]Roster!E194</f>
-        <v>Oncology</v>
+        <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D194" t="str">
         <f>IF([1]Roster!G194=1,"complete","not-started")</f>
@@ -8136,21 +8102,21 @@
       </c>
       <c r="E194" t="str">
         <f>IF([1]Roster!H194=1,"complete","not-started")</f>
-        <v>complete</v>
+        <v>not-started</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="str">
         <f>[1]Roster!A195</f>
-        <v>John Bousum</v>
+        <v>Luke Woods</v>
       </c>
       <c r="B195" t="str">
         <f>[1]Roster!C195</f>
-        <v>Hari Ravindranathan</v>
+        <v>Dave Hull</v>
       </c>
       <c r="C195" t="str">
         <f>[1]Roster!E195</f>
-        <v>Oncology</v>
+        <v xml:space="preserve">Vaccines </v>
       </c>
       <c r="D195" t="str">
         <f>IF([1]Roster!G195=1,"complete","not-started")</f>
@@ -8158,13 +8124,13 @@
       </c>
       <c r="E195" t="str">
         <f>IF([1]Roster!H195=1,"complete","not-started")</f>
-        <v>complete</v>
+        <v>not-started</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="str">
         <f>[1]Roster!A196</f>
-        <v>Daniel Paul Casterline</v>
+        <v>Kim Cothran Elmore</v>
       </c>
       <c r="B196" t="str">
         <f>[1]Roster!C196</f>
@@ -8186,7 +8152,7 @@
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="str">
         <f>[1]Roster!A197</f>
-        <v>Luke Woods</v>
+        <v>Robert Yates</v>
       </c>
       <c r="B197" t="str">
         <f>[1]Roster!C197</f>
@@ -8208,7 +8174,7 @@
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="str">
         <f>[1]Roster!A198</f>
-        <v>Kim Cothran Elmore</v>
+        <v>Michele Stewart</v>
       </c>
       <c r="B198" t="str">
         <f>[1]Roster!C198</f>
@@ -8230,11 +8196,11 @@
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="str">
         <f>[1]Roster!A199</f>
-        <v>Robert Yates</v>
+        <v>Chris Lee</v>
       </c>
       <c r="B199" t="str">
         <f>[1]Roster!C199</f>
-        <v>Dave Hull</v>
+        <v>Kate Fennell</v>
       </c>
       <c r="C199" t="str">
         <f>[1]Roster!E199</f>
@@ -8246,50 +8212,6 @@
       </c>
       <c r="E199" t="str">
         <f>IF([1]Roster!H199=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" t="str">
-        <f>[1]Roster!A200</f>
-        <v>Michele Stewart</v>
-      </c>
-      <c r="B200" t="str">
-        <f>[1]Roster!C200</f>
-        <v>Dave Hull</v>
-      </c>
-      <c r="C200" t="str">
-        <f>[1]Roster!E200</f>
-        <v xml:space="preserve">Vaccines </v>
-      </c>
-      <c r="D200" t="str">
-        <f>IF([1]Roster!G200=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-      <c r="E200" t="str">
-        <f>IF([1]Roster!H200=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" t="str">
-        <f>[1]Roster!A201</f>
-        <v>Chris Lee</v>
-      </c>
-      <c r="B201" t="str">
-        <f>[1]Roster!C201</f>
-        <v>Kate Fennell</v>
-      </c>
-      <c r="C201" t="str">
-        <f>[1]Roster!E201</f>
-        <v xml:space="preserve">Vaccines </v>
-      </c>
-      <c r="D201" t="str">
-        <f>IF([1]Roster!G201=1,"complete","not-started")</f>
-        <v>complete</v>
-      </c>
-      <c r="E201" t="str">
-        <f>IF([1]Roster!H201=1,"complete","not-started")</f>
         <v>complete</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED422FA-CD4C-4B90-AB4E-044D598B946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2B9845-0328-4483-BE8D-1A00879F0D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9FE6FD09-5784-4E2E-B668-61054BF62BD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B01ED23-5D7F-46B0-B317-8E4646B7C785}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$D$1:$D$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
     <t>Director</t>
   </si>
   <si>
-    <t>Busuness_Unit</t>
+    <t>Business_Unit</t>
   </si>
   <si>
     <t>selfAssessment</t>
@@ -279,7 +279,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G10">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H10">
             <v>1</v>
@@ -1690,7 +1690,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G93">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H93">
             <v>1</v>
@@ -3410,7 +3410,7 @@
             <v>1</v>
           </cell>
           <cell r="H194">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="195">
@@ -3427,7 +3427,7 @@
             <v>1</v>
           </cell>
           <cell r="H195">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="196">
@@ -3444,7 +3444,7 @@
             <v>1</v>
           </cell>
           <cell r="H196">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="197">
@@ -3461,7 +3461,7 @@
             <v>1</v>
           </cell>
           <cell r="H197">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="198">
@@ -3478,7 +3478,7 @@
             <v>1</v>
           </cell>
           <cell r="H198">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="199">
@@ -3826,11 +3826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B459D908-1DC5-4ECA-9463-C6AD0607A7A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350F7827-AED9-48B3-99C6-7C59ADE05F52}">
   <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="D10" t="str">
         <f>IF([1]Roster!G10=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E10" t="str">
         <f>IF([1]Roster!H10=1,"complete","not-started")</f>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="D93" t="str">
         <f>IF([1]Roster!G93=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E93" t="str">
         <f>IF([1]Roster!H93=1,"complete","not-started")</f>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="E194" t="str">
         <f>IF([1]Roster!H194=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="E195" t="str">
         <f>IF([1]Roster!H195=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="E196" t="str">
         <f>IF([1]Roster!H196=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="E197" t="str">
         <f>IF([1]Roster!H197=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="E198" t="str">
         <f>IF([1]Roster!H198=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2B9845-0328-4483-BE8D-1A00879F0D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8131B672-3444-455D-A037-B26F1B5A94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B01ED23-5D7F-46B0-B317-8E4646B7C785}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{12E69979-A34A-4248-877C-6BB8553A2803}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G73">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H73">
             <v>1</v>
@@ -3826,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350F7827-AED9-48B3-99C6-7C59ADE05F52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DCBB1B-59D4-460A-9BA1-AA7DB06ECA26}">
   <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="D73" t="str">
         <f>IF([1]Roster!G73=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E73" t="str">
         <f>IF([1]Roster!H73=1,"complete","not-started")</f>
@@ -8216,6 +8216,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D199" xr:uid="{86293960-12F1-4BBA-96D9-411E177C3BCB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
